--- a/법원판례.xlsx
+++ b/법원판례.xlsx
@@ -1,48 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SICT\Documents\UiPath\대법원자료조사\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SICT\Documents\UiPath\SiCT_Lawfirm_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C662D8-C890-4486-B081-861A6BAB2C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66F5525-DEFD-4FC4-9483-B0362215C724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{5686E956-598C-4551-AE37-BBE0466D254C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>대법원 2022. 5. 12. 선고 2022도3265 판결 [사기ㆍ사기미수ㆍ업무방해ㆍ전자금융거래법위반ㆍ주민등록법위반ㆍ사문서위조ㆍ위조사문서행사][미간행]
-【상 고 인】 피고인 【변 호 인】 변호사 최길림 【원심판결】 전주지법 2022. 2. 10. 선고 2021노1839 판결 【주 문】 원심판결을 파기하고, 사건을 전주지방법원에 환송한다.
-【이 유】 상고이유를 판단한다.
-1. 공소사실 중 업무방해 부분의 요지와 원심의 판단
-검사는, ‘사실은 피고인 1명이 자동화기기에서 전화금융사기 편취금을 성명불상의 전화금융사기 조직원이 지정한 계좌로 입금하는 것임에도 피고인은 전화금융사기 조직원으로부터 제공받은 제3자 명의 주민등록번호를 이용해 마치 여러 명이 각각 피해자 금융기관의 ‘1일 100만 원’ 한도를 준수하면서 정상적으로 입금하는 것처럼 가장하여 전화금융사기 편취금을 100만 원 이하의 금액으로 나누어 위</t>
-  </si>
-  <si>
-    <t>대법원 2013. 8. 23. 선고 2013도4004 판결 [전자금융거래법위반]〈은행통장 등 양도양수 사건〉 [공2013하,1738]  
-양수한 경우에만 처벌대상이 된다고 볼 수 없다.
-[2] 피고인이 갑으로부터 건네받은 을 명의 통장 등 접근매체를 병이 지시하는 성명을 알 수 없는 사람에게 양도하였다고 하여 전자금융거래법 위반으로 기소된 사안에서, 피고인은 단순히 접근매체를 사기 범행의 공범들 사이에서 내부적으로 전달하였다기보다 접근매체를 매수한 후 전부를 다시 매도하여 중간 차익을 얻는 행위를 업으로 한 점, 전화금융사기 범행의 특성상 유기적으로 연결된 범죄집단과 달리 행위자들 사이에 충분히 접근매체의 거래가 이루어질 수 있는 점, 접근매체의 유통 과정은 취득자가 접근매체를 이용하여 임의로 전자금융거래를 할 수 있음을 전제로 하고 있고 그에 대하여 일정한</t>
-  </si>
-  <si>
-    <t>대법원 2022. 2. 11. 선고 2021도15246 판결 [사기ㆍ사문서위조ㆍ위조사문서행사ㆍ업무방해][미간행]
-배상명령신청 【주 문】 원심판결을 파기하고, 사건을 춘천지방법원 강릉지원에 환송한다.
-【이 유】 직권으로 살펴본다.
-1. 이 사건 공소사실 중 업무방해의 점은 ‘사실은 피고인이 혼자 전화금융사기 편취금을 한꺼번에 자동화기기를 통한 무통장ㆍ무카드 입금(이하 ‘무매체 입금’이라 한다)하는 것임에도 마치 여러 명이 각각 피해자 은행들의 ‘1인 1일 100만 원’ 한도를 준수하면서 정상적으로 무매체 입금거래를 하는 것처럼 가장하여 전화금융사기 조직원으로부터 제공받은 제3자의 이름과 주민등록번호를 자동화기기에 입력한 후 100만 원 이하의 금액으로 나누어 위 조직원이 지정한 불상의 계좌로 무매체 입금을 함으로써 전화금융사기 조직원과</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요약정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대법원 2014. 12. 24. 선고 2013다98222 판결 [부당이득금][미간행]
@@ -55,170 +56,92 @@
 [2] 갑이 금융기관인 을 주식회사 등에서 예금계좌를 개설하여 금융거래를 하면서 인터넷뱅킹서비스를 이용하여 왔는데, 병이 전화금융사기(이른바 보이스피싱)를 통하여 갑에게서 취득한 금융거래정보를 이용하여 갑 명의의 공인인증서를 재발급받아 다른 금융기관들로부터 대출서비스 등을 받은 사안에서, 갑이 제3자에게 접근매체인 공인인증서 발급에 필수적인 계좌번호, 계좌비밀번호, 주민등록번호, 보안카드번호, 보안카드비밀번호를 모두 알려준 점 등 제반</t>
   </si>
   <si>
-    <t>대법원 2020. 8. 20. 선고 2019도16263 판결 [범죄단체조직ㆍ범죄단체가입ㆍ범죄단체활동ㆍ사기ㆍ사기방조ㆍ자동차관리법위반ㆍ위증]〈형법 제114조의 범죄집단조직·가입·활동 사건〉 [공2020하,1824]  
-, 광고 등을 준비해 외부사무실을 운영하면서 팀장을 채용한 뒤 팀장으로 하여금 팀을 꾸려 사기범행을 실행하도록 하고, 할부금융사로부터 할부중개수수료를 받으면 이를 팀별로 배분하는 역할을 수행하였으며, 대표 또는 팀장은 팀장, 출동조, 전화상담원에게 고객을 유인하고 대응하는 법이나 기망하는 방법 등에 대해 교육한 점, 대표는 등을 공유하였으며, 팀장들은 공유된 정보를 소속 출동조 및 상담원에게 전파한 점 등을 종합하면, 외부사무실은 특정 다수인이 사기범행을 수행한다는 공동목적 아래 구성원들이 대표, 팀장, 출동조, 전화상담원 등 정해진 역할분담에 따라 행동함으로써 사기범행을 반복적으로 실행하는 체계를 갖춘 결합체, 즉 형법 제114조 의</t>
-  </si>
-  <si>
-    <t>대법원 2020. 9. 7. 선고 2020도7915 판결 [범죄단체활동ㆍ사기ㆍ범죄단체가입ㆍ자동차관리법위반ㆍ도로교통법위반(무면허운전)ㆍ사문서위조ㆍ위조사문서행사ㆍ횡령ㆍ도로교통법위반ㆍ공무집행방해ㆍ절도][미간행]
-직원이 평균 20~30명 정도 있었고, 평균 5~6개의 팀이 있었다. 이 사건 외부 사무실은 회사 조직과 유사하게 대표, 팀장, 팀원(출동조, 전화상담원)으로 직책이나 역할이 분담되어 있었다. 상담원은 인터넷 허위 광고를 보고 전화를 건 손님들에게 거짓말로 이 사건 외부 사무실에
-(4) 이러한 사실 등을 위에서 본 법리에 비추어 보면, 이 사건 외부 사무실은 특정 다수인이 사기 범행을 수행한다는 공동 목적으로 구성원들이 대표, 팀장, 출동조, 전화상담원 등 정해진 역할분담에 따라 행동함으로써 사기 범행을 반복적으로 실행하는 체계를 갖춘 결합체, 즉 형법 제114조 의 ‘범죄를 목적으로 하는 집단’에 해당한다고 보는 것이 옳다.
-그런데도 원심은 이 사건</t>
-  </si>
-  <si>
-    <t>대법원 2022. 10. 27. 선고 2020도12563 판결 [금융실명거래및비밀보장에관한법률위반방조]〈피고인이 성명불상자로부터 불법 환전 업무를 도와주면 대가를 지급하겠다는 제안을 받고 자신의 금융계좌번호를 알려주었는데, 성명불상자가 전기통신금융사기 편취금을 은닉하기 위하여 피고인의 금융계좌로 편취금을 송금받은 경우 피고인이 성명불상자의 탈법행위 목적 타인 실명 금융거래를 용이하게 하였다는 금융실명법위반죄의 방조범이 성립하는지가 문제된 사안〉 [공2022하,2346]  
-탈법행위에 제공하기로 마음먹었다. 피고인은 2019. 1. 22. 무렵 보이스톡으로 성명불상자에게 피고인 명의 신협 계좌를 알려주고, 성명불상자는 2019. 1. 29. 무렵 전화금융사기 범행을 통해 공소외인 으로부터 940만 원을 피고인 명의 신협 계좌로 송금받고, 피고인은 이를 인출하여 청주시에 있는 우편취급국에서 수수료 15만 원을 제한 유지하면서, 검사의 주장대로 피고인이 인식한 행위가 외국환거래법 위반행위라고 하더라도 정범인 성명불상자는 외국환거래법 위반행위를 한 것이 아니라 전화금융사기 범행을 하였을 뿐이므로 성명불상자가 어떤 탈법행위를 실행하였는지 알기 어렵다는 이유를 덧붙여 판단하였다.
-3. 대법원의 판단
-그러나 원심의 위와 같은</t>
-  </si>
-  <si>
-    <t>대법원 2008. 7. 10. 선고 2008도2245 판결 [사기방조ㆍ전자금융거래법위반ㆍ점유이탈물횡령][공2008하,1206] 
-내의 것으로서 압수의 대상이 되는 것인지는 당해 범죄사실의 구체적인 내용과 성질, 압수하고자 하는 물건의 형상ㆍ성질, 당해 범죄사실과의 관련 정도와 증거가치, 인멸의 우려는 물론 압수로 인하여 발생하는 불이익의 정도 등 압수 당시의 여러 사정을 종합적으로 고려하여 객관적으로 판단하여야 한다.
-[2] 경찰관이 이른바 전화사기죄 범행의 혐의자를 긴급체포하면서 그가 보관하고 있던 다른 사람의 주민등록증, 운전면허증 등을 압수한 사안에서, 이는 구 형사소송법(2007. 6. 1. 법률 제8496호로 개정되기 전의 것) 제217조 제1항 에서 규정한 해당 범죄사실의 수사에 필요한 범위 내의 압수로서 적법하므로, 이를 위 혐의자의 점유이탈물횡령죄 범행에 대한 증거로</t>
-  </si>
-  <si>
-    <t>대법원 2012. 8. 30. 선고 2012도6027 판결 [사기ㆍ범인도피교사ㆍ범인도피(피고인2에대하여인정된죄명:범인도피방조)][공2012하,1641] 
-법 제24조 제2항 ). 따라서 형사변호인의 기본적인 임무가 피고인 또는 피의자를 보호하고 그의 이익을 대변하는 것이라고 하더라도, 그러한 이익은 법적으로 보호받을 가치가 있는 정당한 이익으로 제한되고, 변호인이 의뢰인의 요청에 따른 변론행위라는 명목으로 수사기관이나 법원에 대하여 적극적으로 허위의 진술을 하거나 피고인 또는 피의자로 하여금 허위진술을 하도록 하는 것은 허용되지 않는다.
-[3] 갑이 수사기관 및 법원에 출석하여 을 등의 사기 범행을 자신이 저질렀다는 취지로 허위자백하였는데, 그 후 갑의 사기 피고사건 변호인으로 선임된 피고인이 갑과 공모하여 진범 을 등을 은폐하는 허위자백을 유지하게 함으로써 범인을 도피하게 하였다는</t>
-  </si>
-  <si>
-    <t>대법원 2007. 6. 14. 선고 2004도5561 판결 * [직권남용권리행사방해ㆍ공무상비밀누설][집55(1)형,717 공2007.7.15.(278),1108] 
-그것을 비밀로서 보호할 가치가 있다고 인정할 수 있는 것이어야 하고, 한편, 공무상비밀누설죄는 기밀 그 자체를 보호하는 것이 아니라 공무원의 비밀엄수의무의 침해에 의하여 위험하게 되는 이익, 즉 비밀의 누설에 의하여 위협받는 국가의 기능을 보호하기 위한 것이다.
-[2] 검찰 등 수사기관이 특정 사건에 대하여 수사를 진행하고 있는 상태에서, 수사기관이 현재 어떤 자료를 확보하였고 해당 사안이나 피의자의 죄책, 신병처리에 대하여 수사책임자가 어떤 의견을 가지고 있는지 등의 정보는, 그것이 수사의 대상이 될 가능성이 있는 자 등 수사기관 외부로 누설될 경우 피의자 등이 아직까지 수사기관에서 확보하지 못한 자료를 인멸하거나, 수사기관에서</t>
-  </si>
-  <si>
     <t>대법원 2018. 3. 29. 선고 2017다257395 판결 [채무부존재확인]〈공인인증서를 이용한 전자금융거래의 효력〉 [공2018상,808]  
 하더라도, 특별한 사정이 없는 한 전자문서법 제7조 제2항 제2호 에 규정된 ‘수신된 전자문서가 작성자 또는 그 대리인과의 관계에 의하여 수신자가 그것이 작성자 또는 그 대리인의 의사에 기한 것이라고 믿을 만한 정당한 이유가 있는 자에 의하여 송신된 경우’에 해당한다고 봄이 타당하다. 따라서 이러한 경우 전자문서의 수신자는 전화 통화나 면담 등의 추가적인 본인확인절차 없이도 전자문서에 포함된 의사표시를 작성자의 것으로 보아 법률행위를 할 수 있다.
 나아가 ‘대부업 등의 등록 및 금융이용자 보호에 관한 법률’(이하 ‘대부업법’이라 한다)의 아래와 같은 규정들까지 더하여 보면, 위와 같은 법리는 대부계약에도 그대로 적용된다. 즉 대부업법은</t>
   </si>
   <si>
-    <t>대법원 2006. 4. 13. 선고 2005도9268 판결 [부정수표단속법위반ㆍ사기ㆍ자격모용사문서작성ㆍ자격모용작성사문서행사ㆍ사기미수ㆍ사문서위조ㆍ위조사문서행사ㆍ공문서위조ㆍ위조공문서행사ㆍ조세범처벌법위반][공2006.5.15.(250),821] 
-위반죄에 관한 법리를 오해한 위법 등이 있다고 볼 수 없다.
-그 밖에 원심의 채용 증거들을 기록에 비추어 살펴보면, 원심이 피고인에 대한 판시 공소외 3 주식회사 명의 수표 발행으로 인한 부정수표단속법 위반죄, 2000. 9. 9.자 자격모용사문서작성죄와 같은 날 자격모용작성사문서행사죄 및 휴대전화 관련 사기죄, 위조사문서행사죄 및 그로 인한 사기미수죄, 공소외 1 주식회사 명의 세금계산서 발행으로 인한 조세범처벌법 위반죄, 위조공문서행사죄 및 그로 인한 사기미수죄 등의 각 공소사실을 모두 유죄로 인정한 것은 정당하고, 거기에 상고이유의 주장과 같이 채증법칙을 위반하여 사실을 잘못 인정한 위법이나 법리를 오해한 위법 등이 있다고 볼 수 없다.</t>
-  </si>
-  <si>
-    <t>대법원 2020. 12. 10. 선고 2020도11471 판결 [정보통신망이용촉진및정보보호등에관한법률위반(명예훼손)][공2021상,253] 
-24. 선고 2010도10864 판결 , 대법원 2020. 3. 2. 선고 2018도15868 판결 참조).
-2. 이 사건 공소사실의 요지는 다음과 같다.
-피고인은 공소외 1 협회 이사이고, 피해자는 미국 공소외 2 그룹 자산운용사 (영문명 생략) 의 최고경영자로 재직한 사람이다. 피고인은 2018. 10. 19.경 휴대전화를 이용하여 공소외 3 학회 그룹채팅방에 ‘3,000억 원대 △△△ 사기사건을 목격했다. 피해자가 사기꾼이라는 증거를 찾았다. 피해자는 공소외 2 그룹 Asset Management의 CEO라고 자신을 소개했지만 거짓이었다.’라는 내용의 글을 게시하였다. 그러나 사실은 피해자는 미국 공소외 2 그룹 자산운용사의 최고경영자였다. 이로써 피고인은 피해자를 비방할 목적으로 정보통신망을 통하여 공공연하게 거짓의</t>
-  </si>
-  <si>
-    <t>대법원 2013. 4. 26. 선고 2011도10797 판결 [사기ㆍ마약류관리에관한법률위반(향정)ㆍ정신보건법위반ㆍ건강기능식품에관한법률위반][공2013상,996] 
-[1] 의사인 피고인이 전화를 이용하여 진찰(이하 ‘전화 진찰’이라고 한다)한 것임에도 내원 진찰인 것처럼 가장하여 국민건강보험관리공단에 요양급여비용을 청구함으로써 진찰료 등을 편취하였다는 내용으로 기소된 사안에서, 당시에 시행되던 구 ‘국민건강보험 요양급여의 기준에 관한 규칙’(2010. 3. 19. 보건복지부령 정한 ‘직접 진찰’에 해당한다고 하더라도 그러한 사정만으로 요양급여의 대상이 된다고 할 수 없는 이상, 전화 진찰을 요양급여대상으로 되어 있던 내원 진찰인 것으로 하여 요양급여비용을 청구한 것은 기망행위로서 사기죄를 구성하고, 피고인의 불법이득의 의사 또한 인정된다는 이유로, 피고인에게 유죄를 인정한 원심판단이</t>
-  </si>
-  <si>
-    <t>대법원 2011. 7. 28. 선고 2011도5299 판결 [사기ㆍ정보통신망이용촉진및정보보호등에관한법률위반(정보통신망침해등)ㆍ정보통신망이용촉진및정보보호등에관한법률위반][공2011하,1893] 
-Chip) 분실로 사용할 수 없게 된 휴대전화를 구입한 후 이른바 ‘대포폰’으로 유통시켜 사용하도록 하거나 유심칩 읽기를 통하여 해당 휴대전화의 문자발송제한(1일 500개)을 해제하고 광고성 문자를 대량 발송하는 방법으로 이동통신회사들로부터 이용대금 상당의 재산상, 피고인이 이동통신 판매대리점의 컴퓨터를 이용하여 이동통신회사들의 전산망에 접속한 다음 전산상으로 사용정지된 휴대전화를 사용할 수 있도록 하거나 유심칩 읽기를 통해 문자메시지 발송한도를 해제한 것은 전산상 자동으로 처리된 것일 뿐 사기죄 구성요건인 ‘사람을 기망하여 재산상 이득을 취득한 경우’에 해당한다고 볼 수 없는데도, 이와 달리 보아 피고인에게 사기죄를</t>
-  </si>
-  <si>
-    <t>대법원 2007. 7. 12. 선고 2006도3892 판결 [사기ㆍ사문서위조ㆍ위조사문서행사ㆍ업무상횡령][공2007.8.15.(280),1315] 
-없이 판결할 수 있기 위해서는 피고인이 적법한 공판기일 소환장을 받고서 정당한 이유 없이 출정하지 아니할 것을 필요로 한다. 그리고 형사소송법 제63조 제1항 에 의하면, 형사소송절차에서 피고인에 대한 공시송달은 피고인의 주거, 사무소, 현재지를 알 수 없는 때에 한하여 이를 할 수 있는 것인바, 기록상 피고인의 집 전화번호 또는 휴대 전화번호 등이 나타나 있는 경우에는 위 전화번호로 연락하여 송달받을 장소를 확인하여 보는 등의 시도를 해보아야 하고, 그러한 조치를 취하지 아니한 채 곧바로 공시송달의 방법에 의한 송달을 하고 피고인의 진술 없이 판결을 하는 것은 형사소송법 제63조 제1항 , 제365조 에 위배되어 허용되지 아니한다. 이러한 법리는</t>
-  </si>
-  <si>
-    <t>대법원 2011. 7. 28. 선고 2011도6762 판결 [사기ㆍ상해][미간행]
-인】 피고인 【변 호 인】 변호사 이동호 【원심판결】 서울동부지법 2011. 5. 12. 선고 2011노391 판결 【주 문】 원심판결을 파기하고, 사건을 서울동부지방법원 합의부에 환송한다.
-【이 유】 상고이유를 판단한다.
-1. 기록에 의하면 다음과 같은 사실을 알 수 있다.
-가. 검사는 이사건 공소를 제기하면서 공소장에 피고인의 휴대전화번호를 “ (전화번호 1 생략) ”, 주소를 “서울 광진구 구의동 (지번 생략) ”로 각 기재하였다.
-나. 제1심은 공소장에 기재된 피고인의 주소지로 공소장 부본, 피고인 소환장 등을 발송하였으나 폐문부재로 송달불능되자 검사에 대한 주소보정명령을 하고, 공소장에 피고인의 휴대전화번호로 기재된 “ (전화번호 1 생략) ”으로 통화를</t>
-  </si>
-  <si>
-    <t>대법원 2000. 7. 28. 선고 2000도1568 판결 [성폭력범죄의처벌및피해자보호등에관한법률위반(특수강간등)ㆍ사기ㆍ살인ㆍ살인교사ㆍ사체은닉ㆍ절도ㆍ공정증서원본불실기재ㆍ불실기재공정증서원본행사][공2000.10.1.(115),1964] 
-남편이 귀가하지 않은 데 대한 주위 친지들의 걱정과 의문 제기에 마지못해 한 것이 아니냐는 의문에 대하여, 피고인 2 는, 같이 나간 피고인 1 이 낚시도 하고 울릉도와 제주도를 다니면서 잘 지낸다고 하여 그리 알고 있었다거나(수 481쪽), 남편이 자신과는 통화를 하지 않지만 시어머니와는 전화로 안부를 전하는 것으로 알고 있었는데, 시어머니가 사망하였는데도 연락이 없어 수사기관에 진정하게 되었다고 변소하는바(수 482쪽), 이러한 피고인 2 의 변명이 다소 미흡해 보이기도 하지만, 피고인 2 가 그 사이 피고인 1 의 고향집을 찾아가는 등 남편의 행방을 수소문한 흔적(공소외 14, 공소외 15, 공소외 3 의 각 증언 등 참조) 등에 비추어, 4년이 지나서야 진정서를</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>대법원 2013. 9. 26. 선고 2013다26746 전원합의체 판결 ★ [부당이득반환등]〈키코 사건(모나미)〉 [공2013하,1954]  
+관련한 기망이나 착오의 성립 여부에 관한 법리오해 등의 위법이 있다고 할 수 없다. 원고의 이 부분 상고이유 주장은 이유 없다.
+다. 환율의 변동가능성 등에 관한 사기ㆍ착오 등 주장에 대하여
+원고는 원심이 환율의 변동가능성에 관하여 피고가 원고를 기망하였거나 착오를 유발하였음을 인정하지 아니한 데 대하여도 상고이유로 한 이래, 2006. 5. 8. 원고와 첫 번째 통화옵션계약을 체결하기까지 약 4개월 동안 수차례에 걸쳐 다양한 종류의 통화옵션상품에 관한 거래제안서를 제시하고, 전화, 이메일 등을 통하여 각 상품의 구조에 관하여 설명하였다. 더욱이 원고는 이 사건 각 통화옵션계약을 체결하기 이전 1년 3개월간 이미 피고, 우리은행, HSBC은행 등과</t>
+  </si>
+  <si>
+    <t>대법원 2015. 6. 24. 선고 2014다231224 판결 [예금][공2015하,1043] 
+하여금 갑을 사칭하도록 하여 갑 명의의 예금통장을 재발급받아 인감을 변경한 후 예금을 인출한 사안에서, 갑이 다른 사람에게 예금인출 심부름을 시킨 일이 있다거나 인감도장에 비밀번호를 표시해 두는 등의 행위를 하였더라도 이러한 행위로 인하여 자신이 알지도 못하는 정 등이 사기행위를 저지를 것으로 구체적으로 예견할 수 있었다고 인정하기 어렵고, 오히려 위 사기행위는 을 은행이 거래상대방의 본인확인의무를 다하지 못한 과실로 인하여 초래되었다고 보일 뿐이므로 을 은행이 입은 손해와 갑의 행위 사이에 상당인과관계가 있다고 보기도 어려운데도, 갑의 행위가 정 등의 사기행위와 객관적으로 관련 공동되어 을 은행에 대하여 공동불법행위를</t>
+  </si>
+  <si>
+    <t>대법원 2007. 7. 13. 선고 2005다21821 판결 [손해배상(기)][공2007.8.15.(280),1257] 
+인정되어야 하고, 상당인과관계의 유무를 판단함에 있어서는 일반적인 결과발생의 개연성은 물론 주의의무를 부과하는 법령 기타 행동규범의 목적과 보호법익, 가해행위의 태양 및 피침해이익의 성질 및 피해의 정도 등을 종합적으로 고려하여야 한다.
+[3] 금융기관이 본인확인절차 등을 제대로 거치지 아니하여 개설된 모용계좌가 사기적 거래관계에서 이미 기망당한 피해자에 의하여 단순히 원인계약상의 채무의 이행을 위하여 입금하는 데 이용되거나 다른 방법이나 경로로 피해자의 재산권을 침해하여 얻은 이득금 등을 입금ㆍ보관하는 데 이용된 것에 불과한 경우 등에는 특별한 사정이 없는 한 피해자가 모용계좌의 존재로 인하여 잘못된 신뢰를 형성하여</t>
+  </si>
+  <si>
+    <t>대법원 2014. 8. 21. 선고 2010다92438 전원합의체 판결 ★ [손해배상(기)]〈강원랜드 카지노 이용자의 손해배상청구 사건〉 [공2014하,1812]  
+피요청자의 영업장 출입을 제한할 수 있다고 규정하고 있다. 제8조에서는 회사는 출입제한 해제 요청자에 대하여 출입제한 해제를 원칙으로 하되, 다만 절도, 사기도박 등과 같이 타 고객보호 및 카지노 영업장 질서유지 등을 위하여 출입해제가 곤란하다고 판단될 경우는 출입제한 기간이 만료되더라도 심의위원회 심의를 내용의 출입제한 요청서를 피고에게 보냈고, 위 요청서는 그 다음 날인 2006. 7. 20. 11:24경에 피고에게 도착한 사실, 소외 1 은 같은 날 오전에 피고 소속 직원에게 전화하여 원고에 대한 출입제한 요청을 철회하고자 하니 위 요청서를 반송하여 달라고 말한 사실, 피고 소속 직원들은 소외 1 의 요구대로 위 요청서를 반송하고 원고에</t>
+  </si>
+  <si>
+    <t>대법원 1993. 4. 27. 선고 92다56087 판결 [손해배상(기)][공1993.7.1.(947),1565] 
+가. 영업양도계약이 사기로 인한 것으로서 취소되었다면 양수인이 양수한 물건들은 반환되어야 할 것이므로 양수인이 위 물건들로써 어떤 이득을 얻었다고 볼 수 없다.
+나. 법률행위가 사기에 의한 것으로서 취소되는 경우에 그 법률행위가 동시에 불법행위를 구성하는 때에는 취소의 효과로 생기는 부당이득반환청구권과 불법행위로 인한 손해배상청구권은 경합하여 병존하는 것이므로, 채권자는 어느 것이라도 선택하여 행사할 수 있지만 중첩적으로 행사할 수는 없다.</t>
+  </si>
+  <si>
+    <t>대법원 2005. 2. 25. 선고 2003다36133 판결 [매매대금][공2005.4.1.(223),476] 
+내지 사무집행행위 또는 그와 관련된 것이라고 할 것이어서, 피고는 명의대여자로서 객관적으로 지휘ㆍ감독관계에 있는 소외인 의 매매계약의 형식을 빌린 사기행위로 인하여 원고들이 입은 손해를 배상할 책임이 있다고 판단하는 한편, 피고의 면책 주장에 대해서는, 소외인 이 피고로부터 수수료를 받고 금호리조트 회원권 영업을 하도록 한 점, 소외인 의 영업장소, 원고들은 소외인 의 사무실을 방문하거나 금호리조트 회원권 홍보를 위한 광고지와 팸플릿에 기재된 회원사업부의 전화번호로 연락을 하여 매매계약에 관한 확인을 하였는데 소외인 가 개설하여 사용하는 전화번호인 관계로 피고에게는 더 이상 확인을 할 수 없었던 점 등을 종합하면, 위</t>
+  </si>
+  <si>
+    <t>대법원 2010. 5. 13. 선고 2009다78863 판결 [손해배상(기)][공2010상,1102] 
+전세계약서’를 담보 목적으로 제공받고, 그에게 3,000만 원을 상환기일을 2007. 12. 28., 이율을 연 48%로 정하여 대여하였다. 위 전세계약서에는 임대인이 소외 5 (전화번호 010 ***-**** ), 임차인이 소외 4 , 전세목적물이 성남시 중원구 은행동 (이하 지번 2 생략) 다세대 주택 1층 101호(13.83㎡), 전세보증금은 5,000만 원으로 기재되어 있다.
+제3항 을 위반하였는지 여부는 별론으로 하고 차용인들과 공모하여 위 각 전세계약서를 위조하였다거나, 피고가 작성하여 준 이들 전세계약서가 차용인들에 의하여 사기 등 위법한 목적에 사용되리라는 점을 알았거나 알 수 있었다는 사실을 인정하기에 부족하고, 달리 이를 인정할 만한 증거가 없다는 이유로 이를 받아들이지</t>
+  </si>
+  <si>
+    <t>대법원 2010. 7. 29. 선고 2010다699 판결 [대여금][공2010하,1756] 
+자신보다 연약한 61세의 여자인 원고로부터 위 수표 4장을 탈취당했다는 것이나 그 직후 위 수표들을 되찾기 위해 원고를 뒤쫓아 가지도 않은 채 단지 원고와 전화통화만을 시도했다는 것은 쉽게 납득하기 어려운 점, 소외인 은 이 사건 매매계약의 체결일부터 2년여가 경과하도록 원고에 대하여 위 수표 4장의 액면금을 포함한 듣고 피고들에게 위 정산합의의 해제를 주장하며 위 수표들을 반환받기에 이른 것으로 보이는 점, 원고가 피고들을 특정경제범죄 가중처벌 등에 관한 법률 위반(사기) 혐의로 고소한 사건에서 소외인 은 원고로부터 2억 5천만 원을 추가로 받고 이 사건 부동산을 매도하려 하였으나 원고가 거절하여 성사되지 못했다고 진술한 점 등에</t>
+  </si>
+  <si>
+    <t>대법원 2005. 10. 7. 선고 2005다32197 판결 [공제금청구등][공2005.11.15.(238),1772] 
+제1심 공동피고 소외 1 의 통장으로 3,000만 원을 송금받은 사실, 위 각 매매계약은 토지거래허가를 득하지 못하게 되면서 해제되었고 원고는 2004. 5. 30. 소외 3 과 전화통화를 하면서 비로소 이 사건 매매계약의 목적을 달성할 수 없음을 알게 되었으며 이후 2004. 6. 2. 소외 3 으로부터 이 사건 매매계약상의 계약금 및 중도금으로 것은 허용될 수 없다( 대법원 2000. 1. 21. 선고 99다50538 판결 참조).
+따라서 설사 원고에게 상고이유의 주장과 같은 과실이 있다고 하더라도, 제1심 공동피고 소외 1 의 사기 또는 횡령에 의한 불법행위를 원인으로 하여 피고에 대하여 이 사건 공제계약에 따른 공제금의 지급을 구하는 이 사건에서도 피해자인 원고의 과실을 들어</t>
+  </si>
+  <si>
+    <t>대법원 2003. 5. 13. 선고 2003다10797 판결 [부당이득금][공2003.6.15.(180),1292] 
+원고가 일본에서 운영하는 신문사 일본지사의 경리직원으로 근무하였는데, 1995. 2. 24. 관악경찰서에서 위 지사의 자금을 횡령하였다는 혐의로 조사를 받게 되었고, 전화연락을 받고 위 경찰서로 온 오빠인 피고는, 1995. 2. 25. 피해자인 원고와 사이에 약정을 체결하면서, 그 때까지 드러난 제1심 공동피고 소외인 의 횡령금 15,206 범행 자체를 완강히 부인하였고, 피고도 증인으로 나와 위 각서가 잘못된 것이라는 취지의 증언을 하였을 뿐만 아니라, 제1심 공동피고 소외인 측에서는 원고를 사기, 폭력행위, 무고 등의 혐의로 고소하기까지 하였던 사실, 그러나 원고는 1997. 4. 30. 혐의없음 처분을 받았고, 제1심 공동피고 소외인 은 결국 합계 23,541,985엔(￥)을</t>
+  </si>
+  <si>
+    <t>대법원 2008. 7. 24. 선고 2008다25299 판결 [대여금][공2008하,1239] 
+사건 연대보증채무의 처리에 관하여 원고와 협의할 포괄적 대리권을 수여받은 상태에서 이 사건 제1심 소송 종료 전후에 걸쳐 수차례 원고 은행 직원들과 만나거나 전화를 통하여 합의안을 의논하던 중 이 사건 연대보증채무 482,560,439원 중 2억 원을 지급하고 사건을 종결하는 내용의 합의안을 제시하면서 자신이 피고 회사의 실질적, 피고는 위 지급명령에 기한 이행권고결정에 대해 위 연대보증인란 기재는 주채무자를 달리하여 이루어진 것으로서 피고의 의사에 반하여 무효이거나 착오 또는 사기를 이유로 취소되었고 그렇지 않다 해도 통정허위표시 내지 반사회적 법률행위로서 무효라는 취지로 처음부터 일관되게 주장하고, 나아가 제1심 진행중인 2006. 11. 6</t>
+  </si>
+  <si>
+    <t>대법원 1993. 6. 25. 선고 93다11821 판결 * [위약금][공1993.9.1.(951),2111] 
+왜 원고를 만나느냐 ’고 하면서 위 다방 건너편에 이르렀을 때 차에서 내려 그대로 가버린 사실, 원고와 위 소외 1 , 소외 2 는 그날과 그 다음날 위 피고 집에 전화를 하여 위 피고와 만나려 하였으나 도무지 연락이 닿지 아니하므로, 원고는 위 피고에게 1991. 8. 3. 자 내용증명을 보내어 위 피고의 중도금 수령거절을 이유로 이 사건 인정한 다음, 원고의 위약금 배상에 대한 첫째 주장인 “이 사건 위약금 약정은 구두로 이루어진 것으로서, 위 피고나 그 소송대리인이 형사사건(원고가 위 피고를 사기미수와 위증교사 혐의로, 제1심에서 증언한 소외 3 을 위증 혐의로 고소한 사건)이나 이 사건에서 이를 자인하고 있을 뿐더러, 위 소외 2 가 위 형사사건과 이</t>
+  </si>
+  <si>
+    <t>대법원 1993. 5. 11. 선고 92다55350 판결 [손해배상(기)][공1993.7.15.(948),1684] 
+본 후 원고들의 거주지인 부산에 연락하여 원고들이 이 사건 토지를 둘러보고 평당 230,000원에 매입하려 하였으나 흥정이 되지 아니하였고, 다시 같은 달 8.에 원고 2 가 전화로 평당 250,000원이면 계약하겠다며 원고들의 거주지인 부산에서 광주에 와서 계약을 하려면 시간이 걸리니 피고가 돈을 융통하여서라도 원고들을 대리하여 계약을 채증법칙에 위반된다고 할 수 없음은 위에서 본바와 같고, 원고의 과실비율에 대한 원심의 사실인정이나 판단도 수긍이 된다.
+2. 소론과 같이 위 소외 1 의 사기행위가 발각된 이후에 소외 3 의 중재로 합의관계를 논의하는 과정에서 소외 1 의 처인 소외 4 가 현금 22,000,000원과 다른 토지에 대한 가등기를 설정하여 주기로</t>
+  </si>
+  <si>
+    <t>대법원 2005. 11. 25. 선고 2002다59528 판결 [채무부존재확인ㆍ보험금][공2006.1.1.(241),4] 
+자백의 구속력에 관한 법리오해 등의 위법이 있다고 할 것이다.
+라. 그러나 다른 한편, 기록에 의하면, 피고 회사의 수산부장인 소외 4 는 호의 선장 소외 1 로부터 전화로 화재발생 보고를 받고 그에게 선박침몰을 지시하였고, 이에 따라 소외 1 등이 고의로 킹스톤밸브 등을 조작하여 호를 침몰시켰음에도, 마치 화재 등으로 인하여 가장하여 원고에게 보험금을 청구함으로써 보험금 상당액을 편취하려 했다는 혐의로, 원심판결이 선고된 이후인 2002. 10. 31. 위 소외 4 및 호의 1기사 소외 3 등이 사기미수죄 등으로 기소되어 제1심( 부산지방법원 2002고단9023 ) 및 제2심( 부산지방법원 2004노544 )에서 모두 유죄판결을 받고, 위 판결은 대법원에서 확정된 사실을 알 수</t>
+  </si>
+  <si>
+    <t>대법원 1998. 5. 12. 선고 97다36989 판결 [손해배상(자)][공1998.6.15.(60),1607] 
+보험에 가입하여 줄 것을 부탁한 사실, 그런데 위 대영중기의 보험담당 직원은 위 차량에 대한 이전등록이 이루어지기 전인 1994. 3. 23. 피고 회사의 담당직원에게 전화로 위 차량에 대한 종합보험 가입을 의뢰하면서 위 차량은 동신건기 소유의 차량이라고 말하고 차량등록증 대신 차대번호 등을 기재한 메모를 팩스로 송부하여 전제로, 대영중기가 위 보험계약을 체결함에 있어 피보험자를 사실과 다르게 피고 회사에 고지하였으므로 위 보험계약은 보험계약자의 고지의무위반 및 사기행위를 이유로 해지되었거나 무효라는 등의 피고의 항변을 그 판시와 같은 이유로 배척한 다음, 피고는 위 자동차종합보험계약에 따라 위 사고로 인하여 원고들이 입은</t>
+  </si>
+  <si>
+    <t>대법원 1996. 5. 28. 선고 94다33828 판결 [손해배상(기)][공1996.7.15.(14),1973] 
+소외 1 등이 불법유학알선의 대가로 금원을 받은 비위행위와는 무관하다는 이유로 사기혐의에 대하여 각 무혐의처분을 한 사실을 인정한 다음, 원고가 위 불법유학사기에 관련된 듯한 표현의 기사와 경찰로부터 수배를 받아 미국으로 도피하였다는 기사는 사실과 다른 내용이어서 그로 인하여 원고의 명예가 훼손된 점은 인정되나, 위 하여 마치 피고가 사실을 확인하려는 노력을 다한 듯이 판시하였으나, 갑 제17호증에 의하면 소외 4 가 1991. 4. 11. 14:00경 이 사건을 보도한 중앙일보를 보고 원고 집에 전화하여 원고와 통화하였고, 같은 날 저녁 7시뉴스를 보고 난 후에도 원고에게 전화하여 원고와 통화하였다는 것이므로, 피고 소속 기자들의 원고에 대한 접촉 시도가</t>
+  </si>
+  <si>
+    <t>대법원 1997. 8. 29. 선고 96다43713 판결 * [수입신용장결제대금지급][공1997.10.1.(43),2842] 
+조건과 일치하는지 여부만 확인하면 되고, 그 선적서류에 대한 실질적인 심사의무까지 부담하지는 아니하나, 그 선적서류가 위조(변조 또는 허위 작성을 포함한다)되었을 경우 은행이 위조에 가담한 당사자이거나 서류의 위조 사실을 사전에 알았거나 또는 그와 같이 의심할 만한 충분한 이유가 있는 경우에는, 이는 신용장거래를 빙자한 사기거래에 지나지 아니하므로 그 은행은 더 이상 이른바 신용장의 독립ㆍ추상성의 원칙에 의한 보호를 받을 수 없다고 할 것이므로, 선적서류가 위조된 경우에 개설은행이 상환의무를 이행할 당시 그 서류가 위조된 문서임을 알고 있었거나 위조된 문서라고 의심할 만한 충분한 이유가 있었고, 또한 매입은행도 위조행위의</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2174405&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=2&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=1&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=01,04&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요약정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=3292365&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=1&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2131096&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=2&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=3284591&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=3&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2174405&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=4&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2139309&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=5&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=3239539&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=6&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=3259109&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=7&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=3291196&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=8&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2060096&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=9&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2062852&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=10&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2065593&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=11&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2249353&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=12&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2067484&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=13&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=3247578&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=14&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2115102&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=15&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2059371&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=16&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2066099&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=17&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=3264359&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=18&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=1970378&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=19&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2118253&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=20&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대법원 2021. 7. 29. 선고 2021도3520 판결 [사기ㆍ사문서위조ㆍ전기통신사업법위반][공2021하,1664] 
-상고이유를 판단한다.
-1. 타인통신매개로 인한 전기통신사업법 위반의 점(주위적 공소사실) 관련
-가. 이 부분 공소사실의 요지
-보이스피싱 조직은 중국 등 해외에서 콜센터를 운영하면서 불특정 다수의 사람들을 상대로 무작위로 전화를 걸어 금융기관 직원 등을 사칭하여 금원을 편취하는 수법으로 범행하는 조직으로, 성명불상의 총책은 조직원 간 유기적인 연락을 관리하는 역할, 성명불상의 유인책은 국내 피해자들에게 전화를 걸어 금원을 요구하는 역할, 성명불상의 수거책은 피해자들로부터 금원을 받는 역할, 성명불상의 중간 조직책[위챗 대화명 (대화명 1 생략) , (대화명 2 생략) ]은 성명불상의 총책으로부터 지시를 받아 콜센터에서 인터넷망으로 접속하면</t>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2139309&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=2&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=2&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=01,04&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,12 +155,13 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -260,12 +184,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -285,7 +213,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -301,7 +229,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -313,7 +241,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -360,6 +288,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -395,6 +340,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,250 +508,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011F078B-B95B-4706-95F4-CB37B0E65789}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="100.75" customWidth="1"/>
-    <col min="3" max="3" width="255.625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="165" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="132" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="132" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="132" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="214.5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="132" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="132" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="132" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="132" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="132" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/법원판례.xlsx
+++ b/법원판례.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SICT\Documents\UiPath\SiCT_Lawfirm_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66F5525-DEFD-4FC4-9483-B0362215C724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C0D82C-35E2-40E8-AC76-0DE1A10BAD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{5686E956-598C-4551-AE37-BBE0466D254C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4E41FACF-B6EE-4488-A6A0-D9AE060DC527}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요약정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대법원 2022. 5. 12. 선고 2022도3265 판결 [사기ㆍ사기미수ㆍ업무방해ㆍ전자금융거래법위반ㆍ주민등록법위반ㆍ사문서위조ㆍ위조사문서행사][미간행]
+【상 고 인】 피고인 【변 호 인】 변호사 최길림 【원심판결】 전주지법 2022. 2. 10. 선고 2021노1839 판결 【주 문】 원심판결을 파기하고, 사건을 전주지방법원에 환송한다.
+【이 유】 상고이유를 판단한다.
+1. 공소사실 중 업무방해 부분의 요지와 원심의 판단
+검사는, ‘사실은 피고인 1명이 자동화기기에서 전화금융사기 편취금을 성명불상의 전화금융사기 조직원이 지정한 계좌로 입금하는 것임에도 피고인은 전화금융사기 조직원으로부터 제공받은 제3자 명의 주민등록번호를 이용해 마치 여러 명이 각각 피해자 금융기관의 ‘1일 100만 원’ 한도를 준수하면서 정상적으로 입금하는 것처럼 가장하여 전화금융사기 편취금을 100만 원 이하의 금액으로 나누어 위</t>
+  </si>
+  <si>
+    <t>대법원 2013. 8. 23. 선고 2013도4004 판결 [전자금융거래법위반]〈은행통장 등 양도양수 사건〉 [공2013하,1738]  
+양수한 경우에만 처벌대상이 된다고 볼 수 없다.
+[2] 피고인이 갑으로부터 건네받은 을 명의 통장 등 접근매체를 병이 지시하는 성명을 알 수 없는 사람에게 양도하였다고 하여 전자금융거래법 위반으로 기소된 사안에서, 피고인은 단순히 접근매체를 사기 범행의 공범들 사이에서 내부적으로 전달하였다기보다 접근매체를 매수한 후 전부를 다시 매도하여 중간 차익을 얻는 행위를 업으로 한 점, 전화금융사기 범행의 특성상 유기적으로 연결된 범죄집단과 달리 행위자들 사이에 충분히 접근매체의 거래가 이루어질 수 있는 점, 접근매체의 유통 과정은 취득자가 접근매체를 이용하여 임의로 전자금융거래를 할 수 있음을 전제로 하고 있고 그에 대하여 일정한</t>
+  </si>
+  <si>
+    <t>대법원 2022. 2. 11. 선고 2021도15246 판결 [사기ㆍ사문서위조ㆍ위조사문서행사ㆍ업무방해][미간행]
+배상명령신청 【주 문】 원심판결을 파기하고, 사건을 춘천지방법원 강릉지원에 환송한다.
+【이 유】 직권으로 살펴본다.
+1. 이 사건 공소사실 중 업무방해의 점은 ‘사실은 피고인이 혼자 전화금융사기 편취금을 한꺼번에 자동화기기를 통한 무통장ㆍ무카드 입금(이하 ‘무매체 입금’이라 한다)하는 것임에도 마치 여러 명이 각각 피해자 은행들의 ‘1인 1일 100만 원’ 한도를 준수하면서 정상적으로 무매체 입금거래를 하는 것처럼 가장하여 전화금융사기 조직원으로부터 제공받은 제3자의 이름과 주민등록번호를 자동화기기에 입력한 후 100만 원 이하의 금액으로 나누어 위 조직원이 지정한 불상의 계좌로 무매체 입금을 함으로써 전화금융사기 조직원과</t>
   </si>
   <si>
     <t>대법원 2014. 12. 24. 선고 2013다98222 판결 [부당이득금][미간행]
@@ -56,92 +72,1524 @@
 [2] 갑이 금융기관인 을 주식회사 등에서 예금계좌를 개설하여 금융거래를 하면서 인터넷뱅킹서비스를 이용하여 왔는데, 병이 전화금융사기(이른바 보이스피싱)를 통하여 갑에게서 취득한 금융거래정보를 이용하여 갑 명의의 공인인증서를 재발급받아 다른 금융기관들로부터 대출서비스 등을 받은 사안에서, 갑이 제3자에게 접근매체인 공인인증서 발급에 필수적인 계좌번호, 계좌비밀번호, 주민등록번호, 보안카드번호, 보안카드비밀번호를 모두 알려준 점 등 제반</t>
   </si>
   <si>
+    <t>대법원 2020. 8. 20. 선고 2019도16263 판결 [범죄단체조직ㆍ범죄단체가입ㆍ범죄단체활동ㆍ사기ㆍ사기방조ㆍ자동차관리법위반ㆍ위증]〈형법 제114조의 범죄집단조직·가입·활동 사건〉 [공2020하,1824]  
+, 광고 등을 준비해 외부사무실을 운영하면서 팀장을 채용한 뒤 팀장으로 하여금 팀을 꾸려 사기범행을 실행하도록 하고, 할부금융사로부터 할부중개수수료를 받으면 이를 팀별로 배분하는 역할을 수행하였으며, 대표 또는 팀장은 팀장, 출동조, 전화상담원에게 고객을 유인하고 대응하는 법이나 기망하는 방법 등에 대해 교육한 점, 대표는 등을 공유하였으며, 팀장들은 공유된 정보를 소속 출동조 및 상담원에게 전파한 점 등을 종합하면, 외부사무실은 특정 다수인이 사기범행을 수행한다는 공동목적 아래 구성원들이 대표, 팀장, 출동조, 전화상담원 등 정해진 역할분담에 따라 행동함으로써 사기범행을 반복적으로 실행하는 체계를 갖춘 결합체, 즉 형법 제114조 의</t>
+  </si>
+  <si>
+    <t>대법원 2020. 9. 7. 선고 2020도7915 판결 [범죄단체활동ㆍ사기ㆍ범죄단체가입ㆍ자동차관리법위반ㆍ도로교통법위반(무면허운전)ㆍ사문서위조ㆍ위조사문서행사ㆍ횡령ㆍ도로교통법위반ㆍ공무집행방해ㆍ절도][미간행]
+직원이 평균 20~30명 정도 있었고, 평균 5~6개의 팀이 있었다. 이 사건 외부 사무실은 회사 조직과 유사하게 대표, 팀장, 팀원(출동조, 전화상담원)으로 직책이나 역할이 분담되어 있었다. 상담원은 인터넷 허위 광고를 보고 전화를 건 손님들에게 거짓말로 이 사건 외부 사무실에
+(4) 이러한 사실 등을 위에서 본 법리에 비추어 보면, 이 사건 외부 사무실은 특정 다수인이 사기 범행을 수행한다는 공동 목적으로 구성원들이 대표, 팀장, 출동조, 전화상담원 등 정해진 역할분담에 따라 행동함으로써 사기 범행을 반복적으로 실행하는 체계를 갖춘 결합체, 즉 형법 제114조 의 ‘범죄를 목적으로 하는 집단’에 해당한다고 보는 것이 옳다.
+그런데도 원심은 이 사건</t>
+  </si>
+  <si>
+    <t>대법원 2022. 10. 27. 선고 2020도12563 판결 [금융실명거래및비밀보장에관한법률위반방조]〈피고인이 성명불상자로부터 불법 환전 업무를 도와주면 대가를 지급하겠다는 제안을 받고 자신의 금융계좌번호를 알려주었는데, 성명불상자가 전기통신금융사기 편취금을 은닉하기 위하여 피고인의 금융계좌로 편취금을 송금받은 경우 피고인이 성명불상자의 탈법행위 목적 타인 실명 금융거래를 용이하게 하였다는 금융실명법위반죄의 방조범이 성립하는지가 문제된 사안〉 [공2022하,2346]  
+탈법행위에 제공하기로 마음먹었다. 피고인은 2019. 1. 22. 무렵 보이스톡으로 성명불상자에게 피고인 명의 신협 계좌를 알려주고, 성명불상자는 2019. 1. 29. 무렵 전화금융사기 범행을 통해 공소외인 으로부터 940만 원을 피고인 명의 신협 계좌로 송금받고, 피고인은 이를 인출하여 청주시에 있는 우편취급국에서 수수료 15만 원을 제한 유지하면서, 검사의 주장대로 피고인이 인식한 행위가 외국환거래법 위반행위라고 하더라도 정범인 성명불상자는 외국환거래법 위반행위를 한 것이 아니라 전화금융사기 범행을 하였을 뿐이므로 성명불상자가 어떤 탈법행위를 실행하였는지 알기 어렵다는 이유를 덧붙여 판단하였다.
+3. 대법원의 판단
+그러나 원심의 위와 같은</t>
+  </si>
+  <si>
+    <t>대법원 2008. 7. 10. 선고 2008도2245 판결 [사기방조ㆍ전자금융거래법위반ㆍ점유이탈물횡령][공2008하,1206] 
+내의 것으로서 압수의 대상이 되는 것인지는 당해 범죄사실의 구체적인 내용과 성질, 압수하고자 하는 물건의 형상ㆍ성질, 당해 범죄사실과의 관련 정도와 증거가치, 인멸의 우려는 물론 압수로 인하여 발생하는 불이익의 정도 등 압수 당시의 여러 사정을 종합적으로 고려하여 객관적으로 판단하여야 한다.
+[2] 경찰관이 이른바 전화사기죄 범행의 혐의자를 긴급체포하면서 그가 보관하고 있던 다른 사람의 주민등록증, 운전면허증 등을 압수한 사안에서, 이는 구 형사소송법(2007. 6. 1. 법률 제8496호로 개정되기 전의 것) 제217조 제1항 에서 규정한 해당 범죄사실의 수사에 필요한 범위 내의 압수로서 적법하므로, 이를 위 혐의자의 점유이탈물횡령죄 범행에 대한 증거로</t>
+  </si>
+  <si>
+    <t>대법원 2012. 8. 30. 선고 2012도6027 판결 [사기ㆍ범인도피교사ㆍ범인도피(피고인2에대하여인정된죄명:범인도피방조)][공2012하,1641] 
+법 제24조 제2항 ). 따라서 형사변호인의 기본적인 임무가 피고인 또는 피의자를 보호하고 그의 이익을 대변하는 것이라고 하더라도, 그러한 이익은 법적으로 보호받을 가치가 있는 정당한 이익으로 제한되고, 변호인이 의뢰인의 요청에 따른 변론행위라는 명목으로 수사기관이나 법원에 대하여 적극적으로 허위의 진술을 하거나 피고인 또는 피의자로 하여금 허위진술을 하도록 하는 것은 허용되지 않는다.
+[3] 갑이 수사기관 및 법원에 출석하여 을 등의 사기 범행을 자신이 저질렀다는 취지로 허위자백하였는데, 그 후 갑의 사기 피고사건 변호인으로 선임된 피고인이 갑과 공모하여 진범 을 등을 은폐하는 허위자백을 유지하게 함으로써 범인을 도피하게 하였다는</t>
+  </si>
+  <si>
+    <t>대법원 2007. 6. 14. 선고 2004도5561 판결 * [직권남용권리행사방해ㆍ공무상비밀누설][집55(1)형,717 공2007.7.15.(278),1108] 
+그것을 비밀로서 보호할 가치가 있다고 인정할 수 있는 것이어야 하고, 한편, 공무상비밀누설죄는 기밀 그 자체를 보호하는 것이 아니라 공무원의 비밀엄수의무의 침해에 의하여 위험하게 되는 이익, 즉 비밀의 누설에 의하여 위협받는 국가의 기능을 보호하기 위한 것이다.
+[2] 검찰 등 수사기관이 특정 사건에 대하여 수사를 진행하고 있는 상태에서, 수사기관이 현재 어떤 자료를 확보하였고 해당 사안이나 피의자의 죄책, 신병처리에 대하여 수사책임자가 어떤 의견을 가지고 있는지 등의 정보는, 그것이 수사의 대상이 될 가능성이 있는 자 등 수사기관 외부로 누설될 경우 피의자 등이 아직까지 수사기관에서 확보하지 못한 자료를 인멸하거나, 수사기관에서</t>
+  </si>
+  <si>
     <t>대법원 2018. 3. 29. 선고 2017다257395 판결 [채무부존재확인]〈공인인증서를 이용한 전자금융거래의 효력〉 [공2018상,808]  
 하더라도, 특별한 사정이 없는 한 전자문서법 제7조 제2항 제2호 에 규정된 ‘수신된 전자문서가 작성자 또는 그 대리인과의 관계에 의하여 수신자가 그것이 작성자 또는 그 대리인의 의사에 기한 것이라고 믿을 만한 정당한 이유가 있는 자에 의하여 송신된 경우’에 해당한다고 봄이 타당하다. 따라서 이러한 경우 전자문서의 수신자는 전화 통화나 면담 등의 추가적인 본인확인절차 없이도 전자문서에 포함된 의사표시를 작성자의 것으로 보아 법률행위를 할 수 있다.
 나아가 ‘대부업 등의 등록 및 금융이용자 보호에 관한 법률’(이하 ‘대부업법’이라 한다)의 아래와 같은 규정들까지 더하여 보면, 위와 같은 법리는 대부계약에도 그대로 적용된다. 즉 대부업법은</t>
   </si>
   <si>
-    <t>대법원 2013. 9. 26. 선고 2013다26746 전원합의체 판결 ★ [부당이득반환등]〈키코 사건(모나미)〉 [공2013하,1954]  
-관련한 기망이나 착오의 성립 여부에 관한 법리오해 등의 위법이 있다고 할 수 없다. 원고의 이 부분 상고이유 주장은 이유 없다.
-다. 환율의 변동가능성 등에 관한 사기ㆍ착오 등 주장에 대하여
-원고는 원심이 환율의 변동가능성에 관하여 피고가 원고를 기망하였거나 착오를 유발하였음을 인정하지 아니한 데 대하여도 상고이유로 한 이래, 2006. 5. 8. 원고와 첫 번째 통화옵션계약을 체결하기까지 약 4개월 동안 수차례에 걸쳐 다양한 종류의 통화옵션상품에 관한 거래제안서를 제시하고, 전화, 이메일 등을 통하여 각 상품의 구조에 관하여 설명하였다. 더욱이 원고는 이 사건 각 통화옵션계약을 체결하기 이전 1년 3개월간 이미 피고, 우리은행, HSBC은행 등과</t>
-  </si>
-  <si>
-    <t>대법원 2015. 6. 24. 선고 2014다231224 판결 [예금][공2015하,1043] 
-하여금 갑을 사칭하도록 하여 갑 명의의 예금통장을 재발급받아 인감을 변경한 후 예금을 인출한 사안에서, 갑이 다른 사람에게 예금인출 심부름을 시킨 일이 있다거나 인감도장에 비밀번호를 표시해 두는 등의 행위를 하였더라도 이러한 행위로 인하여 자신이 알지도 못하는 정 등이 사기행위를 저지를 것으로 구체적으로 예견할 수 있었다고 인정하기 어렵고, 오히려 위 사기행위는 을 은행이 거래상대방의 본인확인의무를 다하지 못한 과실로 인하여 초래되었다고 보일 뿐이므로 을 은행이 입은 손해와 갑의 행위 사이에 상당인과관계가 있다고 보기도 어려운데도, 갑의 행위가 정 등의 사기행위와 객관적으로 관련 공동되어 을 은행에 대하여 공동불법행위를</t>
-  </si>
-  <si>
-    <t>대법원 2007. 7. 13. 선고 2005다21821 판결 [손해배상(기)][공2007.8.15.(280),1257] 
-인정되어야 하고, 상당인과관계의 유무를 판단함에 있어서는 일반적인 결과발생의 개연성은 물론 주의의무를 부과하는 법령 기타 행동규범의 목적과 보호법익, 가해행위의 태양 및 피침해이익의 성질 및 피해의 정도 등을 종합적으로 고려하여야 한다.
-[3] 금융기관이 본인확인절차 등을 제대로 거치지 아니하여 개설된 모용계좌가 사기적 거래관계에서 이미 기망당한 피해자에 의하여 단순히 원인계약상의 채무의 이행을 위하여 입금하는 데 이용되거나 다른 방법이나 경로로 피해자의 재산권을 침해하여 얻은 이득금 등을 입금ㆍ보관하는 데 이용된 것에 불과한 경우 등에는 특별한 사정이 없는 한 피해자가 모용계좌의 존재로 인하여 잘못된 신뢰를 형성하여</t>
-  </si>
-  <si>
-    <t>대법원 2014. 8. 21. 선고 2010다92438 전원합의체 판결 ★ [손해배상(기)]〈강원랜드 카지노 이용자의 손해배상청구 사건〉 [공2014하,1812]  
-피요청자의 영업장 출입을 제한할 수 있다고 규정하고 있다. 제8조에서는 회사는 출입제한 해제 요청자에 대하여 출입제한 해제를 원칙으로 하되, 다만 절도, 사기도박 등과 같이 타 고객보호 및 카지노 영업장 질서유지 등을 위하여 출입해제가 곤란하다고 판단될 경우는 출입제한 기간이 만료되더라도 심의위원회 심의를 내용의 출입제한 요청서를 피고에게 보냈고, 위 요청서는 그 다음 날인 2006. 7. 20. 11:24경에 피고에게 도착한 사실, 소외 1 은 같은 날 오전에 피고 소속 직원에게 전화하여 원고에 대한 출입제한 요청을 철회하고자 하니 위 요청서를 반송하여 달라고 말한 사실, 피고 소속 직원들은 소외 1 의 요구대로 위 요청서를 반송하고 원고에</t>
-  </si>
-  <si>
-    <t>대법원 1993. 4. 27. 선고 92다56087 판결 [손해배상(기)][공1993.7.1.(947),1565] 
-가. 영업양도계약이 사기로 인한 것으로서 취소되었다면 양수인이 양수한 물건들은 반환되어야 할 것이므로 양수인이 위 물건들로써 어떤 이득을 얻었다고 볼 수 없다.
-나. 법률행위가 사기에 의한 것으로서 취소되는 경우에 그 법률행위가 동시에 불법행위를 구성하는 때에는 취소의 효과로 생기는 부당이득반환청구권과 불법행위로 인한 손해배상청구권은 경합하여 병존하는 것이므로, 채권자는 어느 것이라도 선택하여 행사할 수 있지만 중첩적으로 행사할 수는 없다.</t>
-  </si>
-  <si>
-    <t>대법원 2005. 2. 25. 선고 2003다36133 판결 [매매대금][공2005.4.1.(223),476] 
-내지 사무집행행위 또는 그와 관련된 것이라고 할 것이어서, 피고는 명의대여자로서 객관적으로 지휘ㆍ감독관계에 있는 소외인 의 매매계약의 형식을 빌린 사기행위로 인하여 원고들이 입은 손해를 배상할 책임이 있다고 판단하는 한편, 피고의 면책 주장에 대해서는, 소외인 이 피고로부터 수수료를 받고 금호리조트 회원권 영업을 하도록 한 점, 소외인 의 영업장소, 원고들은 소외인 의 사무실을 방문하거나 금호리조트 회원권 홍보를 위한 광고지와 팸플릿에 기재된 회원사업부의 전화번호로 연락을 하여 매매계약에 관한 확인을 하였는데 소외인 가 개설하여 사용하는 전화번호인 관계로 피고에게는 더 이상 확인을 할 수 없었던 점 등을 종합하면, 위</t>
-  </si>
-  <si>
-    <t>대법원 2010. 5. 13. 선고 2009다78863 판결 [손해배상(기)][공2010상,1102] 
-전세계약서’를 담보 목적으로 제공받고, 그에게 3,000만 원을 상환기일을 2007. 12. 28., 이율을 연 48%로 정하여 대여하였다. 위 전세계약서에는 임대인이 소외 5 (전화번호 010 ***-**** ), 임차인이 소외 4 , 전세목적물이 성남시 중원구 은행동 (이하 지번 2 생략) 다세대 주택 1층 101호(13.83㎡), 전세보증금은 5,000만 원으로 기재되어 있다.
-제3항 을 위반하였는지 여부는 별론으로 하고 차용인들과 공모하여 위 각 전세계약서를 위조하였다거나, 피고가 작성하여 준 이들 전세계약서가 차용인들에 의하여 사기 등 위법한 목적에 사용되리라는 점을 알았거나 알 수 있었다는 사실을 인정하기에 부족하고, 달리 이를 인정할 만한 증거가 없다는 이유로 이를 받아들이지</t>
-  </si>
-  <si>
-    <t>대법원 2010. 7. 29. 선고 2010다699 판결 [대여금][공2010하,1756] 
-자신보다 연약한 61세의 여자인 원고로부터 위 수표 4장을 탈취당했다는 것이나 그 직후 위 수표들을 되찾기 위해 원고를 뒤쫓아 가지도 않은 채 단지 원고와 전화통화만을 시도했다는 것은 쉽게 납득하기 어려운 점, 소외인 은 이 사건 매매계약의 체결일부터 2년여가 경과하도록 원고에 대하여 위 수표 4장의 액면금을 포함한 듣고 피고들에게 위 정산합의의 해제를 주장하며 위 수표들을 반환받기에 이른 것으로 보이는 점, 원고가 피고들을 특정경제범죄 가중처벌 등에 관한 법률 위반(사기) 혐의로 고소한 사건에서 소외인 은 원고로부터 2억 5천만 원을 추가로 받고 이 사건 부동산을 매도하려 하였으나 원고가 거절하여 성사되지 못했다고 진술한 점 등에</t>
-  </si>
-  <si>
-    <t>대법원 2005. 10. 7. 선고 2005다32197 판결 [공제금청구등][공2005.11.15.(238),1772] 
-제1심 공동피고 소외 1 의 통장으로 3,000만 원을 송금받은 사실, 위 각 매매계약은 토지거래허가를 득하지 못하게 되면서 해제되었고 원고는 2004. 5. 30. 소외 3 과 전화통화를 하면서 비로소 이 사건 매매계약의 목적을 달성할 수 없음을 알게 되었으며 이후 2004. 6. 2. 소외 3 으로부터 이 사건 매매계약상의 계약금 및 중도금으로 것은 허용될 수 없다( 대법원 2000. 1. 21. 선고 99다50538 판결 참조).
-따라서 설사 원고에게 상고이유의 주장과 같은 과실이 있다고 하더라도, 제1심 공동피고 소외 1 의 사기 또는 횡령에 의한 불법행위를 원인으로 하여 피고에 대하여 이 사건 공제계약에 따른 공제금의 지급을 구하는 이 사건에서도 피해자인 원고의 과실을 들어</t>
-  </si>
-  <si>
-    <t>대법원 2003. 5. 13. 선고 2003다10797 판결 [부당이득금][공2003.6.15.(180),1292] 
-원고가 일본에서 운영하는 신문사 일본지사의 경리직원으로 근무하였는데, 1995. 2. 24. 관악경찰서에서 위 지사의 자금을 횡령하였다는 혐의로 조사를 받게 되었고, 전화연락을 받고 위 경찰서로 온 오빠인 피고는, 1995. 2. 25. 피해자인 원고와 사이에 약정을 체결하면서, 그 때까지 드러난 제1심 공동피고 소외인 의 횡령금 15,206 범행 자체를 완강히 부인하였고, 피고도 증인으로 나와 위 각서가 잘못된 것이라는 취지의 증언을 하였을 뿐만 아니라, 제1심 공동피고 소외인 측에서는 원고를 사기, 폭력행위, 무고 등의 혐의로 고소하기까지 하였던 사실, 그러나 원고는 1997. 4. 30. 혐의없음 처분을 받았고, 제1심 공동피고 소외인 은 결국 합계 23,541,985엔(￥)을</t>
-  </si>
-  <si>
-    <t>대법원 2008. 7. 24. 선고 2008다25299 판결 [대여금][공2008하,1239] 
-사건 연대보증채무의 처리에 관하여 원고와 협의할 포괄적 대리권을 수여받은 상태에서 이 사건 제1심 소송 종료 전후에 걸쳐 수차례 원고 은행 직원들과 만나거나 전화를 통하여 합의안을 의논하던 중 이 사건 연대보증채무 482,560,439원 중 2억 원을 지급하고 사건을 종결하는 내용의 합의안을 제시하면서 자신이 피고 회사의 실질적, 피고는 위 지급명령에 기한 이행권고결정에 대해 위 연대보증인란 기재는 주채무자를 달리하여 이루어진 것으로서 피고의 의사에 반하여 무효이거나 착오 또는 사기를 이유로 취소되었고 그렇지 않다 해도 통정허위표시 내지 반사회적 법률행위로서 무효라는 취지로 처음부터 일관되게 주장하고, 나아가 제1심 진행중인 2006. 11. 6</t>
-  </si>
-  <si>
-    <t>대법원 1993. 6. 25. 선고 93다11821 판결 * [위약금][공1993.9.1.(951),2111] 
-왜 원고를 만나느냐 ’고 하면서 위 다방 건너편에 이르렀을 때 차에서 내려 그대로 가버린 사실, 원고와 위 소외 1 , 소외 2 는 그날과 그 다음날 위 피고 집에 전화를 하여 위 피고와 만나려 하였으나 도무지 연락이 닿지 아니하므로, 원고는 위 피고에게 1991. 8. 3. 자 내용증명을 보내어 위 피고의 중도금 수령거절을 이유로 이 사건 인정한 다음, 원고의 위약금 배상에 대한 첫째 주장인 “이 사건 위약금 약정은 구두로 이루어진 것으로서, 위 피고나 그 소송대리인이 형사사건(원고가 위 피고를 사기미수와 위증교사 혐의로, 제1심에서 증언한 소외 3 을 위증 혐의로 고소한 사건)이나 이 사건에서 이를 자인하고 있을 뿐더러, 위 소외 2 가 위 형사사건과 이</t>
-  </si>
-  <si>
-    <t>대법원 1993. 5. 11. 선고 92다55350 판결 [손해배상(기)][공1993.7.15.(948),1684] 
-본 후 원고들의 거주지인 부산에 연락하여 원고들이 이 사건 토지를 둘러보고 평당 230,000원에 매입하려 하였으나 흥정이 되지 아니하였고, 다시 같은 달 8.에 원고 2 가 전화로 평당 250,000원이면 계약하겠다며 원고들의 거주지인 부산에서 광주에 와서 계약을 하려면 시간이 걸리니 피고가 돈을 융통하여서라도 원고들을 대리하여 계약을 채증법칙에 위반된다고 할 수 없음은 위에서 본바와 같고, 원고의 과실비율에 대한 원심의 사실인정이나 판단도 수긍이 된다.
-2. 소론과 같이 위 소외 1 의 사기행위가 발각된 이후에 소외 3 의 중재로 합의관계를 논의하는 과정에서 소외 1 의 처인 소외 4 가 현금 22,000,000원과 다른 토지에 대한 가등기를 설정하여 주기로</t>
-  </si>
-  <si>
-    <t>대법원 2005. 11. 25. 선고 2002다59528 판결 [채무부존재확인ㆍ보험금][공2006.1.1.(241),4] 
-자백의 구속력에 관한 법리오해 등의 위법이 있다고 할 것이다.
-라. 그러나 다른 한편, 기록에 의하면, 피고 회사의 수산부장인 소외 4 는 호의 선장 소외 1 로부터 전화로 화재발생 보고를 받고 그에게 선박침몰을 지시하였고, 이에 따라 소외 1 등이 고의로 킹스톤밸브 등을 조작하여 호를 침몰시켰음에도, 마치 화재 등으로 인하여 가장하여 원고에게 보험금을 청구함으로써 보험금 상당액을 편취하려 했다는 혐의로, 원심판결이 선고된 이후인 2002. 10. 31. 위 소외 4 및 호의 1기사 소외 3 등이 사기미수죄 등으로 기소되어 제1심( 부산지방법원 2002고단9023 ) 및 제2심( 부산지방법원 2004노544 )에서 모두 유죄판결을 받고, 위 판결은 대법원에서 확정된 사실을 알 수</t>
-  </si>
-  <si>
-    <t>대법원 1998. 5. 12. 선고 97다36989 판결 [손해배상(자)][공1998.6.15.(60),1607] 
-보험에 가입하여 줄 것을 부탁한 사실, 그런데 위 대영중기의 보험담당 직원은 위 차량에 대한 이전등록이 이루어지기 전인 1994. 3. 23. 피고 회사의 담당직원에게 전화로 위 차량에 대한 종합보험 가입을 의뢰하면서 위 차량은 동신건기 소유의 차량이라고 말하고 차량등록증 대신 차대번호 등을 기재한 메모를 팩스로 송부하여 전제로, 대영중기가 위 보험계약을 체결함에 있어 피보험자를 사실과 다르게 피고 회사에 고지하였으므로 위 보험계약은 보험계약자의 고지의무위반 및 사기행위를 이유로 해지되었거나 무효라는 등의 피고의 항변을 그 판시와 같은 이유로 배척한 다음, 피고는 위 자동차종합보험계약에 따라 위 사고로 인하여 원고들이 입은</t>
-  </si>
-  <si>
-    <t>대법원 1996. 5. 28. 선고 94다33828 판결 [손해배상(기)][공1996.7.15.(14),1973] 
-소외 1 등이 불법유학알선의 대가로 금원을 받은 비위행위와는 무관하다는 이유로 사기혐의에 대하여 각 무혐의처분을 한 사실을 인정한 다음, 원고가 위 불법유학사기에 관련된 듯한 표현의 기사와 경찰로부터 수배를 받아 미국으로 도피하였다는 기사는 사실과 다른 내용이어서 그로 인하여 원고의 명예가 훼손된 점은 인정되나, 위 하여 마치 피고가 사실을 확인하려는 노력을 다한 듯이 판시하였으나, 갑 제17호증에 의하면 소외 4 가 1991. 4. 11. 14:00경 이 사건을 보도한 중앙일보를 보고 원고 집에 전화하여 원고와 통화하였고, 같은 날 저녁 7시뉴스를 보고 난 후에도 원고에게 전화하여 원고와 통화하였다는 것이므로, 피고 소속 기자들의 원고에 대한 접촉 시도가</t>
-  </si>
-  <si>
-    <t>대법원 1997. 8. 29. 선고 96다43713 판결 * [수입신용장결제대금지급][공1997.10.1.(43),2842] 
-조건과 일치하는지 여부만 확인하면 되고, 그 선적서류에 대한 실질적인 심사의무까지 부담하지는 아니하나, 그 선적서류가 위조(변조 또는 허위 작성을 포함한다)되었을 경우 은행이 위조에 가담한 당사자이거나 서류의 위조 사실을 사전에 알았거나 또는 그와 같이 의심할 만한 충분한 이유가 있는 경우에는, 이는 신용장거래를 빙자한 사기거래에 지나지 아니하므로 그 은행은 더 이상 이른바 신용장의 독립ㆍ추상성의 원칙에 의한 보호를 받을 수 없다고 할 것이므로, 선적서류가 위조된 경우에 개설은행이 상환의무를 이행할 당시 그 서류가 위조된 문서임을 알고 있었거나 위조된 문서라고 의심할 만한 충분한 이유가 있었고, 또한 매입은행도 위조행위의</t>
-  </si>
-  <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2174405&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=2&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=1&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=01,04&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+    <t>대법원 2006. 4. 13. 선고 2005도9268 판결 [부정수표단속법위반ㆍ사기ㆍ자격모용사문서작성ㆍ자격모용작성사문서행사ㆍ사기미수ㆍ사문서위조ㆍ위조사문서행사ㆍ공문서위조ㆍ위조공문서행사ㆍ조세범처벌법위반][공2006.5.15.(250),821] 
+위반죄에 관한 법리를 오해한 위법 등이 있다고 볼 수 없다.
+그 밖에 원심의 채용 증거들을 기록에 비추어 살펴보면, 원심이 피고인에 대한 판시 공소외 3 주식회사 명의 수표 발행으로 인한 부정수표단속법 위반죄, 2000. 9. 9.자 자격모용사문서작성죄와 같은 날 자격모용작성사문서행사죄 및 휴대전화 관련 사기죄, 위조사문서행사죄 및 그로 인한 사기미수죄, 공소외 1 주식회사 명의 세금계산서 발행으로 인한 조세범처벌법 위반죄, 위조공문서행사죄 및 그로 인한 사기미수죄 등의 각 공소사실을 모두 유죄로 인정한 것은 정당하고, 거기에 상고이유의 주장과 같이 채증법칙을 위반하여 사실을 잘못 인정한 위법이나 법리를 오해한 위법 등이 있다고 볼 수 없다.</t>
+  </si>
+  <si>
+    <t>대법원 2020. 12. 10. 선고 2020도11471 판결 [정보통신망이용촉진및정보보호등에관한법률위반(명예훼손)][공2021상,253] 
+24. 선고 2010도10864 판결 , 대법원 2020. 3. 2. 선고 2018도15868 판결 참조).
+2. 이 사건 공소사실의 요지는 다음과 같다.
+피고인은 공소외 1 협회 이사이고, 피해자는 미국 공소외 2 그룹 자산운용사 (영문명 생략) 의 최고경영자로 재직한 사람이다. 피고인은 2018. 10. 19.경 휴대전화를 이용하여 공소외 3 학회 그룹채팅방에 ‘3,000억 원대 △△△ 사기사건을 목격했다. 피해자가 사기꾼이라는 증거를 찾았다. 피해자는 공소외 2 그룹 Asset Management의 CEO라고 자신을 소개했지만 거짓이었다.’라는 내용의 글을 게시하였다. 그러나 사실은 피해자는 미국 공소외 2 그룹 자산운용사의 최고경영자였다. 이로써 피고인은 피해자를 비방할 목적으로 정보통신망을 통하여 공공연하게 거짓의</t>
+  </si>
+  <si>
+    <t>대법원 2013. 4. 26. 선고 2011도10797 판결 [사기ㆍ마약류관리에관한법률위반(향정)ㆍ정신보건법위반ㆍ건강기능식품에관한법률위반][공2013상,996] 
+[1] 의사인 피고인이 전화를 이용하여 진찰(이하 ‘전화 진찰’이라고 한다)한 것임에도 내원 진찰인 것처럼 가장하여 국민건강보험관리공단에 요양급여비용을 청구함으로써 진찰료 등을 편취하였다는 내용으로 기소된 사안에서, 당시에 시행되던 구 ‘국민건강보험 요양급여의 기준에 관한 규칙’(2010. 3. 19. 보건복지부령 정한 ‘직접 진찰’에 해당한다고 하더라도 그러한 사정만으로 요양급여의 대상이 된다고 할 수 없는 이상, 전화 진찰을 요양급여대상으로 되어 있던 내원 진찰인 것으로 하여 요양급여비용을 청구한 것은 기망행위로서 사기죄를 구성하고, 피고인의 불법이득의 의사 또한 인정된다는 이유로, 피고인에게 유죄를 인정한 원심판단이</t>
+  </si>
+  <si>
+    <t>대법원 2011. 7. 28. 선고 2011도5299 판결 [사기ㆍ정보통신망이용촉진및정보보호등에관한법률위반(정보통신망침해등)ㆍ정보통신망이용촉진및정보보호등에관한법률위반][공2011하,1893] 
+Chip) 분실로 사용할 수 없게 된 휴대전화를 구입한 후 이른바 ‘대포폰’으로 유통시켜 사용하도록 하거나 유심칩 읽기를 통하여 해당 휴대전화의 문자발송제한(1일 500개)을 해제하고 광고성 문자를 대량 발송하는 방법으로 이동통신회사들로부터 이용대금 상당의 재산상, 피고인이 이동통신 판매대리점의 컴퓨터를 이용하여 이동통신회사들의 전산망에 접속한 다음 전산상으로 사용정지된 휴대전화를 사용할 수 있도록 하거나 유심칩 읽기를 통해 문자메시지 발송한도를 해제한 것은 전산상 자동으로 처리된 것일 뿐 사기죄 구성요건인 ‘사람을 기망하여 재산상 이득을 취득한 경우’에 해당한다고 볼 수 없는데도, 이와 달리 보아 피고인에게 사기죄를</t>
+  </si>
+  <si>
+    <t>대법원 2007. 7. 12. 선고 2006도3892 판결 [사기ㆍ사문서위조ㆍ위조사문서행사ㆍ업무상횡령][공2007.8.15.(280),1315] 
+없이 판결할 수 있기 위해서는 피고인이 적법한 공판기일 소환장을 받고서 정당한 이유 없이 출정하지 아니할 것을 필요로 한다. 그리고 형사소송법 제63조 제1항 에 의하면, 형사소송절차에서 피고인에 대한 공시송달은 피고인의 주거, 사무소, 현재지를 알 수 없는 때에 한하여 이를 할 수 있는 것인바, 기록상 피고인의 집 전화번호 또는 휴대 전화번호 등이 나타나 있는 경우에는 위 전화번호로 연락하여 송달받을 장소를 확인하여 보는 등의 시도를 해보아야 하고, 그러한 조치를 취하지 아니한 채 곧바로 공시송달의 방법에 의한 송달을 하고 피고인의 진술 없이 판결을 하는 것은 형사소송법 제63조 제1항 , 제365조 에 위배되어 허용되지 아니한다. 이러한 법리는</t>
+  </si>
+  <si>
+    <t>대법원 2021. 7. 29. 선고 2021도3520 판결 [사기ㆍ사문서위조ㆍ전기통신사업법위반][공2021하,1664] 
+상고이유를 판단한다.
+1. 타인통신매개로 인한 전기통신사업법 위반의 점(주위적 공소사실) 관련
+가. 이 부분 공소사실의 요지
+보이스피싱 조직은 중국 등 해외에서 콜센터를 운영하면서 불특정 다수의 사람들을 상대로 무작위로 전화를 걸어 금융기관 직원 등을 사칭하여 금원을 편취하는 수법으로 범행하는 조직으로, 성명불상의 총책은 조직원 간 유기적인 연락을 관리하는 역할, 성명불상의 유인책은 국내 피해자들에게 전화를 걸어 금원을 요구하는 역할, 성명불상의 수거책은 피해자들로부터 금원을 받는 역할, 성명불상의 중간 조직책[위챗 대화명 (대화명 1 생략) , (대화명 2 생략) ]은 성명불상의 총책으로부터 지시를 받아 콜센터에서 인터넷망으로 접속하면</t>
+  </si>
+  <si>
+    <t>대법원 2011. 7. 28. 선고 2011도6762 판결 [사기ㆍ상해][미간행]
+인】 피고인 【변 호 인】 변호사 이동호 【원심판결】 서울동부지법 2011. 5. 12. 선고 2011노391 판결 【주 문】 원심판결을 파기하고, 사건을 서울동부지방법원 합의부에 환송한다.
+【이 유】 상고이유를 판단한다.
+1. 기록에 의하면 다음과 같은 사실을 알 수 있다.
+가. 검사는 이사건 공소를 제기하면서 공소장에 피고인의 휴대전화번호를 “ (전화번호 1 생략) ”, 주소를 “서울 광진구 구의동 (지번 생략) ”로 각 기재하였다.
+나. 제1심은 공소장에 기재된 피고인의 주소지로 공소장 부본, 피고인 소환장 등을 발송하였으나 폐문부재로 송달불능되자 검사에 대한 주소보정명령을 하고, 공소장에 피고인의 휴대전화번호로 기재된 “ (전화번호 1 생략) ”으로 통화를</t>
+  </si>
+  <si>
+    <t>대법원 2000. 7. 28. 선고 2000도1568 판결 [성폭력범죄의처벌및피해자보호등에관한법률위반(특수강간등)ㆍ사기ㆍ살인ㆍ살인교사ㆍ사체은닉ㆍ절도ㆍ공정증서원본불실기재ㆍ불실기재공정증서원본행사][공2000.10.1.(115),1964] 
+남편이 귀가하지 않은 데 대한 주위 친지들의 걱정과 의문 제기에 마지못해 한 것이 아니냐는 의문에 대하여, 피고인 2 는, 같이 나간 피고인 1 이 낚시도 하고 울릉도와 제주도를 다니면서 잘 지낸다고 하여 그리 알고 있었다거나(수 481쪽), 남편이 자신과는 통화를 하지 않지만 시어머니와는 전화로 안부를 전하는 것으로 알고 있었는데, 시어머니가 사망하였는데도 연락이 없어 수사기관에 진정하게 되었다고 변소하는바(수 482쪽), 이러한 피고인 2 의 변명이 다소 미흡해 보이기도 하지만, 피고인 2 가 그 사이 피고인 1 의 고향집을 찾아가는 등 남편의 행방을 수소문한 흔적(공소외 14, 공소외 15, 공소외 3 의 각 증언 등 참조) 등에 비추어, 4년이 지나서야 진정서를</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=3292365&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=1&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2022. 5. 12. 선고 2022도3265 판결[사기·사기미수·업무방해·전자금융거래법위반·주민등록법위반·사문서위조·위조사문서행사][미간행]</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2131096&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=2&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2013. 8. 23. 선고 2013도4004 판결[전자금융거래법위반]〈은행통장 등 양도양수 사건〉[공2013하,1738]</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=3284591&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=3&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2022. 2. 11. 선고 2021도15246 판결[사기·사문서위조·위조사문서행사·업무방해][미간행]</t>
+  </si>
+  <si>
+    <t>【판시사항】  [1] 위계에 의한 업무방해죄에서 ‘위계’의 의미 / 컴퓨터 등 정보처리장치에 정보를 입력하는 등의 행위가 업무방해죄의 위계에 해당하는지 판단하는 기준
+  [2] 피고인이 전화금융사기 편취금을 혼자 한꺼번에 자동화기기를 통해 무매체 입금하는 것임에도 마치 여러 명이 각각 피해자 은행들의 ‘1인 1일 100만 원’ 한도를 준수하면서 입금하는 것처럼 가장하여 전화금융사기 조직원으로부터 제공받은 제3자의 이름과 주민등록번호를 자동화기기에 입력한 후 100만 원 이하의 금액으로 나누어 불상의 계좌로 무매체 입금함으로써 위 조직원과 공모하여 위계로써 피해자 은행들의 업무를 방해하였다는 내용으로 기소된 사안에서, 피고인이 자동화기기에 제3자의 이름, 주민등록번호와 수령계좌를 입력한 후 현금을 투입하고 피고인이 입력한 정보에 따라 수령계좌로 그 돈이 입금됨으로써 무매체 입금거래가 완결되는 과정에서 은행 직원 등 다른 사람의 업무가 관여되었다고 볼 만한 사정이 없으므로, 피고인이 무매체 입금거래 한도 제한을 피하기 위하여 제3자의 이름과 주민등록번호를 이용하여 1회 100만 원 이하의 무매체 입금거래를 하였더라도 업무방해죄의 ‘위계’에 해당하지 않는다고 한 사례
+【참조조문】 [1] 형법 제314조 제1항 [2] 형법 제30조, 제314조 제1항
+【참조판례】 [1] 대법원 2007. 12. 27. 선고 2005도6404 판결(공2008상, 167)대법원 2013. 11. 28. 선고 2013도5117 판결(공2014상, 145)
+【전    문】【피 고 인】
+피고인
+【상 고 인】
+피고인
+【변 호 인】
+변호사 최철
+【배상신청인】
+배상신청인 1 외 3인
+【원심판결】
+ 춘천지법 강릉지원 2021. 10. 21. 선고 2021노279 판결 및 2021초기208 배상명령신청
+【주    문】  원심판결을 파기하고, 사건을 춘천지방법원 강릉지원에 환송한다. 
+【이    유】  직권으로 살펴본다.   1. 이 사건 공소사실 중 업무방해의 점은 ‘사실은 피고인이 혼자 전화금융사기 편취금을 한꺼번에 자동화기기를 통한 무통장·무카드 입금(이하 ‘무매체 입금’이라 한다)하는 것임에도 마치 여러 명이 각각 피해자 은행들의 ‘1인 1일 100만 원’ 한도를 준수하면서 정상적으로 무매체 입금거래를 하는 것처럼 가장하여 전화금융사기 조직원으로부터 제공받은 제3자의 이름과 주민등록번호를 자동화기기에 입력한 후 100만 원 이하의 금액으로 나누어 위 조직원이 지정한 불상의 계좌로 무매체 입금을 함으로써 전화금융사기 조직원과 공모하여 위계로써 피해자 은행들의 자동화기기 무매체 입금거래 업무를 방해하였다.’는 것이다. 원심은 이 부분 공소사실을 유죄로 인정한 제1심판단을 그대로 유지하였다.  2. 그러나 원심의 이러한 판단은 다음과 같은 이유로 수긍할 수 없다.   가. 위계에 의한 업무방해죄에서 ‘위계’란 행위자가 행위목적을 달성하기 위하여 상대방에게 오인, 착각 또는 부지를 일으키게 하여 이를 이용하는 것을 말한다. 컴퓨터 등 정보처리장치에 정보를 입력하는 등의 행위도 그 입력된 정보 등을 바탕으로 업무를 담당하는 사람의 오인, 착각 또는 부지를 일으킬 목적으로 행해진 경우에는 여기서 말하는 위계에 해당할 수 있으나(대법원 2013. 11. 28. 선고 2013도5117 판결 참조), 위와 같은 행위로 말미암아 업무와 관련하여 오인, 착각 또는 부지를 일으킨 상대방이 없었던 경우에는 위계가 있었다고 볼 수 없다(대법원 2007. 12. 27. 선고 2005도6404 판결 참조).  나. 원심이 유지한 제1심이 적법하게 채택한 증거들에 의하면 다음과 같은 사실을 알 수 있다.   1) 국민은행 등은 금융감독원의 지도에 따라 무매체 입금거래의 한도를 ‘1인 1일 100만 원’으로 설정하고 무매체 입금거래 시 자동화기기에 입금자의 이름, 주민등록번호와 휴대폰 번호를 입력하도록 자동화기기를 설정하여 운영하고 있다.   2) 피고인은 전화금융사기의 피해자들로부터 수거한 현금을 전화금융사기 조직에 전달함에 있어 위와 같은 무매체 입금거래 한도의 제한을 회피하기 위하여 위 은행들의 자동화기기에 전화금융사기 조직원으로부터 받은 제3자의 이름과 주민등록번호를 송금자 정보로 입력하고 위 조직원이 지정한 불상의 계좌를 수취계좌로 지정한 후 1회당 100만 원 이하의 현금을 자동화기기에 투입하였다.   피고인이 자동화기기에 투입한 현금은 위와 같이 입력된 정보에 따라 수취계좌로 입금되었고, 그 거래에 관한 명세서는 자동화기기에서 바로 출력되었다.  다. 이러한 사실관계를 앞서 본 법리에 비추어 보면, 피고인이 자동화기기에 제3자의 이름, 주민등록번호와 수령계좌를 입력한 후 현금을 투입하고 피고인이 입력한 정보에 따라 수령계좌로 그 돈이 입금됨으로써 무매체 입금거래가 완결되었다고 볼 수 있는데, 이러한 무매체 입금거래가 완결되는 과정에서 은행 직원 등 다른 사람의 업무가 관여되었다고 볼 만한 사정은 없으므로, 피고인이 자동화기기를 통한 무매체 입금거래 한도 제한을 피하기 위하여 제3자의 이름과 주민등록번호를 이용하여 1회 100만 원 이하의 무매체 입금거래를 하였다고 하더라도, 피고인의 행위는 업무방해죄에 있어 위계에 해당한다고 할 수 없다.  3. 그럼에도 원심은 피고인의 행위가 업무방해죄의 위계에 해당한다는 전제에서 이 부분 공소사실을 유죄로 판단하였으니, 이러한 원심판결에는 업무방해죄에 관한 법리를 오해하여 판결에 영향을 미친 잘못이 있다.   한편 원심판결 중 업무방해 부분은 파기되어야 할 것인데, 이 부분 공소사실과 유죄로 인정된 나머지 공소사실은 경합범 관계에 있다는 이유로 하나의 형이 선고되었으므로, 결국 원심판결은 전부 파기되어야 한다.  4. 그러므로 상고이유에 관한 판단을 생략한 채 원심판결을 파기하고, 사건을 다시 심리·판단하도록 원심법원에 환송하기로 하여, 관여 대법관의 일치된 의견으로 주문과 같이 판결한다.
+대법관   이동원(재판장) 조재연(주심) 민유숙 천대엽</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2174405&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=4&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2014. 12. 24. 선고 2013다98222 판결[부당이득금][미간행]</t>
+  </si>
+  <si>
+    <t>【판시사항】[1] 민사법의 영역에서 과실에 의한 방조가 가능한지 여부(적극) 및 과실에 의한 방조행위와 손해 발생 사이의 상당인과관계 유무의 판단 기준
+[2] 접근매체를 통하여 전자금융거래가 이루어진 경우, 전자금융거래를 매개로 이루어진 개별적인 거래가 불법행위에 해당한다는 이유로 접근매체의 명의자에게 과실에 의한 방조 책임을 지우기 위한 요건 및 불법행위를 용이하게 한다는 점에 관한 예견가능성의 판단 방법
+[3] 갑이 성명불상자의 말에 속아 본인 명의의 통장사본, 현금카드 및 비밀번호를 건네주었는데, 성명불상자가 위 접근매체를 전화금융사기 범행에 사용한 사안에서, 전화금융사기 범행에 대한 상당인과관계를 인정하여 갑에게 과실에 의한 방조책임을 지우기 위해서는, 갑이 접근매체를 성명불상자에게 넘겨주었다는 사정만으로는 부족하고, 갑이 성명불상자에게 접근매체를 넘겨줄 때 이를 통하여 위 범행과 같은 불법행위에 해당하는 거래가 이루어지며 접근매체가 불법행위를 용이하게 한다는 점에 관하여 예견할 수 있었다는 사정이 인정되어야 한다고 한 사례
+【참조조문】[1] 민법 제393조, 제760조 제3항, 제763조 [2] 민법 제393조, 제760조 제3항, 제763조, 전자금융거래법 제6조 제3항 제1호 [3] 민법 제393조, 제760조 제3항, 제763조, 전자금융거래법 제6조 제3항 제1호
+【참조판례】[1] 대법원 2014. 3. 27. 선고 2013다91597 판결(공2014상, 943)[2] 대법원 2007. 7. 13. 선고 2005다21821 판결(공2007하, 1257)
+【전    문】【원고, 피상고인】
+원고 (소송대리인 변호사 박판근 외 5인)
+【피고, 상고인】
+피고
+【원심판결】
+ 대전지법 2013. 11. 13. 선고 2013나13175 판결
+【주    문】  원심판결 중 피고 패소 부분을 파기하고, 이 부분 사건을 대전지방법원 본원 합의부에 환송한다.
+【이    유】  상고이유를 판단한다.  민법 제760조 제3항은 불법행위의 방조자를 공동불법행위자로 보아 방조자에게 공동불법행위의 책임을 부담시키고 있다. 방조는 불법행위를 용이하게 하는 직접, 간접의 모든 행위를 가리키는 것으로서 손해의 전보를 목적으로 하여 과실을 원칙적으로 고의와 동일시하는 민사법의 영역에서는 과실에 의한 방조도 가능하며, 이 경우의 과실의 내용은 불법행위에 도움을 주지 말아야 할 주의의무가 있음을 전제로 하여 그 의무를 위반하는 것을 말한다. 그렇지만 타인의 불법행위에 대하여 과실에 의한 방조로서 공동불법행위의 책임을 지우기 위해서는 방조행위와 불법행위에 의한 피해자의 손해 발생 사이에 상당인과관계가 인정되어야 하며, 상당인과관계를 판단할 때에는 과실에 의한 행위로 인하여 해당 불법행위를 용이하게 한다는 사정에 관한 예견가능성과 아울러 과실에 의한 행위가 피해 발생에 끼친 영향, 피해자의 신뢰 형성에 기여한 정도, 피해자 스스로 쉽게 피해를 방지할 수 있었는지 등을 종합적으로 고려하여 그 책임이 지나치게 확대되지 않도록 신중을 기하여야 한다(대법원 2014. 3. 27. 선고 2013다91597 판결 등 참조).  전자금융거래법 제6조 제3항 제1호는 현금카드 등의 전자식 카드나 비밀번호 등과 같은 전자금융거래에서 사용되는 접근매체를 양도하는 행위를 원칙적으로 금지하고 그 위반행위를 처벌하는 규정을 두고 있다. 이는 예금주의 명의와 다른 사람이 전자금융거래를 함으로 인하여 투명하지 못한 거래가 이루어지는 것을 방지하기 위한 제도로서 전자금융거래의 안정성과 신뢰를 확보하기 위한 차원에서 그에 대한 처벌을 할 필요성이 있다고 할 것이다. 그렇지만 전자금융거래를 이용하는 목적이나 이를 매개로 이루어지는 개별적인 거래의 내용은 다양하며, 특별한 사정이 없는 한 접근매체의 존재 자체로 인하여 피해자가 잘못된 신뢰를 형성하여 해당 금융거래에 관한 원인계약을 체결하기에 이르렀다고 단정하기 어려운 경우가 많을 것이다. 따라서 위에서 본 과실에 의한 방조 책임에 관한 일반 법리에 비추어 보면, 접근매체를 통하여 전자금융거래가 이루어진 경우에 그 전자금융거래에 의한 법률효과를 접근매체의 명의자에게 부담시키는 것을 넘어서서 그 전자금융거래를 매개로 이루어진 개별적인 거래가 불법행위에 해당한다는 이유로 접근매체의 명의자에게 과실에 의한 방조 책임을 지우기 위해서는, 접근매체 양도 당시의 구체적인 사정에 기초하여 접근매체를 통하여 이루어지는 개별적인 거래가 불법행위에 해당한다는 점과 그 불법행위에 접근매체를 이용하게 함으로써 그 불법행위를 용이하게 한다는 점에 관하여 예견할 수 있어 접근매체의 양도와 불법행위로 인한 손해 사이에 상당인과관계가 인정되는 경우라야 한다(대법원 2007. 7. 13. 선고 2005다21821 판결 참조). 그리고 이와 같은 예견가능성이 있는지 여부는 접근매체를 양도하게 된 목적 및 경위, 그 양도 목적의 실현 가능성, 양도의 대가나 이익의 존부, 양수인의 신원, 접근매체를 이용한 불법행위의 내용 및 그 불법행위에 대한 접근매체의 기여도, 접근매체 이용 상황에 대한 양도인의 확인 여부 등을 종합적으로 고려하여 판단하여야 한다.  원심판결 이유에 의하면, 원심은, 피고가 일자리를 알아보던 중 “채용이 되면 급여통장, 출입카드를 만들어야 하는데 이를 위해서는 통장사본, 현금카드 및 비밀번호가 필요하다.”는 성명불상자의 말에 속아 성명불상자가 보낸 퀵서비스 직원에게 본인 명의의 통장사본, 현금카드 및 비밀번호를 건네준 사실을 인정한 다음, 피고가 접근매체를 성명불상자에게 건네줄 당시 위 접근매체가 성명불상자에 의하여 전화금융사기 범행에 사용될 수 있다는 것을 예견할 수 있었고, 비록 피고가 이 사건 전화금융사기 범행에 적극적으로 가담하지 않았더라도 성명불상자에게 접근매체를 제공함으로써 성명불상자의 위 범행을 용이하게 하여 이를 방조하였다고 인정하여, 과실에 의한 방조로 인한 불법행위 책임을 진다고 판단하였다.  그런데 적법하게 채택된 증거들을 비롯한 기록에 의하면, 피고는 성명불상자의 말에 속아 원심이 인정한 것과 같이 취업을 목적으로 접근매체를 넘겨준 피해자로 볼 수 있고, 또한 피고가 이와 관련하여 어떠한 대가를 받았다거나 위 접근매체를 피고를 위한 취업 목적을 넘어서서 자유롭게 사용하도록 허락하였음에 관한 자료도 없다. 이러한 사정을 앞서 본 법리에 비추어 보면, 이 사건 전화금융사기 범행에 대한 상당인과관계를 인정하여 피고에게 과실에 의한 방조책임을 지우기 위해서는, 피고가 접근매체를 성명불상자에게 넘겨주었다는 사정만으로는 부족하고, 피고가 성명불상자에게 위 접근매체를 넘겨줄 때에 이를 통하여 위 범행과 같은 불법행위에 해당하는 거래가 이루어지며 이 사건 접근매체가 그 불법행위를 용이하게 한다는 점에 관하여 예견할 수 있었다는 사정이 인정되어야 한다.  그런데 원심이 이유로 들고 있는 사정들을 기록에 비추어 살펴보면, 원심은 이와 같은 불법행위에 대한 예견가능성 내지 상당인과관계에 관하여는 제대로 심리·판단하지 아니한 채, 통장명의인이 교부한 접근매체가 타인에 의하여 전화금융사기 범행에 사용될 수 있다는 일반적·추상적인 가능성을 불법행위책임의 주된 논거로 삼아 피고의 과실에 의한 방조로 불법행위책임을 속단한 것으로 보인다. 따라서 이러한 원심의 판단에는 과실에 의한 방조 책임에 관한 법리를 오해하여 필요한 심리를 다하지 아니함으로써 판결에 영향을 미친 위법이 있다. 이를 지적하는 취지의 상고이유 주장은 이유 있다.  그러므로 원심판결 중 피고 패소 부분을 파기하고, 이 부분 사건을 다시 심리·판단하게 하기 위하여 원심법원에 환송하기로 하여 관여 대법관의 일치된 의견으로 주문과 같이 판결한다.
+대법관   김창석(재판장) 신영철(주심) 이상훈 조희대</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2139309&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=5&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2014. 1. 29. 선고 2013다86489 판결[손해배상(기)][공2014상,499]</t>
+  </si>
+  <si>
+    <t>【판시사항】[1] 전자금융거래법 제9조 제2항 등에서 정한 ‘이용자의 고의나 중대한 과실’이 있는지 판단하는 기준
+[2] 갑이 금융기관인 을 주식회사 등에서 금융거래를 하면서 인터넷뱅킹서비스를 이용했는데, 병이 전화금융사기를 통하여 갑에게서 취득한 금융거래정보를 이용하여 갑 명의의 공인인증서를 재발급받아 다른 금융기관들로부터 대출서비스 등을 받은 사안에서, 갑의 금융거래정보 노출행위가 금융사고의 발생에 이용자의 ‘중대한 과실’이 있는 경우에 해당한다고 본 원심판단을 수긍한 사례
+【판결요지】[1] 전자금융거래법 제9조, 전자금융거래법 시행령 제8조 등에서 정하는 ‘고의 또는 중대한 과실’이 있는지 여부는 접근매체의 위조 등 금융사고가 일어난 구체적인 경위, 그 위조 등 수법의 내용 및 그 수법에 대한 일반인의 인식 정도, 금융거래 이용자의 직업 및 금융거래 이용경력 기타 제반 사정을 고려하여 판단할 것이다.
+[2] 갑이 금융기관인 을 주식회사 등에서 예금계좌를 개설하여 금융거래를 하면서 인터넷뱅킹서비스를 이용하여 왔는데, 병이 전화금융사기(이른바 보이스피싱)를 통하여 갑에게서 취득한 금융거래정보를 이용하여 갑 명의의 공인인증서를 재발급받아 다른 금융기관들로부터 대출서비스 등을 받은 사안에서, 갑이 제3자에게 접근매체인 공인인증서 발급에 필수적인 계좌번호, 계좌비밀번호, 주민등록번호, 보안카드번호, 보안카드비밀번호를 모두 알려준 점 등 제반 사정에 비추어, 갑의 금융거래정보 노출행위가 전자금융거래법 등에서 정한 금융사고의 발생에 이용자의 ‘중대한 과실’이 있는 경우에 해당한다고 본 원심판단을 수긍한 사례.
+【참조조문】[1] 전자금융거래법 제9조, 전자금융거래법 시행령 제8조 제2호 [2] 전자금융거래법 제9조, 전자금융거래법 시행령 제8조 제2호
+【전    문】【원고, 상고인】
+원고 (소송대리인 변호사 박왕규)
+【피고, 피상고인】
+농협은행 주식회사 외 1인 (소송대리인 법무법인 21세기종합법률사무소 담당변호사 서일석 외 1인)
+【원심판결】
+ 광주지법 2013. 10. 18. 선고 2013나9358 판결
+【주    문】  상고를 모두 기각한다.  상고비용은 원고가 부담한다.
+【이    유】  상고이유를 판단한다.  1. 상고이유 제1점에 관하여  가. 전자금융거래법 제9조는 그 제1항에서 금융기관 등은 그 법률에서 정하는 접근매체의 위조나 변조로 발생한 사고 등으로 이용자에게 손해가 발생한 경우에는 그 손해를 배상할 책임을 진다고 정하는데, 그 제2항은 제1항의 규정에 불구하고 금융기관 등은 “사고 발생에 있어서 이용자의 고의나 중대한 과실이 있는 경우로서 그 책임의 전부 또는 일부를 이용자의 부담으로 할 수 있다는 취지의 약정을 미리 이용자와 체결한 경우” 등에는 그 책임의 전부 또는 일부를 이용자가 부담하게 할 수 있다고 정하고 있다. 그리고 위 법률 제9조 제3항의 위임에 기하여 위 제2항에서의 ‘고의나 중대한 과실’의 구체적 내용을 규정하는 전자금융거래법 시행령 제8조는 그 제2호에서 그에 해당하는 것의 하나로 “제3자가 권한 없이 이용자의 접근매체를 이용하여 전자금융거래를 할 수 있음을 알았거나 쉽게 알 수 있었음에도 불구하고 접근매체를 누설하거나 노출 또는 방치한 경우”를 정하고 있다. 또한 피고들이 사용하는 것으로서 원고와의 이 사건 금융거래에서 사용된 전자금융거래 기본약관 제20조에서도 위 법규정들과 같은 내용이 정하여져 있다.  여기서 위 법규정이나 약관에서 정하는 ‘고의 또는 중대한 과실’이 있는지 여부는 접근매체의 위조 등 금융사고가 일어난 구체적인 경위, 그 위조 등 수법의 내용 및 그 수법에 대한 일반인의 인식 정도, 금융거래 이용자의 직업 및 금융거래 이용경력 기타 제반 사정을 고려하여 판단할 것이다.  나. 원심은 우선 다음과 같은 사실을 인정하였다. 원고는 피고들에서 각 예금계좌를 개설하여 금융거래를 하면서 인터넷뱅킹서비스를 이용하여 왔는데, 성명불상자가 2012. 3. 30. 원고에게 전화를 걸어 자신을 서울지방검찰청 검사라고 속이고 원고로 하여금 허위 대검찰청 인터넷사이트에 접속하게 한 후 원고의 주민등록번호, 휴대전화번호, 신용카드번호, 예금계좌번호, 각 비밀번호, 보안카드번호, 보안카드 비밀번호를 각 입력하게 하였다. 위 성명불상자는 같은 날 원고가 입력한 금융거래정보를 이용하여 원고 명의의 공인인증서를 재발급받았고, 이를 이용하여 현대카드 주식회사 등 3개의 금융기관로부터 대출서비스 등을 받아 그 각 금전을 위 각 예금계좌로 송금받은 다음 다시 제3자 명의의 예금계좌로 송금하였다.  나아가 원심은 그 채택의 증거에 인정되는 사정들, 즉 ① 이 사건 금융사고 당시에는 전화금융사기(이른바 보이스피싱)가 빈발하여 이에 대한 사회적인 경각심이 높아진 상태이었던 점, ② 원고는 이 사건 금융사고 당시 만 33세로서 공부방을 운영하는 등 사회경험이 있었고 1년 이상 인터넷뱅킹서비스를 이용하여 왔던 점, ③ 원고는 관련 형사사건의 조사과정에서 성명불상자로부터 ‘001’로 시작되는 국제전화를 받아 순간 이상하다는 생각을 하였다고 진술하고 있는 점, ④ 그럼에도 원고는 제3자에게 접근매체인 공인인증서 발급에 필수적인 계좌번호, 계좌비밀번호, 주민등록번호, 보안카드번호, 보안카드비밀번호를 모두 알려준 점 등에 비추어 보면, 원고는 ‘제3자가 권한 없이 접근매체를 이용하여 전자금융거래를 할 수 있음을 알았거나 쉽게 알 수 있었음에도 이를 노출’하였다고 볼 것이므로, 결국 원고의 위와 같은 금융거래정보 노출행위는 전자금융거래법 제9조 제2항, 제3항, 같은 법 시행령 제8조 제2호, 피고들의 전자금융거래 기본약관 제20조가 정하는 금융사고의 발생에 이용자의 ‘중대한 과실’이 있는 경우에 해당한다고 판단하였다. 그리고 피고들의 전부 면책 주장을 받아들였다.  다. 앞서 본 법리에 비추어 살펴보면, 원심의 위와 같은 판단은 정당한 것으로 수긍할 수 있다. 거기에 상고이유의 주장과 같이 위 법규정 등에서의 ‘중대한 과실’ 또는 면책의 범위에 관한 법리를 오해하는 등으로 판결에 영향을 미친 위법이 있다고 할 수 없다.  2. 상고이유 제2점에 관하여  원고는 피고들이 공인인증서가 재발급되는 경우에는 이용자에게 이를 통지하여야 할 주의의무가 있음에도 피고들이 이를 게을리하여 원고가 이 사건 금융사고를 방지하지 못하게 하였으므로 피고들은 민법 제760조 제3항이 규정한 과실에 의한 불법행위방조책임에 따라 원고가 입은 손해를 배상할 책임이 있다고 주장하였다.  이에 대하여 원심은 피고들에게 공인인증서의 재발급에 있어서 원고에게 이를 문자메시지 등을 이용하여 통지할 주의의무가 있다고 할 수 없고 오히려 문자메시지 등을 이용한 통지는 피고들이 이용자의 요청에 따라 제공하는 서비스로 보이는데 원고는 인터넷뱅킹서비스 신청 당시 보안SMS 신청을 하지 아니하였으며, 설령 피고들에게 그러한 주의의무가 있다고 하더라도 이를 이행하지 아니함으로써 이 사건 금융사고가 발생하였다고 할 수 없으므로, 원고의 위 주장은 이유 없다고 판단하였다.  관련 법리에 비추어 기록을 살펴보면, 원심의 판단은 정당하고, 거기에 상고이유의 주장과 같이 불법행위의 방조에 관한 법리를 오해한 위법이 있다고 할 수 없다.  3. 결론  그러므로 상고를 기각하고 상고비용은 패소자의 부담으로 하기로 하여, 관여 대법관의 일치된 의견으로 주문과 같이 판결한다.
+대법관   고영한(재판장) 양창수(주심) 박병대 김창석</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=3239539&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=6&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2020. 8. 20. 선고 2019도16263 판결[범죄단체조직·범죄단체가입·범죄단체활동·사기·사기방조·자동차관리법위반·위증]〈형법 제114조의 범죄집단조직·가입·활동 사건〉[공2020하,1824]</t>
+  </si>
+  <si>
+    <t>【판시사항】  [1] 형법 제114조에서 정한 ‘범죄를 목적으로 하는 단체’의 의미
+  [2] 형법 제114조에서 정한 ‘범죄를 목적으로 하는 집단’의 의미와 요건
+  [3] 피고인 갑은 무등록 중고차 매매상사(외부사무실)를 운영하면서 피해자들을 기망하여 중고차량을 불법으로 판매해 금원을 편취할 목적으로 외부사무실 등에서 범죄집단을 조직·활동하고, 피고인 갑, 을을 제외한 나머지 피고인들은 범죄집단에 가입·활동하였다는 내용으로 기소된 사안에서, 위 외부사무실은 특정 다수인이 사기범행을 수행한다는 공동목적 아래 구성원들이 대표, 팀장, 출동조, 전화상담원 등 정해진 역할분담에 따라 행동함으로써 사기범행을 반복적으로 실행하는 체계를 갖춘 결합체, 즉 형법 제114조의 ‘범죄를 목적으로 하는 집단’에 해당한다고 한 사례
+【판결요지】  [1] 형법 제114조에서 정한 ‘범죄를 목적으로 하는 단체’란 특정 다수인이 일정한 범죄를 수행한다는 공동목적 아래 구성한 계속적인 결합체로서 그 단체를 주도하거나 내부의 질서를 유지하는 최소한의 통솔체계를 갖춘 것을 의미한다.
+  [2] 형법 제114조에서 정한 ‘범죄를 목적으로 하는 집단’이란 특정 다수인이 사형, 무기 또는 장기 4년 이상의 범죄를 수행한다는 공동목적 아래 구성원들이 정해진 역할분담에 따라 행동함으로써 범죄를 반복적으로 실행할 수 있는 조직체계를 갖춘 계속적인 결합체를 의미한다. ‘범죄단체’에서 요구되는 ‘최소한의 통솔체계’를 갖출 필요는 없지만, 범죄의 계획과 실행을 용이하게 할 정도의 조직적 구조를 갖추어야 한다.
+  [3] 피고인 갑은 무등록 중고차 매매상사(이하 ‘외부사무실’이라 한다)를 운영하면서 피해자들을 기망하여 중고차량을 불법으로 판매해 금원을 편취할 목적으로 외부사무실 등에서 범죄집단을 조직·활동하고, 피고인 갑, 을을 제외한 나머지 피고인들은 범죄집단에 가입·활동하였다는 내용으로 기소된 사안에서, 외부사무실에는 회사 조직과 유사하게 대표, 팀장, 팀원(출동조, 전화상담원)으로 직책이나 역할이 분담되어 있었는데, 상담원은 인터넷 허위 광고를 보고 전화를 건 손님들에게 거짓말로 외부사무실에 방문할 것을 유인하는 역할을, 출동조는 외부사무실을 방문한 손님들에게 허위 중고차량을 보여주면서 소위 ‘뜯플’ 또는 ‘쌩플’의 수법으로 중고차량 매매계약을 유도하는 역할을, 팀장은 소속 직원을 채용하고, 손님 방문 시 출동조를 배정하며, 출동조로부터 계약 진행 상황을 보고받고, 출동조가 매매계약 유도를 성공하면 손님들과 정식 계약을 체결하는 역할을, 대표인 피고인 갑은 사무실과 집기, 중고자동차 매매계약에 필요한 자료와 할부금융, 광고 등을 준비해 외부사무실을 운영하면서 팀장을 채용한 뒤 팀장으로 하여금 팀을 꾸려 사기범행을 실행하도록 하고, 할부금융사로부터 할부중개수수료를 받으면 이를 팀별로 배분하는 역할을 수행하였으며, 대표 또는 팀장은 팀장, 출동조, 전화상담원에게 고객을 유인하고 대응하는 법이나 기망하는 방법 등에 대해 교육한 점, 대표는 팀장들이 이용할 할부금융사 및 광고 사이트를 정해 팀장들에게 알려주고 팀장들로부터 상사입금비 및 광고비를 받는 한편, 손님들이 중고차량을 할부로 계약한 경우 할부금융사로부터 받는 할부중개수수료 중 절반을 팀장들에게 나누어 주었으며, 팀장들은 대표로부터 지급받은 위 할부중개수수료와 중고차량 매매에 따른 차익을 출동조 및 상담원에게 각각 나눠주고 나머지를 가져간 점, 피고인 을을 제외한 나머지 피고인들은 외부사무실 업무와 관련하여 ‘텔레그램’을 이용한 대화방을 여러 개 개설하여 정보를 공유하거나 각종 보고 등을 하였고, 대표와 팀장들은 월 1~2회 회의를 하면서 단속정보 등을 공유하였으며, 팀장들은 공유된 정보를 소속 출동조 및 상담원에게 전파한 점 등을 종합하면, 외부사무실은 특정 다수인이 사기범행을 수행한다는 공동목적 아래 구성원들이 대표, 팀장, 출동조, 전화상담원 등 정해진 역할분담에 따라 행동함으로써 사기범행을 반복적으로 실행하는 체계를 갖춘 결합체, 즉 형법 제114조의 ‘범죄를 목적으로 하는 집단’에 해당한다는 이유로, 이와 달리 보아 공소사실을 무죄로 판단한 원심판결에 법리오해의 위법이 있다고 한 사례.
+【참조조문】[1] 형법 제114조 [2] 형법 제114조 [3] 형법 제114조, 제347조 제1항
+【참조판례】[1] 대법원 1985. 10. 8. 선고 85도1515 판결(공1985, 1510)대법원 2016. 5. 12. 선고 2016도1221 판결
+【전    문】【피 고 인】
+피고인 1 외 21인
+【상 고 인】
+피고인 22 및 검사(피고인 1, 피고인 2, 피고인 3, 피고인 4, 피고인 5, 피고인 6, 피고인 7, 피고인 8, 피고인 9, 피고인 10, 피고인 11, 피고인 12, 피고인 13, 피고인 14, 피고인 15, 피고인 16, 피고인 17, 피고인 18, 피고인 19, 피고인 20, 피고인 21에 대하여)
+【변 호 인】
+법무법인(유한) 케이에이치엘 외 3인
+【원심판결】
+ 인천지법 2019. 10. 18. 선고 2018노4352, 4354 판결
+【주    문】  원심판결 중 피고인 22를 제외한 나머지 피고인들에 대한 부분을 파기하고, 이 부분 사건을 인천지방법원에 환송한다.  피고인 22의 상고를 기각한다.  원심판결 제32쪽 제14행 다음에 “1. 법률상 감경 피고인 22: 형법 제32조 제2항, 제55조 제1항 제3호”를 추가하는 것으로 경정한다.
+【이    유】  상고이유(상고이유서 제출기간이 지난 다음 피고인 22의 변호인이 제출한 상고이유보충서의 기재는 상고이유를 보충하는 범위에서)를 판단한다.  1. 검사의 상고이유에 관한 판단  가. 범죄단체 조직·가입·활동에 관한 주위적 공소사실에 대하여  형법 제114조에서 정한 ‘범죄를 목적으로 하는 단체’란 특정 다수인이 일정한 범죄를 수행한다는 공동목적 아래 구성한 계속적인 결합체로서 그 단체를 주도하거나 내부의 질서를 유지하는 최소한의 통솔체계를 갖춘 것을 의미한다(대법원 2016. 5. 12. 선고 2016도1221 판결).  원심은 그 판시와 같은 이유로 피고인 1에 대한 공소사실 중 범죄단체 조직 및 범죄단체 활동 부분, 피고인 1, 피고인 22를 제외한 나머지 피고인들에 대한 공소사실 중 범죄단체 가입 및 범죄단체 활동 부분에 대하여 범죄의 증명이 없다고 보아 이를 모두 무죄로 판단하였다.  원심판결 이유를 위 법리와 기록에 비추어 살펴보면, 원심의 판단에 형법 제114조의 ‘범죄단체’에 관한 법리를 오해한 잘못이 없다.  나. 범죄집단 조직·가입·활동에 관한 예비적 공소사실에 대하여  1) 형법 제114조에서 정한 ‘범죄를 목적으로 하는 집단’이란 특정 다수인이 사형, 무기 또는 장기 4년 이상의 범죄를 수행한다는 공동목적 아래 구성원들이 정해진 역할분담에 따라 행동함으로써 범죄를 반복적으로 실행할 수 있는 조직체계를 갖춘 계속적인 결합체를 의미한다. ‘범죄단체’에서 요구되는 ‘최소한의 통솔체계’를 갖출 필요는 없지만, 범죄의 계획과 실행을 용이하게 할 정도의 조직적 구조를 갖추어야 한다.  2) 원심에서 예비적으로 추가된 예비적 공소사실의 요지는 ‘피고인 1은 피해자들을 기망하여 중고차량을 불법으로 판매해 금원을 편취할 목적으로 2016. 6.경부터 2017. 6.경까지 인천 (주소 생략)에 있는 외부사무실(이하 ‘이 사건 외부사무실’이라 한다) 등에서 범죄집단을 조직·활동하고, 피고인 1, 피고인 22를 제외한 나머지 피고인들은 범죄집단에 가입·활동하였다’는 것이다.  이에 대하여 원심은, 그 판시와 같은 이유로 이 사건 외부사무실은 합동범 및 공동정범과 구별할 수 있을 정도로 조직을 구성하는 일정한 체계 내지 구조를 갖춘 범죄집단으로 보기 어렵다고 보아 무죄로 판단하였다.  3) 원심이 인정한 사실 및 원심이 적법하게 채택하여 조사한 증거들에 의하면 다음과 같은 사실 및 사정들을 알 수 있다.  가) 이 사건 외부사무실에는 직원이 20명에서 40명 정도 있었고, 그중 팀장은 3명에서 6명까지 있었다. 이 사건 외부사무실은 회사 조직과 유사하게 대표, 팀장, 팀원(출동조, 전화상담원)으로 직책이나 역할이 분담되어 있었는데, 상담원은 인터넷 허위 광고를 보고 전화를 건 손님들에게 거짓말로 이 사건 외부사무실에 방문할 것을 유인하는 역할을, 출동조는 이 사건 외부사무실을 방문한 손님들에게 허위 중고차량을 보여주면서 소위 ‘뜯플’ 또는 ‘쌩플’의 수법으로 중고차량 매매계약을 유도하는 역할을, 팀장은 소속 직원을 채용하고, 손님 방문 시 출동조를 배정하며, 출동조로부터 계약 진행 상황을 보고받고, 출동조가 매매계약 유도를 성공하면 손님들과 정식 계약을 체결하는 역할을, 대표인 피고인 1은 사무실과 집기, 중고자동차 매매계약에 필요한 자료와 할부금융, 광고 등을 준비해 이 사건 외부사무실을 운영하면서 팀장을 채용한 뒤 팀장으로 하여금 팀을 꾸려 이 사건 사기범행을 실행하도록 하고, 할부금융사로부터 할부중개수수료를 받으면 이를 팀별로 배분하는 역할을 수행하였다. 대표 또는 팀장은 팀장, 출동조, 전화상담원에게 고객을 유인하고 대응하는 법이나 기망하는 방법 등에 대해 교육하였다.  나) 대표는 팀장들이 이용할 할부사 및 광고 사이트를 정해 팀장들에게 알려주고, 팀장들로부터 상사입금비 및 광고비를 받았다. 또한 대표는 손님들이 중고차량을 할부로 계약한 경우 할부금융사로부터 받는 할부중개수수료 중 절반을 팀장들에게 나누어 주었다. 팀장들은 대표로부터 지급받은 위 할부중개수수료와 중고차량 매매에 따른 차익 중 출동조에게 20~30%를, 상담원에게 5~10%를 나눠주고, 그 나머지를 가져갔다.  다) 피고인 22를 제외한 나머지 피고인들은 이 사건 외부사무실 업무와 관련하여 ‘텔레그램’을 이용한 대화방을 개설하여 정보를 공유하거나 각종 보고 등을 하였는데, 대표를 포함해 전 직원이 참여하는 전체 대화방에서는 단속 등에 관한 공지사항이, 팀원들이 참여하는 팀방에서는 상담원이 손님을 유인한 내용, 손님이 본 차량 및 금액 등이, 팀장들이 참여하는 사수방에서는 지각자 명단 등이, 상담원들이 참여하는 전화보고방에서는 상담원이 손님들과 전화를 받은 횟수 등이 각 공유되거나 보고되었다. 또한 대표와 팀장들은 월 1~2회 회의를 하면서 단속정보 등을 공유하였고, 팀장들은 공유된 정보를 소속 출동조 및 상담원에게 전파하였다.  라) 이 사건 외부사무실 직원들은 부정기적으로 전체 회식이나 야유회를 가졌는데, 그에 들어가는 비용은 대표인 피고인 1이 모두 부담하였다. 피고인 1은 단속될 경우를 대비하여 이 사건 외부사무실을 자주 옮겼는데, 이 경우 이 사건 외부사무실 직원 모두가 피고인 1이 마련한 새로운 사무실로 이전한 뒤 종전과 동일하게 근무하였다.  마) 이 사건 외부사무실에서 이루어진 중고자동차 매매계약은 모두 소위 ‘뜯플’, ‘쌩플’ 등의 사기 수법이 동원된 것이고, 정상적인 판매행위는 이루어지지 않았다.  4) 이러한 사실 및 사정들을 앞서 본 법리에 비추어 보면, 이 사건 외부사무실은 특정 다수인이 사기범행을 수행한다는 공동목적 아래 구성원들이 대표, 팀장, 출동조, 전화상담원 등 정해진 역할분담에 따라 행동함으로써 사기범행을 반복적으로 실행하는 체계를 갖춘 결합체, 즉 형법 제114조의 ‘범죄를 목적으로 하는 집단’에 해당한다.  그럼에도 이와 달리 원심은 그 판시와 같은 이유로 이 사건 외부사무실이 형법 제114조의 범죄집단에 해당하지 않는다는 취지에서 예비적 공소사실을 무죄로 판단하였다. 이 부분 원심판결에는 형법 제114조에서 정한 ‘범죄집단’에 관한 법리를 오해하여 판결에 영향을 미친 위법이 있다.  2. 피고인 22의 상고이유에 관한 판단  원심은 판시와 같은 이유로 피고인 22에 대한 공소사실을 유죄로 판단하였다. 원심판결 이유를 관련 법리와 적법하게 채택된 증거에 비추어 살펴보면, 원심의 판단에 필요한 심리를 다하지 않은 채 논리와 경험의 법칙에 반하여 자유심증주의의 한계를 벗어나거나 사기죄에서의 기망행위, 인과관계, 사기방조죄 및 위증죄에서의 고의와 죄수, 증명책임 등에 관한 법리를 오해하고, 판단누락 등으로 판결에 영향을 미친 잘못이 없다.  3. 파기의 범위  앞서 본 바와 같이 원심판결 중 피고인 22를 제외한 나머지 피고인들에 대한 범죄집단 조직·가입·활동에 관한 예비적 공소사실에 대한 무죄 부분은 파기를 면할 수 없고, 이에 따라 이와 동일체의 관계에 있는 주위적 공소사실에 관한 무죄 부분 역시 파기될 수밖에 없으며, 원심이 유죄로 인정한 사기죄 등은 형법 제37조 전단의 경합범 관계에 있어 하나의 형이 선고되어야 하므로, 결국 원심판결 중 피고인 22를 제외한 나머지 피고인들에 대한 부분은 전부 파기되어야 한다.  4. 결론  그러므로 원심판결 중 피고인 22를 제외한 나머지 피고인들에 대한 부분을 파기하고, 이 부분 사건을 다시 심리·판단하게 하기 위하여 원심법원에 환송하기로 하며, 피고인 22의 상고를 기각하기로 하되, 원심판결에서 주문과 같은 기재를 누락한 것은 오류임이 분명하므로 이를 추가하는 것으로 경정하기로 하여, 관여 대법관의 일치된 의견으로 주문과 같이 판결한다.
+대법관   이기택(재판장) 권순일 박정화 김선수(주심)</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=3259109&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=7&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2020. 9. 7. 선고 2020도7915 판결[범죄단체활동ㆍ사기ㆍ범죄단체가입ㆍ자동차관리법위반ㆍ도로교통법위반(무면허운전)ㆍ사문서위조ㆍ위조사문서행사ㆍ횡령ㆍ도로교통법위반ㆍ공무집행방해ㆍ절도][미간행]</t>
+  </si>
+  <si>
+    <t>【판시사항】
+[1] 형법 제114조에서 정한 ‘범죄를 목적으로 하는 단체’의 의미
+[2] 형법 제114조에서 정한 ‘범죄를 목적으로 하는 집단’의 의미와 요건
+[3] 갑 등은 무등록 중고차 매매상사(외부 사무실)를 운영하면서 피해자들을 기망하여 이른바 ‘뜯플’ 또는 ‘쌩플’의 수법으로 중고차량을 시세보다 비싸게 판매해 금원을 편취할 목적으로 외부 사무실 등에서 범죄집단을 조직ㆍ활동하고, 피고인은 범죄집단에 가입ㆍ활동하였다는 내용으로 기소된 사안에서, 위 외부 사무실은 특정 다수인이 사기 범행을 수행한다는 공동 목적으로 구성원들이 대표, 팀장, 출동조, 전화상담원 등 정해진 역할분담에 따라 행동함으로써 사기 범행을 반복적으로 실행하는 체계를 갖춘 결합체, 즉 형법 제114조의 ‘범죄를 목적으로 하는 집단’에 해당한다고 한 사례
+【참조조문】[1] 형법 제114조 [2] 형법 제114조 [3] 형법 제114조, 제347조 제1항
+【참조판례】[1][2] 대법원 2020. 8. 20. 선고 2019도11731 판결 대법원 2020. 8. 20. 선고 2019도16263 판결(공2020하, 1824)[1] 대법원 2016. 5. 12. 선고 2016도1221 판결
+【전    문】【피 고 인】
+피고인
+【상 고 인】
+피고인 및 검사
+【변 호 인】
+변호사 송준선
+【원심판결】
+인천지법 2020. 5. 29. 선고 2019노4317 판결
+【주    문】원심판결 중 제1심판결 2018고단4305 사건 부분, 2018고단7772 사건의 사기죄와 자동차관리법 위반죄 중 제3의 가.항 부분, 2019고단1369 사건 부분을 파기하고, 이 부분 사건을 인천지방법원에 환송한다.  피고인의 나머지 상고를 기각한다.
+【이    유】상고이유를 판단한다.  1. 검사  가. 범죄단체 가입ㆍ활동에 관한 주위적 공소사실  형법 제114조에서 정한 ‘범죄를 목적으로 하는 단체’란 특정 다수인이 일정한 범죄를 수행한다는 공동 목적으로 구성한 계속적인 결합체로서 단체를 주도하거나 내부 질서를 유지하는 최소한의 통솔체계를 갖춘 것을 뜻한다(대법원 2016. 5. 12. 선고 2016도1221 판결 참조).  원심은 범죄단체 가입과 범죄단체 활동 부분에 대하여 범죄의 증명이 없다고 보아 무죄로 판단하였다. 원심판결 이유를 위 법리와 기록에 비추어 살펴보면, 원심판결에 형법 제114조의 ‘범죄단체’에 관한 법리를 오해한 잘못이 없다.  나. 범죄집단 가입ㆍ활동에 관한 예비적 공소사실  (1) 형법 제114조에서 정한 ‘범죄를 목적으로 하는 집단’이란 특정 다수인이 사형, 무기 또는 장기 4년 이상의 범죄를 수행한다는 공동 목적으로 구성원들이 정해진 역할분담에 따라 행동함으로써 범죄를 반복적으로 실행할 수 있는 조직체계를 갖춘 계속적인 결합체를 뜻한다. ‘범죄단체’에서 요구되는 ‘최소한의 통솔체계’를 갖출 필요는 없지만, 범죄의 계획과 실행을 용이하게 할 정도의 조직적 구조를 갖추어야 한다(대법원 2020. 8. 20. 선고 2019도11731 판결 참조).  (2) 원심에서 예비적으로 추가된 예비적 공소사실의 요지는 ‘공소외 1, 공소외 2, 공소외 3은 피해자들을 기망하여 중고차량을 불법으로 판매해 금원을 편취할 목적으로 2016. 5.~6.경부터 2017. 9.경까지 인천 동구 ○○동에 있는 외부 사무실(이하 ‘이 사건 외부 사무실’이라 한다) 등에서 범죄집단을 조직ㆍ활동하고, 피고인은 범죄집단에 가입ㆍ활동하였다.’는 것이다.  이에 대하여 원심은, 이 사건 외부 사무실은 합동범 및 공동정범과 구별할 수 있을 정도로 조직을 구성하는 일정한 체계나 구조를 갖춘 범죄집단으로 보기 어렵다고 보아 무죄로 판단하였다.  (3) 원심이 인정한 사실과 원심이 적법하게 채택하여 조사한 증거에 따르면 다음과 같은 사실 등을 알 수 있다.   (가) 이 사건 외부 사무실에는 직원이 평균 20~30명 정도 있었고, 평균 5~6개의 팀이 있었다. 이 사건 외부 사무실은 회사 조직과 유사하게 대표, 팀장, 팀원(출동조, 전화상담원)으로 직책이나 역할이 분담되어 있었다. 상담원은 인터넷 허위 광고를 보고 전화를 건 손님들에게 거짓말로 이 사건 외부 사무실에 방문할 것을 유인하는 역할을, 출동조는 이 사건 외부 사무실을 방문한 손님들에게 허위 중고차량을 보여주면서 이른바 ‘뜯플’ 또는 ‘쌩플’의 수법으로 중고차량 매매계약을 유도하는 역할을, 팀장은 소속 직원을 채용하고, 손님 방문 시 출동조를 배정하며, 출동조로부터 계약 진행 상황을 보고받고, 출동조가 매매계약 유도를 성공하면 손님들과 정식 계약을 체결하는 역할을, 대표는 사무실과 집기, 중고자동차 매매계약에 필요한 자료와 할부금융, 광고 등을 준비해 이 사건 외부 사무실을 운영하면서 팀장을 채용한 뒤 팀장으로 하여금 팀을 꾸려 이 사건 사기 범행을 실행하도록 하고, 할부금융사로부터 할부중개수수료를 받으면 이를 팀별로 배분하는 역할을 수행하였다. 대표 또는 팀장은 팀장, 출동조, 전화상담원에게 고객을 유인하고 대응하는 법이나 기망하는 방법 등에 대해 교육하였다.  (나) 대표들은 팀장들이 이용할 할부사와 광고 사이트를 정해 팀장들에게 알려주고, 팀장들로부터 상사입금비와 광고비를 받았다. 또한 대표들은 손님들이 중고차량을 할부로 계약한 경우 할부금융사로부터 받는 할부중개수수료 중 일부를 팀장들에게 나누어 주었다. 팀장들은 대표들로부터 지급받은 위 할부중개수수료와 중고차량 매매에 따른 차익 중 출동조에게 20~30%를, 상담원에게 5~10%를 나눠주고, 그 나머지를 가져갔다.  (다) 대표들, 팀장들, 피고인을 비롯한 팀원들은 이 사건 외부 사무실 업무와 관련하여 ‘텔레그램’을 이용한 대화방을 개설하여 정보를 공유하거나 각종 보고 등을 하였다. 또한 대표들과 팀장들은 비정기적이긴 하나 회의를 하였고, 팀장들은 공유된 정보를 소속 출동조와 상담원에게 전파하였다.  (라) 이 사건 외부 사무실 직원들은 전체 회식이나 야유회를 가졌는데, 그에 들어가는 비용은 대표들이 모두 부담하였다. 대표인 공소외 1, 공소외 2, 공소외 3은 단속될 경우를 대비하여 이 사건 외부 사무실을 옮겼는데, 이 경우 이 사건 외부 사무실 직원 모두가 위 대표들이 마련한 새로운 사무실로 이전한 뒤 종전과 동일하게 근무하였다.  (마) 이 사건 외부 사무실에서 이루어진 중고자동차 매매계약은 모두 이른바 ‘뜯플’, ‘쌩플’ 등의 사기 수법이 동원된 것이고, 정상적인 판매행위는 이루어지지 않았다.  (4) 이러한 사실 등을 위에서 본 법리에 비추어 보면, 이 사건 외부 사무실은 특정 다수인이 사기 범행을 수행한다는 공동 목적으로 구성원들이 대표, 팀장, 출동조, 전화상담원 등 정해진 역할분담에 따라 행동함으로써 사기 범행을 반복적으로 실행하는 체계를 갖춘 결합체, 즉 형법 제114조의 ‘범죄를 목적으로 하는 집단’에 해당한다고 보는 것이 옳다.  그런데도 원심은 이 사건 외부 사무실이 형법 제114조의 범죄집단에 해당하지 않는다는 취지에서 예비적 공소사실을 무죄로 판단하였다. 이러한 판단에는 형법 제114조에서 정한 ‘범죄집단’에 관한 법리를 오해하여 판결에 영향을 미친 잘못이 있다.  2. 피고인(원심판결 중 제1심판결 2018고단4305 사건 부분, 2018고단7772 사건의 사기죄와 자동차관리법 위반죄 중 제3의 가.항 부분, 2019고단1369 사건 부분을 제외한 나머지 부분)  형사소송법 제383조 제4호에 따르면 사형, 무기 또는 10년 이상의 징역이나 금고가 선고된 사건에서만 양형부당을 이유로 상고할 수 있다. 따라서 피고인에 대하여 그보다 가벼운 형이 선고된 이 사건에서 형이 너무 무거워 부당하다는 주장은 적법한 상고이유가 아니다.  3. 파기의 범위  위에서 본 바와 같이 범죄집단 가입ㆍ활동에 관한 예비적 공소사실에 대한 무죄 부분은 파기를 면할 수 없고, 이에 따라 이와 동일체의 관계에 있는 주위적 공소사실에 관한 무죄 부분도 파기될 수밖에 없다. 그리고 이는 원심이 유죄로 인정한 제1심판결 2018고단4305 사건의 나머지 부분, 2018고단7772 사건의 사기죄와 자동차관리법 위반죄 중 제3의 가.항 부분, 2019고단1369 사건 부분과 형법 제37조 전단의 경합범 관계에 있어 하나의 형이 선고되어야 하므로, 결국 원심판결 중 제1심판결 2018고단4305 사건 부분, 2018고단7772 사건의 사기죄와 자동차관리법 위반죄 중 제3의 가.항 부분, 2019고단1369 사건 부분은 파기되어야 한다.  4. 결론  원심판결 중 제1심판결 2018고단4305 사건 부분, 2018고단7772 사건의 사기죄와 자동차관리법 위반죄 중 제3의 가.항 부분, 2019고단1369 사건 부분을 파기하고, 이 부분 사건을 다시 심리ㆍ판단하도록 원심법원에 환송하기로 하며, 피고인의 나머지 상고는 이유 없어 이를 기각하기로 하여, 대법관의 일치된 의견으로 주문과 같이 판결한다.
+대법관   이동원(재판장) 김재형(주심) 민유숙 노태악</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=3291196&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=8&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2022. 10. 27. 선고 2020도12563 판결[금융실명거래및비밀보장에관한법률위반방조]〈피고인이 성명불상자로부터 불법 환전 업무를 도와주면 대가를 지급하겠다는 제안을 받고 자신의 금융계좌번호를 알려주었는데, 성명불상자가 전기통신금융사기 편취금을 은닉하기 위하여 피고인의 금융계좌로 편취금을 송금받은 경우 피고인이 성명불상자의 탈법행위 목적 타인 실명 금융거래를 용이하게 하였다는 금융실명법위반죄의 방조범이 성립하는지가 문제된 사안〉[공2022하,2346]</t>
+  </si>
+  <si>
+    <t>【판시사항】  [1] 구 금융실명거래 및 비밀보장에 관한 법률 제3조 제3항, 제6조 제1항에서 불법·탈법적 목적에 의한 타인 실명의 금융거래를 처벌하는 취지 / 위 규정에서 말하는 ‘그 밖의 탈법행위’의 의미 및 이에 해당하는지 판단하는 기준
+  [2] 방조범의 성립에 필요한 고의의 내용 / 목적범인 구 금융실명거래 및 비밀보장에 관한 법률 제6조 제1항 위반죄의 방조범 성립에 필요한 고의의 내용
+【판결요지】  [1] 구 금융실명거래 및 비밀보장에 관한 법률(2020. 3. 24. 법률 제17113호로 개정되기 전의 것, 이하 ‘구 금융실명법’이라 한다)은 ‘실지명의(실지명의, 이하 ‘실명’이라 한다)에 의한 금융거래를 실시하고 그 비밀을 보장하여 금융거래의 정상화를 꾀함으로써 경제정의를 실현하고 국민경제의 건전한 발전을 도모함’을 목적으로 하는 것으로(제1조), 금융거래란 금융회사 등이 금융자산을 수입, 매매, 환매 등을 하는 행위를 말하며(제2조 제3호), 실명이란 주민등록표상의 명의, 사업자등록증상의 명의 등을 말한다고 규정하면서(제2조 제4호), 누구든지 구 특정 금융거래정보의 보고 및 이용 등에 관한 법률(2020. 3. 24. 법률 제17113호로 개정되기 전의 것) 제2조 제3호에 따른 불법재산의 은닉, 제4호에 따른 자금세탁행위 또는 제5호에 따른 공중협박자금조달행위 및 강제집행의 면탈, 그 밖에 탈법행위를 목적으로 타인의 실명으로 금융거래를 하여서는 아니 되고(제3조 제3항), 위와 같은 목적으로 타인의 실명으로 금융거래를 하는 행위를 처벌하도록 규정하고 있다(제6조 제1항).
+    위와 같은 구 금융실명법의 입법 목적과 그 내용을 종합해 보면, 구 금융실명법 제3조 제3항, 제6조 제1항이 불법·탈법적 목적에 의한 타인 실명의 금융거래를 처벌하는 것은 이러한 금융거래를 범죄수익의 은닉이나 비자금 조성, 조세포탈, 자금세탁 등 불법·탈법행위나 범죄의 수단으로 악용하는 것을 방지하는 데에 목적이 있다.
+    구 금융실명법 제3조 제3항, 제6조 제1항에서 말하는 ‘그 밖의 탈법행위’란, 단순히 우회적인 방법으로 금지규정의 제한을 피하려는 행위 전반을 의미하는 것이 아니라, 구 금융실명법 제3조 제3항, 제6조 제1항에 구체적으로 열거된 불법재산의 은닉, 자금세탁, 공중협박자금조달 및 강제집행의 면탈과 같이 형사처벌의 대상이 되는 행위에 준하는 정도에 이르러야 하고, 여기에 해당하는지 여부는 구 금융실명법 제3조 제3항, 제6조 제1항의 입법 목적 등을 충분히 고려하여 판단해야 한다.
+  [2] 형법상 방조행위는 정범이 범행을 한다는 정을 알면서 그 실행행위를 용이하게 하는 직접·간접의 행위를 말하므로, 방조범은 정범의 실행을 방조한다는 이른바 방조의 고의와 정범의 행위가 구성요건에 해당하는 행위인 점에 대한 정범의 고의가 있어야 하나, 방조범에서 정범의 고의는 정범에 의하여 실현되는 범죄의 구체적 내용을 인식할 것을 요하는 것은 아니고 미필적 인식 또는 예견으로 족하다.
+    구 금융실명거래 및 비밀보장에 관한 법률(2020. 3. 24. 법률 제17113호로 개정되기 전의 것) 제6조 제1항 위반죄는 이른바 초과주관적 위법요소로서 ‘탈법행위의 목적’을 범죄성립요건으로 하는 목적범이므로, 방조범에게도 정범이 위와 같은 탈법행위를 목적으로 타인 실명 금융거래를 한다는 점에 관한 고의가 있어야 하나, 그 목적의 구체적인 내용까지 인식할 것을 요하는 것은 아니다.
+【참조조문】 [1] 구 금융실명거래 및 비밀보장에 관한 법률(2020. 3. 24. 법률 제17113호로 개정되기 전의 것) 제1조, 제2조 제3호, 제4호, 제3조 제3항, 제6조 제1항, 구 특정 금융거래정보의 보고 및 이용 등에 관한 법률(2020. 3. 24. 법률 제17113호로 개정되기 전의 것) 제2조 제3호(현행 제2조 제4호 참조), 제4호(현행 제2조 제5호 참조), 제5호(현행 제2조 제6호 참조) [2] 형법 제32조, 구 금융실명거래 및 비밀보장에 관한 법률(2020. 3. 24. 법률 제17113호로 개정되기 전의 것) 제3조 제3항, 제6조 제1항
+【참조판례】 [1] 대법원 2017. 12. 22. 선고 2017도12346 판결(공2018상, 379)[2] 대법원 2005. 4. 29. 선고 2003도6056 판결(공2005상, 887)대법원 2022. 6. 30. 선고 2020도7866 판결(공2022하, 1542)
+【전    문】【피 고 인】
+피고인
+【상 고 인】
+검사
+【원심판결】
+ 청주지법 2020. 8. 21. 선고 2019노1608 판결
+【주    문】  원심판결을 파기하고 사건을 청주지방법원에 환송한다.
+【이    유】  상고이유를 판단한다.  1. 공소사실의 요지  피고인은 2019. 1. 22. 무렵 성명불상자로부터 보이스톡으로 “마카오에 본사가 있고, 한국에 체인점이 있는데 한국에 있는 고객들을 상대로 환전해 주는 업무를 한다. 10:00부터 16:00까지 일하고, 월 400~600만 원을 지급하겠다. 고객이 입금한 돈 940만 원을 인출하여 우리가 보내는 환전소 직원에게 건네줘라.”라는 취지의 말을 듣고 이를 승낙하여 피고인 명의의 계좌를 성명불상자의 탈법행위에 제공하기로 마음먹었다. 피고인은 2019. 1. 22. 무렵 보이스톡으로 성명불상자에게 피고인 명의 신협 계좌를 알려주고, 성명불상자는 2019. 1. 29. 무렵 전화금융사기 범행을 통해 공소외인으로부터 940만 원을 피고인 명의 신협 계좌로 송금받고, 피고인은 이를 인출하여 청주시에 있는 우편취급국에서 수수료 15만 원을 제한 나머지 925만 원을 성명불상자에게 건네주었다. 이로써 피고인은 성명불상자가 탈법행위를 목적으로 타인인 피고인의 실명으로 금융거래를 하는 것을 용이하게 하여 이를 방조하였다.  2. 원심의 판단  원심은, ‘고객이 입금한 돈을 인출하여 환전소 직원에게 전달하여 주는 업무’가 구체적으로 어떤 법률에 의한 규제를 회피하기 위한 탈법행위인지 특정되지 않았고, 검사가 제출한 증거만으로는 성명불상자가 ‘고객이 입금한 돈’을 인출하여 달라고 요구하였다는 점을 인정하기에 부족하며, 피고인에게 정범인 성명불상자가 탈법행위를 목적으로 피고인의 실명으로 금융거래를 한다는 점에 관한 고의가 있었음이 인정되지 않는다는 이유로 공소사실을 무죄로 판단한 제1심판결을 그대로 유지하면서, 검사의 주장대로 피고인이 인식한 행위가 외국환거래법 위반행위라고 하더라도 정범인 성명불상자는 외국환거래법 위반행위를 한 것이 아니라 전화금융사기 범행을 하였을 뿐이므로 성명불상자가 어떤 탈법행위를 실행하였는지 알기 어렵다는 이유를 덧붙여 판단하였다.  3. 대법원의 판단  그러나 원심의 위와 같은 판단은 그대로 받아들이기 어렵다.  가. 관련 법리  1) 구 「금융실명거래 및 비밀보장에 관한 법률」(2020. 3. 24. 법률 제17113호로 개정되기 전의 것, 이하 ‘구 금융실명법’이라 한다)은 ‘실지명의(실지명의, 이하 ‘실명’이라 한다)에 의한 금융거래를 실시하고 그 비밀을 보장하여 금융거래의 정상화를 꾀함으로써 경제정의를 실현하고 국민경제의 건전한 발전을 도모함’을 목적으로 하는 것으로(제1조), 금융거래란 금융회사 등이 금융자산을 수입, 매매, 환매 등을 하는 행위를 말하며(제2조 제3호), 실명이란 주민등록표상의 명의, 사업자등록증상의 명의 등을 말한다고 규정하면서(제2조 제4호), 누구든지 구 「특정 금융거래정보의 보고 및 이용 등에 관한 법률」(2020. 3. 24. 법률 제17113호로 개정되기 전의 것) 제2조 제3호에 따른 불법재산의 은닉, 제4호에 따른 자금세탁행위 또는 제5호에 따른 공중협박자금조달행위 및 강제집행의 면탈, 그 밖에 탈법행위를 목적으로 타인의 실명으로 금융거래를 하여서는 아니 되고(제3조 제3항), 위와 같은 목적으로 타인의 실명으로 금융거래를 하는 행위를 처벌하도록 규정하고 있다(제6조 제1항, 이하 제3조 제3항과 제6조 제1항을 모두 합하여 ‘이 사건 규정’이라 한다).  위와 같은 구 금융실명법의 입법 목적과 그 내용을 종합해 보면, 이 사건 규정이 불법·탈법적 목적에 의한 타인 실명의 금융거래를 처벌하는 것은 이러한 금융거래를 범죄수익의 은닉이나 비자금 조성, 조세포탈, 자금세탁 등 불법·탈법행위나 범죄의 수단으로 악용하는 것을 방지하는 데에 목적이 있다(대법원 2017. 12. 22. 선고 2017도12346 판결 참조).  이 사건 규정에서 말하는 ‘그 밖의 탈법행위’라 함은, 단순히 우회적인 방법으로 금지규정의 제한을 피하려는 행위 전반을 의미하는 것이 아니라, 이 사건 규정에 구체적으로 열거된 불법재산의 은닉, 자금세탁, 공중협박자금조달 및 강제집행의 면탈과 같이 형사처벌의 대상이 되는 행위에 준하는 정도에 이르러야 하고, 여기에 해당하는지 여부는 앞서 본 이 사건 규정의 입법 목적 등을 충분히 고려하여 판단해야 한다.  2) 형법상 방조행위는 정범이 범행을 한다는 정을 알면서 그 실행행위를 용이하게 하는 직접·간접의 행위를 말하므로, 방조범은 정범의 실행을 방조한다는 이른바 방조의 고의와 정범의 행위가 구성요건에 해당하는 행위인 점에 대한 정범의 고의가 있어야 하나, 방조범에서 정범의 고의는 정범에 의하여 실현되는 범죄의 구체적 내용을 인식할 것을 요하는 것은 아니고 미필적 인식 또는 예견으로 족하다(대법원 2005. 4. 29. 선고 2003도6056 판결 등 참조).  구 금융실명법 제6조 제1항 위반죄는 이른바 초과주관적 위법요소로서 ‘탈법행위의 목적’을 범죄성립요건으로 하는 목적범이므로, 방조범에게도 정범이 위와 같은 탈법행위를 목적으로 타인 실명 금융거래를 한다는 점에 관한 고의가 있어야 하나, 그 목적의 구체적인 내용까지 인식할 것을 요하는 것은 아니다.  나. 원심판결 이유와 적법하게 채택된 증거에 따르면 다음 사실을 인정할 수 있다.  1) 피고인은 2019. 1. 22. 무렵 ‘마카오 (업체명 생략)’에서 직원을 구한다는 취지의 광고 문자를 받고 전화를 하였고, 성명불상자로부터 “마카오에 본사가 있고 한국에 체인점이 있는데, 한국에 있는 고객들을 상대로 환전해 주는 업무를 한다. 고객이 입금한 돈을 인출하여 환전소 직원에게 전달해 주면 된다. 월 400~600만 원을 지급하겠다.”라는 취지의 말을 듣고 피고인 명의 신협 계좌의 계좌번호를 알려주었다.  2) 성명불상자는 2019. 1. 29. 무렵 전기통신금융사기 범행을 하여 공소외인으로부터 940만 원을 편취하였는데 그 편취금을 피고인 명의 신협 계좌로 송금받았다.  3) 피고인은 2019. 1. 29. 성명불상자의 지시에 따라 자신의 신협 계좌에서 925만 원을 인출하여 성명불상자가 보낸 사람에게 건네주었다.  4) 피고인은 환전하는 방식에 대해서 이상한 생각이 들지 않았냐는 경찰의 질문에 “은행을 이용하면 수수료가 비싸서 개인 환전소를 이용한다고 생각했다.”라고 진술하였다.  다. 위 사실관계를 앞서 본 법리에 비추어 살펴본다.  전기통신금융사기의 범인이 사기 범행을 통한 편취금을 자신이 아닌 타인 명의 금융계좌로 송금받는 이유는 범죄수익을 은닉하고 범인의 신원을 은폐하기 위한 것으로, 타인 실명의 금융거래를 범죄의 수단으로 악용하는 전형적인 경우이므로 이 사건 규정이 말하는 ‘탈법행위’를 목적으로 한 타인 실명 금융거래에 해당한다.  한편 외국환거래법은 외국환업무에 해당하는 환전 영업을 하기 위해서는 일정한 요건을 갖추어 등록을 하도록 하고(제8조), 등록을 하지 않고 외국환업무를 한 자를 처벌하도록 규정하고 있는바(제27조의2 제1항 제1호), 무등록 환전 영업은 그 자체로 범죄행위일 뿐 아니라 불법적인 자금의 세탁, 조세포탈, 횡령 등 다른 범죄의 수단이 되기도 하는 행위이므로, 무등록 환전 영업을 위하여 타인의 금융계좌를 이용하여 금융거래를 하는 것은 이 사건 규정이 말하는 ‘탈법행위’를 목적으로 한 타인 실명 금융거래에 해당한다.  피고인은 정범인 성명불상자가 이 사건 규정에서 말하는 ‘탈법행위’에 해당하는 무등록 환전 영업을 하기 위하여 타인 명의로 금융거래를 하려고 한다고 인식하였음에도 이러한 범행을 돕기 위하여 자신 명의의 금융계좌 정보를 제공하였고, 정범인 성명불상자는 이를 이용하여 전기통신금융사기 범행을 통한 편취금을 송금받아 탈법행위를 목적으로 타인 실명의 금융거래를 하였다. 그렇다면 피고인에게는 구 금융실명법 제6조 제1항 위반죄의 방조범이 성립하고, 피고인이 정범인 성명불상자가 목적으로 삼은 탈법행위의 구체적인 내용이 어떤 것인지를 정확히 인식하지 못하였다고 하더라도 범죄 성립에는 영향을 미치지 않는다.  라. 그런데도 원심은 그 판시와 같은 이유만으로 공소사실을 무죄로 판단한 제1심판결을 그대로 유지하였는바, 이러한 원심판단에는 구 금융실명법 제3조 제3항에서 말하는 ‘탈법행위’의 의미와 방조범의 ‘정범의 고의’에 관한 법리를 오해하여 판결에 영향을 미친 위법이 있다.  4. 결론  그러므로 원심판결을 파기하고 사건을 다시 심리·판단하도록 원심법원에 환송하기로 하여 관여 대법관의 일치된 의견으로 주문과 같이 판결한다.
+대법관   박정화(재판장) 김선수 노태악(주심) 오경미</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2060096&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=9&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2008. 7. 10. 선고 2008도2245 판결[사기방조·전자금융거래법위반·점유이탈물횡령][공2008하,1206]</t>
+  </si>
+  <si>
+    <t>【판시사항】
+        [1] 
+          구 형사소송법 제217조 제1항에 따른 긴급체포시 적법하게 압수할 수 있는 대상물인지 여부의 판단 기준
+        [2] 경찰관이 이른바 전화사기죄 범행의 혐의자를 긴급체포하면서 그가 보관하고 있던 다른 사람의 주민등록증, 운전면허증 등을 압수한 사안에서, 이는 
+          구 형사소송법 제217조 제1항에서 규정한 해당 범죄사실의 수사에 필요한 범위 내의 압수로서 적법하므로, 이를 위 혐의자의 점유이탈물횡령죄 범행에 대한 증거로 인정한 사례
+    【판결요지】
+        [1] 
+          구 형사소송법(2007. 6. 1. 법률 제8496호로 개정되기 전의 것) 제217조 제1항 등에 의하면 검사 또는 사법경찰관은 피의자를 긴급체포한 경우 체포한 때부터 48시간 이내에 한하여 영장 없이, 긴급체포의 사유가 된 범죄사실 수사에 필요한 최소한의 범위 내에서 당해 범죄사실과 관련된 증거물 또는 몰수할 것으로 판단되는 피의자의 소유, 소지 또는 보관하는 물건을 압수할 수 있다. 이때, 어떤 물건이 긴급체포의 사유가 된 범죄사실 수사에 필요한 최소한의 범위 내의 것으로서 압수의 대상이 되는 것인지는 당해 범죄사실의 구체적인 내용과 성질, 압수하고자 하는 물건의 형상·성질, 당해 범죄사실과의 관련 정도와 증거가치, 인멸의 우려는 물론 압수로 인하여 발생하는 불이익의 정도 등 압수 당시의 여러 사정을 종합적으로 고려하여 객관적으로 판단하여야 한다.
+        [2] 경찰관이 이른바 전화사기죄 범행의 혐의자를 긴급체포하면서 그가 보관하고 있던 다른 사람의 주민등록증, 운전면허증 등을 압수한 사안에서, 이는 
+          구 형사소송법(2007. 6. 1. 법률 제8496호로 개정되기 전의 것) 제217조 제1항에서 규정한 해당 범죄사실의 수사에 필요한 범위 내의 압수로서 적법하므로, 이를 위 혐의자의 점유이탈물횡령죄 범행에 대한 증거로 인정한 사례.
+    【참조조문】[1]         구 형사소송법(2007. 6. 1. 법률 제8496호로 개정되기 전의 것) 제217조 제1항 [2]         구 형사소송법(2007. 6. 1. 법률 제8496호로 개정되기 전의 것) 제217조 제1항,         형법 제360조      
+  【전    문】
+      【피 고 인】
+          피고인
+      【상 고 인】
+        피고인 및 검사
+      【변 호 인】
+        변호사 심한준
+      【원심판결】
+        서울중앙지법 2008. 2. 14. 선고 2007노4433 판결
+    【주    문】  상고를 모두 기각한다.
+    【이    유】  상고이유를 본다.  1. 피고인의 상고이유에 관하여
+          구 형사소송법(2007. 6. 1. 법률 제8496호로 개정되기 전의 것, 이하 같다) 제217조 제1항 등에 의하면 검사 또는 사법경찰관은 피의자를 긴급체포한 경우 체포한 때부터 48시간 이내에 한하여 영장 없이, 긴급체포의 사유가 된 범죄사실 수사에 필요한 최소한의 범위 내에서 당해 범죄사실과 관련된 증거물 또는 몰수할 것으로 판단되는 피의자의 소유, 소지 또는 보관하는 물건을 압수할 수 있다. 이때, 어떤 물건이 긴급체포의 사유가 된 범죄사실 수사에 필요한 최소한의 범위 내의 것으로서 압수의 대상이 되는 것인지는 당해 범죄사실의 구체적인 내용과 성질, 압수하고자 하는 물건의 형상, 성질, 당해 범죄사실과의 관련 정도와 증거가치, 인멸의 우려는 물론 압수로 인하여 발생하는 불이익의 정도 등 압수 당시의 여러 사정을 종합적으로 고려하여 객관적으로 판단하여야 한다.
+        위 법리와 기록에 비추어 살펴보면, 이 사건 증 제1호 내지 제4호는 피고인이 보관하던 다른 사람의 주민등록증, 운전면허증 및 그것이 들어있던 지갑으로서, 피고인이 이른바 전화사기죄의 범행을 저질렀다는 범죄사실 등으로 긴급체포된 직후 압수되었는바, 그 압수 당시 위 범죄사실의 수사에 필요한 범위 내의 것으로서 전화사기범행과 관련된다고 의심할 만한 상당한 이유가 있었다고 보이므로, 적법하게 압수되었다고 할 것이다.  같은 취지에서 원심이, 증 제1호 내지 제4호가 위법수집증거에 해당한다는 피고인의 주장을 배척하고, 이를 증거로 삼아 점유이탈물횡령죄의 공소사실을 유죄로 인정한 제1심판결을 유지한 조치는 정당하여, 거기에 상고이유에서 주장하는 바와 같은 
+        구 형사소송법 제217조에 따라 영장 없이 압수할 수 있는 범위에 관한 법리오해 등의 위법이 없다.
+        2. 검사의 상고이유에 관하여  원심판결 이유를 기록에 비추어 살펴보면, 원심이 검사가 제출한 증거만으로는 피고인에게 
+        공소외인의 사기범행에 대한 방조의 고의 및 정범의 고의가 있었다고 인정하기에 부족하다는 이유로 이 사건 공소사실 중 사기방조의 점에 대하여 무죄를 선고한 제1심판결을 유지한 조치는 정당한 것으로 수긍되고, 거기에 사기방조죄의 성립에 관한 법리오해, 채증법칙 위반 등의 위법이 없다.
+        3. 결 론  그러므로 상고를 모두 기각하기로 하여 관여 대법관의 일치된 의견으로 주문과 같이 판결한다.
+    대법관   고현철(재판장) 김지형 전수안(주심) 차한성</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2062852&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=10&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2012. 8. 30. 선고 2012도6027 판결[사기·범인도피교사·범인도피(피고인2에대하여인정된죄명:범인도피방조)][공2012하,1641]</t>
+  </si>
+  <si>
+    <t>【판시사항】
+        [1] 공범자의 범인도피행위 도중에 기왕의 범인도피상태를 이용하여 스스로 범인도피행위를 계속한 경우 범인도피죄의 공동정범이 성립하는지 여부(적극) 및 이때 공범자의 범행을 방조한 종범의 경우에도 동일한 법리가 적용되는지 여부(적극)
+        [2] 형사변호인이 의뢰인의 요청에 따른 변론행위라는 명목으로 수사기관이나 법원에 대하여 적극적으로 허위진술을 하거나 피고인 또는 피의자로 하여금 허위진술을 하도록 하는 것이 허용되는지 여부(소극)
+        [3] 갑이 수사기관 및 법원에 출석하여 을 등의 사기 범행을 자신이 저질렀다는 취지로 허위자백하였는데, 그 후 갑의 사기 피고사건 변호인으로 선임된 피고인이 갑과 공모하여 진범 을 등을 은폐하는 허위자백을 유지하게 함으로써 범인을 도피하게 하였다는 내용으로 기소된 사안에서, 피고인에 대하여 범인도피방조죄를 인정한 원심판단을 정당하다고 한 사례
+    【판결요지】
+        [1] 범인도피죄는 범인을 도피하게 함으로써 기수에 이르지만, 범인도피행위가 계속되는 동안에는 범죄행위도 계속되고 행위가 끝날 때 비로소 범죄행위가 종료된다. 따라서 공범자의 범인도피행위 도중에 그 범행을 인식하면서 그와 공동의 범의를 가지고 기왕의 범인도피상태를 이용하여 스스로 범인도피행위를 계속한 경우에는 범인도피죄의 공동정범이 성립하고, 이는 공범자의 범행을 방조한 종범의 경우도 마찬가지이다.
+        [2] 변호사는 공공성을 지닌 법률 전문직으로서 독립하여 자유롭게 직무를 수행하여야 하고(
+          변호사법 제2조), 직무를 수행하면서 진실을 은폐하거나 거짓 진술을 하여서는 아니 된다(
+          같은 법 제24조 제2항). 따라서 형사변호인의 기본적인 임무가 피고인 또는 피의자를 보호하고 그의 이익을 대변하는 것이라고 하더라도, 그러한 이익은 법적으로 보호받을 가치가 있는 정당한 이익으로 제한되고, 변호인이 의뢰인의 요청에 따른 변론행위라는 명목으로 수사기관이나 법원에 대하여 적극적으로 허위의 진술을 하거나 피고인 또는 피의자로 하여금 허위진술을 하도록 하는 것은 허용되지 않는다.
+        [3] 갑이 수사기관 및 법원에 출석하여 을 등의 사기 범행을 자신이 저질렀다는 취지로 허위자백하였는데, 그 후 갑의 사기 피고사건 변호인으로 선임된 피고인이 갑과 공모하여 진범 을 등을 은폐하는 허위자백을 유지하게 함으로써 범인을 도피하게 하였다는 내용으로 기소된 사안에서, 피고인이 변호인으로서 단순히 갑의 이익을 위한 적절한 변론과 그에 필요한 활동을 하는 데 그치지 아니하고, 갑과 을 사이에 부정한 거래가 진행 중이며 갑 피고사건의 수임과 변론이 거래의 향배와 불가결한 관련이 있을 것임을 분명히 인식하고도 을에게서 갑 피고사건을 수임하고, 그들의 합의가 성사되도록 도왔으며, 스스로 합의금의 일부를 예치하는 방안까지 용인하고 합의서를 작성하는 등으로 갑과 을의 거래관계에 깊숙이 관여한 행위를 정당한 변론권의 범위 내에 속한다고 평가할 수 없고, 나아가 변호인의 비밀유지의무는 변호인이 업무상 알게 된 비밀을 다른 곳에 누설하지 않을 소극적 의무를 말하는 것일 뿐 진범을 은폐하는 허위자백을 적극적으로 유지하게 한 행위가 변호인의 비밀유지의무에 의하여 정당화될 수 없다고 하면서, 한편으로 피고인의 행위는 정범인 갑에게 결의를 강화하게 한 방조행위로 평가될 수 있다는 이유로 범인도피방조죄를 인정한 원심판단을 정당하다고 한 사례.
+    【참조조문】[1]         형법 제30조,         제32조,         제151조 [2]         변호사법 제2조,         제24조 제2항 [3]         형법 제32조,         제151조 제1항,         변호사법 제2조,         제24조 제2항      
+    【참조판례】[1]         대법원 1995. 9. 5. 선고 95도577 판결(공1995하, 3457)      
+  【전    문】
+      【피 고 인】
+          피고인 1 외 1인
+      【상 고 인】
+        피고인들 및 검사
+      【변 호 인】
+        변호사 박정현 외 1인
+      【원심판결】
+        서울중앙지법 2012. 5. 4. 선고 2012노504 판결
+    【주    문】  상고를 모두 기각한다.
+    【이    유】  상고이유를 판단한다.  1. 
+        피고인 1의 상고이유에 대하여
+        기록에 의하면, 
+        피고인 1은 제1심판결에 대하여 항소하면서 그 항소이유로 양형부당만을 주장하였음을 알 수 있다. 이러한 경우 원심판결에 법리오해 등의 잘못이 있다는 주장은 적법한 상고이유가 되지 못한다.
+        그리고 
+        형사소송법 제383조 제4호에 의하면 양형부당을 사유로 한 상고는 사형, 무기 또는 10년 이상의 징역이나 금고가 선고된 사건에서만 허용되므로, 
+        피고인 1에 대하여 그보다 가벼운 형이 선고된 이 사건에서 형의 양정이 부당하다는 주장 또한 적법한 상고이유가 될 수 없다.
+        2. 
+        피고인 2의 상고이유에 대하여
+        가. 
+        범인도피죄는 범인을 도피하게 함으로써 기수에 이르지만, 범인도피행위가 계속되는 동안에는 범죄행위도 계속되고 행위가 끝날 때 비로소 범죄행위가 종료된다. 따라서 공범자의 범인도피행위의 도중에 그 범행을 인식하면서 그와 공동의 범의를 가지고 기왕의 범인도피상태를 이용하여 스스로 범인도피행위를 계속한 경우에는 범인도피죄의 공동정범이 성립하고(
+        대법원 1995. 9. 5. 선고 95도577 판결 참조), 
+        이는 그 공범자의 범행을 방조한 종범의 경우도 마찬가지이다.
+        기록에 의하면, 
+        원심 공동피고인 2에 대한 이 사건 공소사실의 요지는 “
+        원심 공동피고인 2가 
+        피고인 1, 
+        제1심 공동피고인 2의 범인도피교사에 따라 2010. 8. 31. 경찰 및 2011. 2. 17. 검찰에서 조사를 받고, 2011. 3. 18. 및 2011. 4. 8. 법원에서 제1심 재판을 받음에 있어 이 사건 휴대전화 문자발송 사기 범행을 자신이 저질렀다는 취지로 허위자백하였고, 이로써 
+        피고인 1 및 
+        제1심 공동피고인 2를 도피하게 하였다.”는 것임을 알 수 있으므로, 
+        원심 공동피고인 2의 위 범행은 2011. 4. 8. 이전에 이미 기수에 이르렀다고 볼 수 있다. 그러나 제1심이 적법하게 채택한 증거들에 의하면, 
+        원심 공동피고인 2는 2011. 5. 23. 진실을 밝히는 내용의 항소이유서를 항소심 법원에 제출하기는 하였으나, 이후 2011. 6. 14. 열린 항소심 공판기일에서는 여전히 위 허위자백을 유지하는 태도를 취하였고, 2011. 6. 28. 오후 검찰에서 조사를 받으면서 비로소 
+        피고인 1 및 
+        제1심 공동피고인 2가 진범임을 밝혔음을 알 수 있으므로, 
+        원심 공동피고인 2의 범행이 종료된 시점은 2011. 6. 28.이라고 할 것이다.
+        따라서 원심이 이러한 전제하에, 
+        피고인 2가 2011. 5. 2.경부터 2011. 6. 28. 오전 경까지 그 판시와 같은 행위를 통해 
+        원심 공동피고인 2의 범인도피행위를 방조한 것으로 볼 수 있다고 판단한 것은, 위와 같은 법리에 비추어 정당한 것으로 수긍할 수 있고, 거기에 상고이유의 주장과 같은 범인도피죄의 종범에 관한 법리 등을 오해한 위법이 없다.
+        나. 
+        변호사는 공공성을 지닌 법률 전문직으로서 독립하여 자유롭게 그 직무를 수행하여야 하고(
+          변호사법 제2조), 그 직무를 수행함에 있어 진실을 은폐하거나 거짓 진술을 하여서는 아니 된다(
+          같은 법 제24조 제2항). 따라서 형사변호인의 기본적인 임무가 피고인 또는 피의자를 보호하고 그의 이익을 대변하는 것이라고 하더라도, 그러한 이익은 법적으로 보호받을 가치가 있는 정당한 이익으로 제한되고, 변호인이 의뢰인의 요청에 따른 변론행위라는 명목으로 수사기관이나 법원에 대하여 적극적으로 허위의 진술을 하거나 피고인 또는 피의자로 하여금 허위진술을 하도록 하는 것은 허용되지 않는다
+        .
+        원심은 그 채택 증거를 종합하여 판시와 같은 사실을 인정한 뒤, 
+        피고인 2는 변호인으로서 단순히 
+        원심 공동피고인 2의 이익을 위한 적절한 변론과 그에 필요한 활동을 하는 데 그치지 아니하고, 
+        원심 공동피고인 2와 
+        피고인 1 사이에 부정한 거래가 진행 중이며, 
+        원심 공동피고인 2 사건의 수임과 변론이 그 거래의 향배와 불가결한 관련이 있을 것임을 분명히 인식하고도 
+        피고인 1로부터 
+        원심 공동피고인 2 사건을 수임하고, 그들 사이의 합의가 성사되도록 도왔으며, 스스로 합의금의 일부를 예치하는 방안까지 용인하고 합의서를 작성하는 등으로 
+        피고인 1과 
+        원심 공동피고인 2 사이의 거래관계에 깊숙이 관여하였으므로, 이러한 행위를 정당한 변론권의 범위 내에 속한다고 평가할 수는 없다고 판단하였다. 그리고 나아가 변호인의 비밀유지의무는 변호인이 업무상 알게 된 비밀을 다른 곳에 누설하지 않을 소극적 의무를 말하는 것일 뿐, 이 사건과 같이 진범을 은폐하는 허위자백을 적극적으로 유지하게 한 행위가 변호인의 비밀유지의무에 의하여 정당화될 수는 없다고 판단하였다.
+        앞서 본 법리와 기록에 비추어 살펴보면, 원심의 위와 같은 판단은 모두 정당한 것으로 수긍할 수 있고, 거기에 상고이유의 주장과 같은 변호사의 비밀유지의무 및 변론권에 관한 법리오해 등의 위법은 없다.  다. 그 밖에 
+        피고인 2가 주장하는 나머지 상고이유 주장의 요지는 결국 사실심인 원심의 전권에 속하는 증거의 취사선택과 사실의 인정을 탓하는 취지에 불과하므로 적법한 상고이유가 되지 못한다.
+        3. 검사의 상고이유에 대하여
+        형법 제30조의 공동정범이 성립하기 위하여는 주관적 요건인 공동가공의 의사와 객관적 요건으로서 그 공동의사에 기한 기능적 행위지배를 통하여 범죄를 실행하였을 것이 필요하고, 여기서 공동가공의 의사란 타인의 범행을 인식하면서도 이를 제지함이 없이 용인하는 것만으로는 부족하고 공동의 의사로 특정한 범죄행위를 하기 위하여 일체가 되어 서로 다른 사람의 행위를 이용하여 자기의 의사를 실행에 옮기는 것을 내용으로 하는 것이어야 한다(
+        대법원 2004. 6. 24. 선고 2002도995 판결 등 참조).
+        원심판결 이유에 의하면 원심은, 
+        원심 공동피고인 2가 이미 
+        피고인 2가 개입하기 전부터도 
+        피고인 1로부터 1억 원을 받고 허위자백을 유지하기로 마음먹고 있었던 점, 
+        피고인 2는 
+        원심 공동피고인 2와 
+        피고인 1 사이에서 양쪽의 의사를 전달하는 데 그쳤을 뿐, 그 구체적인 합의안의 결정에 직접 관여하지는 않은 점 등에 비추어, 
+        피고인 2의 행위는 정범인 
+        원심 공동피고인 2에게 결의를 강화하게 한 방조행위로 평가할 수 있을 뿐, 공동가공의 의사나 기능적 행위지배가 있다고 보기는 어렵다고 판단하였다.
+        원심이 든 위와 같은 사정들에 기록에 의하여 드러난 아래 사정들, 즉 비록 
+        피고인 2가 
+        피고인 1과 
+        원심 공동피고인 2 사이에 위와 같은 부정한 거래가 성사되는 데 중요한 역할을 담당하기는 하였으나, 
+        원심 공동피고인 2로 하여금 허위자백을 유지하도록 적극적으로 종용하지는 않은 것으로 보이는 점, 
+        피고인 1이나 
+        원심 공동피고인 2는 언제라도 
+        피고인 2를 해임하는 등의 방법으로 
+        피고인 2를 사건에서 배제시킬 수 있었고 다른 방법을 통하여 연락을 취하는 것도 가능하였던 것으로 보이는 점 등을 더하여 보면, 
+        원심 공동피고인 2가 
+        피고인 1과 위와 같은 합의를 하고 허위자백을 유지하기로 한 사태의 핵심적 경과를 
+        피고인 2가 계획적으로 조종하거나 저지·촉진하는 등으로 지배하고 있었다고 보기는 어렵다고 할 것이다.
+        따라서 원심이 같은 취지에서, 
+        피고인 2의 판시 행위가 범인도피죄의 공동정범에 해당한다고 볼 수 없다고 판단한 것은 정당하고, 거기에 상고이유의 주장과 같이 공동정범에 관한 법리 등을 오해한 위법은 없다.
+        4. 결론  이에 상고를 모두 기각하기로 하여 관여 대법관의 일치된 의견으로 주문과 같이 판결한다.
+    대법관   김창석(재판장) 양창수 박병대(주심) 고영한</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2065593&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=11&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2007. 6. 14. 선고 2004도5561 판결[직권남용권리행사방해·공무상비밀누설]〈검찰총장의공무상비밀누설·직권남용사건〉[집55(1)형,717;공2007.7.15.(278),1108]</t>
+  </si>
+  <si>
+    <t>【판시사항】
+        [1] 공무상비밀누설죄에 있어서 ‘법령에 의한 직무상 비밀’의 의미와 보호법익
+        [2] 특정 사건에 대하여 수사를 진행하고 있는 상태에서 수사기관의 자료 확보 내역, 사안의 죄책 여하, 신병처리 의견 등의 정보가 수사기관 내부의 비밀에 해당하는지 여부(적극)  
+        [3] 검찰의 고위 간부가 특정 사건에 대한 수사가 계속 진행중인 상태에서 해당 사안에 관한 수사책임자의 잠정적인 판단 등 수사팀의 내부 상황을 확인한 뒤 그 내용을 수사 대상자 측에 전달한 행위가 
+          형법 제127조에 정한 공무상 비밀누설에 해당한다고 한 사례
+        [4] 검찰의 고위 간부가 내사 담당 검사로 하여금 내사를 중도에서 그만두고 종결처리토록 한 행위가 직권남용권리행사방해죄에 해당한다고 한 사례  
+        [5] 
+          형사소송법 제254조 제4항의 규정 취지 및 공모에 관한 공소사실의 특정 정도    
+        [6] 
+          형사소송법 제314조 단서에 규정된 “진술 또는 작성이 특히 신빙할 수 있는 상태하에서 행하여진 때”의 의미   
+    【판결요지】
+        [1] 
+          형법 제127조는 공무원 또는 공무원이었던 자가 법령에 의한 직무상 비밀을 누설하는 것을 구성요건으로 하고 있는바, 여기서 법령에 의한 직무상 비밀이란 반드시 법령에 의하여 비밀로 규정되었거나 비밀로 분류 명시된 사항에 한하지 아니하고, 정치, 군사, 외교, 경제, 사회적 필요에 따라 비밀로 된 사항은 물론 정부나 공무소 또는 국민이 객관적, 일반적인 입장에서 외부에 알려지지 않는 것에 상당한 이익이 있는 사항도 포함하나, 실질적으로 그것을 비밀로서 보호할 가치가 있다고 인정할 수 있는 것이어야 하고, 한편, 공무상비밀누설죄는 기밀 그 자체를 보호하는 것이 아니라 공무원의 비밀엄수의무의 침해에 의하여 위험하게 되는 이익, 즉 비밀의 누설에 의하여 위협받는 국가의 기능을 보호하기 위한 것이다.
+        [2] 검찰 등 수사기관이 특정 사건에 대하여 수사를 진행하고 있는 상태에서, 수사기관이 현재 어떤 자료를 확보하였고 해당 사안이나 피의자의 죄책, 신병처리에 대하여 수사책임자가 어떤 의견을 가지고 있는지 등의 정보는, 그것이 수사의 대상이 될 가능성이 있는 자 등 수사기관 외부로 누설될 경우 피의자 등이 아직까지 수사기관에서 확보하지 못한 자료를 인멸하거나, 수사기관에서 파악하고 있는 내용에 맞추어 증거를 조작하거나, 허위의 진술을 준비하는 등의 방법으로 수사기관의 범죄수사 기능에 장애를 초래할 위험이 있는 점에 비추어 보면, 해당 사건에 대한 종국적인 결정을 하기 전까지는 외부에 누설되어서는 안 될 수사기관 내부의 비밀에 해당한다.
+        [3] 검찰의 고위 간부가 특정 사건에 대한 수사가 계속 진행중인 상태에서 해당 사안에 관한 수사책임자의 잠정적인 판단 등 수사팀의 내부 상황을 확인한 뒤 그 내용을 수사 대상자 측에 전달한 행위가 
+          형법 제127조에 정한 공무상 비밀누설에 해당한다고 한 사례.  
+        [4] 검찰의 고위 간부가 내사 담당 검사로 하여금 내사를 중도에서 그만두고 종결처리토록 한 행위가 직권남용권리행사방해죄에 해당한다고 한 사례.
+        [5] 
+          형사소송법 제254조 제4항에서 범죄의 일시·장소와 방법을 명시하여 공소사실을 특정하도록 한 취지는 법원에 대하여 심판의 대상을 한정하고 피고인에게 방어의 범위를 특정하여 그 방어권 행사를 용이하게 하기 위한 데 있으므로, 공소 제기된 범죄의 성격에 비추어 그 공소의 원인이 된 사실을 다른 사실과 구별할 수 있을 정도로 그 일시·장소·방법·목적 등을 적시하여 특정하면 족하고, 공모의 시간·장소·내용 등을 구체적으로 명시하지 아니하였다거나 그 일부가 다소 불명확하더라도 그와 함께 적시된 다른 사항들에 의하여 그 공소사실을 특정할 수 있고, 그리하여 피고인의 방어권 행사에 지장이 없다면 그와 같은 이유만으로 공소사실이 특정되지 아니하였다고 할 수 없다.   
+        [6] 
+          형사소송법 제314조 단서에 규정된 진술 또는 작성이 특히 신빙할 수 있는 상태하에서 행하여진 때라 함은 그 진술내용이나 조서 또는 서류의 작성에 허위개입의 여지가 거의 없고 그 진술내용의 신용성이나 임의성을 담보할 구체적이고 외부적인 정황이 있는 경우를 가리킨다.  
+    【참조조문】[1]         형법 제127조 [2]         형법 제127조 [3]         형법 제127조 [4]         형법 제123조 [5]         형사소송법 제254조 제4항 [6]         형사소송법 제314조      
+    【참조판례】[1]         대법원 1996. 5. 10. 선고 95도780 판결(공1996하, 1934)        대법원 2003. 12. 26. 선고 2002도7339 판결(공2004상, 291)[5]         대법원 1993. 6. 22. 선고 91도3346 판결(공1993하, 2183)        대법원 2004. 3. 26. 선고 2003도8077 판결(공2004상, 767)        대법원 2006. 4. 14. 선고 2005도9561 판결(공2006상, 836)[6]         대법원 1990. 4. 10. 선고 90도246 판결(공1990, 1102)        대법원 2000. 6. 9. 선고 2000도1765 판결(공2000하, 1698)      
+  【전    문】
+      【피 고 인】
+          피고인 1외 1인
+      【상 고 인】
+        피고인들
+      【변 호 인】
+        법무법인 다래외 4인
+      【원심판결】
+        서울고법 2004. 8. 20. 선고 2003노3391 판결
+    【주    문】상고를 모두 기각한다.
+    【이    유】1. 피고인 
+        1의 
+        공소외 1 수사 관련 공무상 비밀누설의 점에 대하여
+          형법 제127조는 공무원 또는 공무원이었던 자가 법령에 의한 직무상 비밀을 누설하는 것을 구성요건으로 하고 있고, 같은 조에서 법령에 의한 직무상 비밀이란 반드시 법령에 의하여 비밀로 규정되었거나 비밀로 분류 명시된 사항에 한하지 아니하고 정치, 군사, 외교, 경제, 사회적 필요에 따라 비밀로 된 사항은 물론 정부나 공무소 또는 국민이 객관적, 일반적인 입장에서 외부에 알려지지 않는 것에 상당한 이익이 있는 사항도 포함하는 것이나, 실질적으로 그것을 비밀로서 보호할 가치가 있다고 인정할 수 있는 것이어야 할 것이고, 본죄는 기밀 그 자체를 보호하는 것이 아니라 공무원의 비밀엄수의무의 침해에 의하여 위험하게 되는 이익, 즉 비밀의 누설에 의하여 위협받는 국가의 기능을 보호하기 위한 것이라고 볼 것이며(대법원 1996. 5. 10. 선고 95도780 판결, 
+        2003. 12. 26. 선고 2002도7339 판결 등 참조), 
+        검찰 등 수사기관이 특정 사건에 대하여 수사를 진행하고 있는 상태에서 수사기관이 현재 어떤 자료를 확보하였고, 해당 사안이나 피의자의 죄책, 신병처리에 대하여 수사책임자가 어떤 의견을 가지고 있는지 등의 정보는 그것이 수사의 대상이 될 가능성이 있는 자 등 수사기관 외부로 누설될 경우 피의자 등이 아직까지 수사기관에서 확보하지 못한 자료를 인멸하거나, 수사기관에서 파악하고 있는 내용에 맞추어 증거를 조작하거나, 허위의 진술을 준비하는 등의 방법으로 수사기관의 범죄수사 기능에 장애를 초래할 위험이 있는 점에 비추어 보면, 해당 사건에 대한 종국적인 결정을 하기 전까지는 외부에 누설되어서는 안될 수사기관 내부의 비밀에 해당한다고 봄이 상당하다.
+        원심은, 그 채용 증거를 종합하여, 
+        (그룹명 생략)그룹 부회장이던 
+        공소외 1이 2000. 12. 초 
+        공소외 2에게 “
+        (그룹명 생략)그룹에 대한 무역금융사기 건 검찰 수사와 관련하여 구속되지 않고 선처를 받을 수 있도록 도와 달라”는 부탁을 한 사실, 
+        공소외 2는 2000. 12.경 
+        공소외 3에게 
+        공소외 1이 무역금융사기 건으로 곤란을 겪고 있다는 사정을 설명하고 불구속 처리될 수 있도록 힘써 줄 것을 부탁하면서, 사건 내용, 수사 상황, 담당 검사 및 소속부서 등이 기재된 쪽지를 건네주었고, 
+        공소외 3은 검찰 간부를 통하여 알아보겠다고 대답하면서 2000. 12. 중순 
+        공소외 2를 통하여 
+        공소외 4에게 경비를 요구하여 2억 5,000만 원을 전달받은 사실, 
+        공소외 3은 2001. 1. 말경 대검찰청 차장검사실로 전화하여 피고인 
+        1에게 “공소외 1이 서울지방검찰청 외사부의 수사를 피하기 위하여 일본에 가 있는데, 국내로 들어와서 조사를 받을 경우 불구속으로 처리되는 것이 가능한지를 알아봐 달라”고 부탁하였고, 피고인 
+        1은 
+        공소외 3의 전화를 받은 후 그 시경 위 무역금융사기 건의 수사를 담당하고 있던 서울지방검찰청 외사부 부장검사에게 전화하여 사건의 내용이 어떠하냐고 물었고, 그 부장검사로부터 주임검사의 생각에 크게 엄벌할 정도의 중한 사안은 아니라고 한다는 답변을 듣자, 
+        공소외 3에게 
+        공소외 1이 국내로 들어오더라도 불구속 처리가 가능하다는 의미로 “조사받아도 되겠던데”라고 전해 준 사실, 이에 
+        공소외 3은 
+        공소외 2에게 모든 정리가 되었으니 
+        공소외 1이 안심하고 국내로 들어와도 된다고 말하였고, 
+        공소외 2는 그때쯤 
+        공소외 4에게 
+        공소외 3의 말을 전하고 직접 일본으로 가서 
+        공소외 1에게 
+        공소외 3이 피고인 
+        1을 통하여 모든 문제를 해결하였으니 귀국해도 문제가 없다고 하였고, 
+        공소외 1은 2001. 2. 6. 귀국하였으며 며칠 뒤 서울지검에 자진 출석하여 조사를 받은 사실 등 판시와 같은 사실을 인정한 다음, 피고인 
+        1이 담당 부장검사로부터 알아내어 
+        공소외 3에게 전달해 준 내용은 단지 사안의 경중에 불과한 것이 아니라, 당시 수사팀에서 
+        (그룹명 생략)그룹 사건과 관련하여 
+        공소외 1을 크게 엄벌할 정도로 중한 사안이 아니라는 판단을 하고 있으므로 
+        공소외 1이 국내로 들어오더라도 불구속 처리가 가능하다는 내용이고, 그 내용은 해외에 도피한 채 검찰 수사가 확대될까봐 전전긍긍하고 있던 
+        공소외 1이 2000. 12. 초부터 2001. 1. 말까지 
+        공소외 2, 
+        공소외 3에게 거액의 돈을 제공하거나 변호인을 통하여 확인하기를 원했던 가장 중요한 정보로서 장차 검찰 수사가 더 이상 강도 높게 진행되지 않고 그때까지 밝혀진 내용 범위 내에서 마무리될 것임을 예측케 하는 것임이 명백하므로, 피고인 
+        1이 
+        (그룹명 생략)그룹에 대한 서울지방검찰청 외사부의 수사가 계속 진행중인 상태에서 수사책임자인 부장검사와 주임검사가 위 무역금융사기 건이 
+        공소외 1을 엄벌할 정도로 중한 사안은 아니라는 잠정적인 판단을 하고 있다는 수사팀의 내부 상황을 확인한 뒤 그 내용을 
+        공소외 3에게 전달한 행위는 
+        형법 제127조에 정한 공무상 비밀누설에 해당한다고 판단하였다.
+        앞서 본 법리와 기록에 비추어 살펴보면, 위와 같은 원심의 사실인정과 판단은 옳고, 거기에 심리미진 또는 채증법칙 위배로 인한 사실오인이나 공무상 비밀누설에 관한 법리오해 등의 위법이 있다고 할 수 없다.   2. 피고인 
+        1의 직권남용권리행사방해의 점에 대하여
+        원심은, 
+        공소외 5의 제1심법정에서의 진술과 
+        공소외 5에 대한 검찰 진술조서의 진술기재 중 타인의 진술을 내용으로 하는 부분을 제외한 나머지 부분은, 그 진술 내용이 검찰 조직 전체는 물론 
+        공소외 5와 함께 근무한 검사들에게도 불명예스러운 사실을 폭로하는 것이며, 위 내사사건 처리에 관여하였던 
+        공소외 5 자신도 그 진술에 의하여 밝혀진 사실관계로 인한 책임에서 자유로울 수 없어서 
+        공소외 5가 사실과 달리 진술을 할 아무런 이유가 없는 점, 위 진술이 당시 상황을 구체적으로 묘사하고 있을 뿐 아니라 위 내사사건이 부적절하게 종료된 당시의 상황과 자연스럽게 일치하는 점 등에 비추어 신빙성이 있다고 보고, 
+        공소외 5의 위 진술 부분을 비롯하여 원심이 채택한 그 밖의 증거들에 의하여 인정되는 판시와 같은 사실들을 모두 종합하여 보면, 피고인 
+        1이 평소 친분관계가 있는 
+        공소외 3으로부터 부탁을 받고 대검찰청 차장검사 혹은 검찰총장이라는 지위를 이용하여 면담 혹은 전화 통화 등의 방법으로 울산지방검찰청 검사장에게 
+        (명칭 생략)종건에 대한 내사보류와 종결을 지시하였다고 인정하기에 충분하고, 피고인 
+        1의 주장과 같이 위 피고인이 울산지방검찰청 검사장에게 단지 내사진행이 외부로 공개되지 않도록 하라는 뜻으로 말하였을 뿐이라고 하더라도, 이미 수개월간 내사가 진행되어 사무실과 임원의 거주지에 대한 압수수색까지 진행된 사안에 대하여 압수수색 결과 확보된 자료에 대한 충분한 검토도 하지 못한 상태인 압수수색 직후의 시점에서 더 이상 내사진행이 외부로 공개되지 않도록 하라고 언급하였다면 그 언급만으로도 내사 담당자로서는 현실적으로 더 이상 추가적인 내사진행을 추진하기 어려울 것이므로, 위와 같은 언급 역시 
+        (명칭 생략)종건에 대한 내사중단의 지시로 평가될 수밖에 없으며, 위와 같은 내사중단 지시에 의하여 담당 검사로 하여금 구체적인 혐의 사실을 발견하여 정상적인 처리절차를 진행중이던 
+        (명칭 생략)종건 내지 
+        공소외 6 시장에 대한 내사를 중도에서 그만두고 종결처리토록 한 행위는 대검찰청 차장검사 혹은 검찰총장의 직권을 남용하여 담당 검사로 하여금 의무 없는 일을 하게 한 행위에 해당한다는 이유로, 피고인 
+        1의 이 사건 직권남용권리행사방해의 공소사실을 유죄로 인정하였다.
+        기록에 비추어 살펴보면, 위와 같은 원심의 사실인정과 판단은 옳은 것으로 수긍이 가고, 거기에 상고이유의 주장과 같은 채증법칙 위배로 인한 사실오인 또는 직권남용권리행사방해에 관한 법리오해 등의 위법이 있다고 할 수 없다.  3. 피고인들의 
+        공소외 7에 대한 수사 관련 공무상 비밀누설의 점에 대하여
+        가. 
+          형사소송법 제254조 제4항에서 범죄의 일시·장소와 방법을 명시하여 공소사실을 특정하도록 한 취지는 법원에 대하여 심판의 대상을 한정하고 피고인에게 방어의 범위를 특정하여 그 방어권 행사를 용이하게 하기 위한 데 있다고 할 것이므로, 공소 제기된 범죄의 성격에 비추어 그 공소의 원인이 된 사실을 다른 사실과 구별할 수 있을 정도로 그 일시·장소·방법·목적 등을 적시하여 특정하면 족하고, 공모의 시간·장소·내용 등을 구체적으로 명시하지 아니하였다거나 그 일부가 다소 불명확하더라도 그와 함께 적시된 다른 사항들에 의하여 그 공소사실을 특정할 수 있고, 그리하여 피고인의 방어권 행사에 지장이 없다면 그와 같은 이유만으로 공소사실이 특정되지 아니하였다고 할 수 없다(대법원 1993. 6. 22. 선고 91도3346 판결, 
+        2004. 3. 26. 선고 2003도8077 판결 등 참조).
+        기록에 의하여 살펴보면, 이 사건 공소사실에는 범행의 일시, 장소뿐만 아니라, 피고인들이 범행을 분담하여 실행한 행위 등이 특정되어 있다고 보이고, 피고인들이 공모한 일시·장소 등이 구체적으로 명시되지 아니하였다는 이유만으로 이 사건 공소사실이 특정되지 아니하였다고 할 수 없으며, 피고인들의 방어권 행사에도 지장이 있다고 볼 수 없으므로, 원심판결에 상고이유의 주장과 같은 공소사실의 특정에 관한 법리오해의 위법 등이 있다고 할 수 없고, 비록 원심이 피고인 
+        2와 그 변호인의 공소사실 특정에 관한 주장에 대하여 명시적으로 판단하지는 아니하였으나, 이 사건 공소사실을 그대로 인정한 원심의 판단에는 위 피고인과 그 변호인의 주장을 심리하고 이를 배척하는 판단이 포함되어 있다고 보아야 할 것이므로, 원심판결에 상고이유의 주장과 같은 판단누락의 위법 등이 있다고 할 수도 없다.
+        나. 
+        형사소송법 제314조는 “제312조 또는 
+        제313조의 경우에 공판준비 또는 공판기일에 진술을 요할 자가 사망, 질병, 외국거주 기타 사유로 인하여 진술할 수 없는 때에는 그 조서 기타 서류를 증거로 할 수 있다. 다만, 그 조서 또는 서류는 그 진술 또는 작성이 특히 신빙할 수 있는 상태하에서 행하여진 때에 한한다.”고 규정하고 있는데, 
+          위 제314조 단서에 규정된 진술 또는 작성이 특히 신빙할 수 있는 상태하에서 행하여진 때라 함은 그 진술내용이나 조서 또는 서류의 작성에 허위개입의 여지가 거의 없고 그 진술내용의 신용성이나 임의성을 담보할 구체적이고 외부적인 정황이 있는 경우를 가리킨다(대법원 1990. 4. 10. 선고 90도246 판결, 
+        2000. 6. 9. 선고 2000도1765 판결 등 참조).
+        기록에 의하여 살펴보면, 제1심은 
+        공소외 8을 증인으로 채택하여 국내의 주소지 등으로 소환하였으나 소환장이 송달불능되었고, 
+        공소외 8이 2003. 5. 16. 미국으로 출국하여 그곳에 거주하고 있음이 밝혀지자 다시 미국 내 주소지로 증인소환장을 발송하였으나, 
+        공소외 8이 제1심법원에 경위서를 제출하면서 장기간 귀국할 수 없음을 통보하였는바, 
+        공소외 8에 대한 특별검사 및 검사 작성의 각 진술조서와 
+        공소외 8이 작성한 각 진술서(공소외 8이 2004. 7. 13. 원심에 제출한 진술서는 제외)는 증인이 외국거주 등 사유로 인하여 법정에서의 신문이 불가능한 상태의 경우에 해당된다고 할 것이고, 그 진술이 이루어진 전후 사정, 그 과정과 내용 등 기록에 나타난 여러 가지 사정 등에 비추어 볼 때 그 진술내용의 신빙성이나 임의성도 인정된다고 할 것이므로, 위 각 진술조서와 진술서의 각 기재는 
+        형사소송법 제314조에 의하여 증거능력이 있다고 할 것이다.
+        같은 취지의 원심의 판단은 옳고, 거기에 상고이유에서 주장하는 바와 같은 채증법칙 위배로 인한 사실오인 또는 증거법칙에 관한 법리오해 등의 위법이 있다고 할 수 없다.   다. 원심은, 
+        공소외 7의 법정 및 검찰 진술, 
+        공소외 8의 검찰 진술 등 그 채용 증거를 종합하여, 판시와 같은 사실을 인정한 다음 (1) 2001. 11. 초순 피고인들이 함께 
+        공소외 8과 전화 통화하였다는 부분에 대하여는, 피고인들이 
+        공소외 8에게 알려준 판시와 같은 내용은 당시 언론은 물론 대검찰청 중앙수사부 수사팀 및 보고라인 외부로는 전혀 알려지지 않은 내사정보였고, 그 내용이 외부에 누출될 경우 
+        공소외 7 등 수사대상자가 도피하거나 이러한 정보에 기초하여 관련 증거나 진술을 조작, 인멸함으로써 장차 진행될 내사에 치명적인 장애를 초래할 위험이 있음은 명백하므로, 위 정보는 검찰의 내사진행을 위해서 반드시 보호되어야 할 직무상 비밀에 속하는 것이어서, 피고인 
+        1이 검찰총장의 지위에서 
+        공소외 9 관련 수사를 진행중인 부장검사로부터 
+        공소외 9 회사 회계장부에 
+        공소외 7에게 5,000만 원을 지급한 것으로 처리되어 있다는 요지의 보고를 받은 뒤, 그 내용을 피고인 
+        2와 함께 
+        공소외 8에게 전달한 것은 공무상 비밀누설행위에 해당하고, 서울지방검찰청 검사장의 지위에 있던 피고인 
+        2 역시 피고인 
+        1과 함께 있는 자리에서 먼저 
+        공소외 8에게 전화하여 위와 같은 내사정보를 알리고 피고인 
+        1로 하여금 다시 구체적인 내사정보를 누설하게 한 이상 그 행위에 대하여 공무상 비밀누설죄의 공동정범으로서의 책임을 면할 수 없다고 판단하고, (2) 2001. 11. 9. 15:58경 피고인 
+        2가 
+        공소외 8과 전화 통화하였다는 부분에 대하여는, 피고인 
+        2가 
+        공소외 7 소환조사 계획에 대한 정확한 정보를 얻을 수 있었던 것은 당시 검찰총장이었던 피고인 
+        1이 담당 부장검사로부터 보고받은 
+        공소외 7 소환조사 계획을 면담이나 전화연락 등의 방법으로 전달받았기 때문이라고 볼 수밖에 없고, 나아가, 위와 같이 당시 대검찰청 중앙수사부 수사팀 및 보고라인 외부로는 전혀 알려지지 않은 내사정보였던 
+        공소외 7 소환조사 임박 사실이 외부에 누출될 경우 
+        공소외 7 등 수사대상자가 도피하거나 관련 증거 또는 진술을 조작, 인멸함으로써 장차 진행될 내사에 치명적인 장애를 초래할 위험이 있음은 명백하고, 앞서 본 것처럼 실제로 이 사건에서 
+        공소외 7이 소환조사 일정이나 
+        공소외 9 회사 회계장부의 상황에 대하여 미리 알지 못하였다면 대검찰청 중앙수사부에 갑자기 소환되어 조사받으면서 자신이 
+        공소외 9로부터 현금 5,000만 원을 받았다고 진술할 아무런 이유도 없었음에도 미리 위와 같은 상황을 통보받아 대비하고 허위 진술하기로 준비함으로써 내사를 통한 진실 확인에 결정적인 장애를 초래하였음이 확인된 이상, 피고인들이 함께 위와 같이 정보를 누설한 행위에 대하여 공무상 비밀누설죄의 공동정범으로서의 책임을 면할 수 없다고 판단하였으며, (3) 2001. 11. 9. 16:27경과 17:17경 피고인 
+        1이 
+        공소외 8과 전화 통화하였다는 부분에 대하여는, 피고인 
+        1이 ‘
+        공소외 9 사건은 어차피 특검에 가야할 사건이므로 철저히 조사토록 할 테니 그런 줄 알라’고 이야기한 것은 철저한 조사를 통보한 것, 즉 사실을 있는 그대로 밝히는 철저한 조사를 하겠다는 의사를 표현한 것이 아니라 오히려 
+        공소외 8에게 중앙수사부에서 실시할 조사의 강도가 강할 수밖에 없는 사정을 설명하면서 위 조사는 특별검사의 수사에 대비한 것이라는 점을 상기시키고, 특별검사 수사에 대비한다는 마음으로 조사에 대한 대비를 확실히 하라는 뜻을 
+        공소외 8에게 전달하는 취지로 이해하여야 할 것으로서 명백히 중앙수사부의 내사정보를 누설한 것으로 위 내용이 누설될 경우 수사대상자의 도피나 관련 증거 또는 진술의 조작, 인멸 등으로 장차 진행될 내사에 치명적인 장애를 초래할 위험이 있음은 분명하므로, 피고인 
+        1의 위 행위가 공무상 비밀누설행위에 해당함은 명백하다고 판단하고, (4) 2001. 11. 17. 15:08경 피고인 
+        2가 
+        공소외 8과 전화 통화하였다는 부분에 대하여는, 피고인 
+        2가 
+        공소외 7 조사결과에 대한 정확한 정보를 얻을 수 있었던 것은 당시 검찰총장이었던 피고인 
+        1이 담당 부장검사로부터 보고받은 
+        공소외 7 조사결과를 면담이나 전화연락 등의 방법으로 전달받았기 때문이라고 볼 수밖에 없고, 피고인들이 공모하여 
+        공소외 8에게 누설한 
+        공소외 7 내사결과는, 
+        공소외 7, 
+        공소외 9, 
+        공소외 7의 처에 대한 조사 내용과 그 결과 별다른 혐의를 발견하지 못하였다는 중앙수사부의 중간 판단을 포함한 것으로, 검찰의 내사사건에 대한 조사 내용과 중간 판단이 외부에 누설될 경우 수사대상자가 도피하거나 증거를 조작, 인멸하거나 사실을 왜곡, 은폐하는 진술을 준비할 가능성이 있어 내사에 장애를 초래할 위험이 있음은 명백하므로, 피고인들은 위와 같은 
+        공소외 7 내사결과 누설행위에 대하여 공무상 비밀누설죄의 죄책을 면할 수 없다고 판단하였으며, (5) 2001. 11. 20. 19:30경 피고인 
+        1이 
+        공소외 8과 전화 통화하였다는 부분에 대하여는, 당시 피고인 
+        1이 
+        공소외 8에게 한 말은 단순히 장차 
+        공소외 9 사건과 관련하여 특별검사의 수사가 있을 것이라는 내용이 아니라, 
+        공소외 7에 대한 중앙수사부의 조사 내용을 설명하고 그에 의하면 
+        공소외 7이나 
+        공소외 8이 문제가 된 5,000만 원과 관련하여 형사처벌을 받을 일은 없을 것이라는 중간 판단을 알려주면서, 특별검사 수사시에도 관련자들이 같은 내용으로 진술하기만 하면 같은 결론이 나올 수 있는 것임을 알려주는 의미로 해석하여야 할 것이므로, 피고인 
+        1의 이러한 행위는, 당시 중앙수사부에서 진행중이던 
+        공소외 7에 대한 내사에 막대한 장애를 초래할 위험이 있음은 물론, 곧 실시될 예정이던 특별검사의 수사활동에도 치명적인 장애를 초래할 수 있음이 명백히 예상되는 행위임이 분명하다고 판단한 후, 따라서 피고인들이 공모하여 
+        공소외 7 내사 관련 공무상 비밀을 누설하였다는 공소사실은 그 증명이 충분하다고 판단하여, 피고인들의 이 부분 공소사실(다만, 피고인 
+        2에 대하여 원심이 공모를 인정하지 아니한 부분 제외)에 대하여 유죄를 선고하였다.
+        앞서 본 법리와 기록에 비추어 살펴보면, 위와 같은 원심의 사실인정과 판단도 옳고, 거기에 상고이유의 주장과 같은 심리미진 또는 채증법칙 위배로 인한 사실오인이나 공무상 비밀누설에 관한 법리오해 등의 위법이 있다고 할 수 없다.  4. 결 론  그러므로 상고를 모두 기각하기로 하여 관여 법관의 일치된 의견으로 주문과 같이 판결한다.
+    대법관   김지형(재판장) 고현철(주심) 양승태 전수안</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2249353&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=12&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2018. 3. 29. 선고 2017다257395 판결[채무부존재확인]〈공인인증서를 이용한 전자금융거래의 효력〉[공2018상,808]</t>
+  </si>
+  <si>
+    <t>【판시사항】  전자문서에 의한 거래에서 공인인증기관이 발급한 공인인증서에 의하여 본인임이 확인된 자에 의하여 전자문서가 송신된 경우, 본인의 의사에 반하여 작성·송신되었더라도 전자문서 및 전자거래 기본법 제7조 제2항 제2호에 해당하는지 여부(원칙적 적극) 및 이때 전자문서의 수신자가 전화 통화나 면담 등의 추가적인 본인확인절차 없이도 전자문서에 포함된 의사표시를 작성자의 것으로 보아 법률행위를 할 수 있는지 여부(적극) / 이러한 법리는 대부계약에도 그대로 적용되는지 여부(적극)
+【판결요지】  전자문서 및 전자거래 기본법(이하 ‘전자문서법’이라 한다) 제7조 제2항 제2호, 제11조, 전자서명법 제3조 제2항, 제18조의2의 내용과 전자문서 및 전자거래의 안전성과 신뢰성을 확보하고자 하는 입법 목적 등을 종합하여 보면, 전자문서에 의한 거래에서 공인인증기관이 발급한 공인인증서에 의하여 본인임이 확인된 자에 의하여 송신된 전자문서는, 설령 본인의 의사에 반하여 작성·송신되었다고 하더라도, 특별한 사정이 없는 한 전자문서법 제7조 제2항 제2호에 규정된 ‘수신된 전자문서가 작성자 또는 그 대리인과의 관계에 의하여 수신자가 그것이 작성자 또는 그 대리인의 의사에 기한 것이라고 믿을 만한 정당한 이유가 있는 자에 의하여 송신된 경우’에 해당한다고 봄이 타당하다. 따라서 이러한 경우 전자문서의 수신자는 전화 통화나 면담 등의 추가적인 본인확인절차 없이도 전자문서에 포함된 의사표시를 작성자의 것으로 보아 법률행위를 할 수 있다.
+  나아가 ‘대부업 등의 등록 및 금융이용자 보호에 관한 법률’(이하 ‘대부업법’이라 한다)의 아래와 같은 규정들까지 더하여 보면, 위와 같은 법리는 대부계약에도 그대로 적용된다. 즉 대부업법은 공인인증서를 이용한 본인 확인을 제한하고 있지 아니할 뿐만 아니라, 제6조의2 제3항 제1호에서 ‘대부계약 또는 이와 관련된 보증계약을 체결할 때 전자서명법 제2조 제8호에 따른 공인인증서를 이용하여 거래상대방 또는 보증인이 본인인지 여부를 확인하고, 인터넷을 이용하여 대부계약 또는 보증계약상 자필로 기재해야 할 중요사항을 거래상대방 또는 보증인이 직접 입력하게 하는 경우에는, 대부업자는 위 중요사항을 거래상대방 또는 보증인이 자필로 기재하게 한 것으로 본다’고 규정하고 있다.
+【참조조문】 전자문서 및 전자거래 기본법 제1조, 제7조 제2항 제2호, 제11조, 전자서명법 제1조, 제2조 제8호, 제3조 제2항, 제18조의2, 대부업 등의 등록 및 금융이용자 보호에 관한 법률 제6조의2 제3항 제1호
+【전    문】【원고, 피상고인】
+별지 원고 명단 기재와 같다. (소송대리인 법무법인 대화 담당변호사 신시현 외 1인)
+【피고, 상고인】
+아프로파이낸셜대부 주식회사 외 2인 (소송대리인 변호사 은창용 외 4인)
+【원심판결】
+ 서울중앙지법 2017. 8. 9. 선고 2016나80085 판결
+【주    문】  원심판결을 파기하고, 사건을 서울중앙지방법원 합의부에 환송한다.
+【이    유】  상고이유를 판단한다.  1. 전자문서 및 전자거래 기본법(이하 ‘전자문서법’이라 한다) 제7조 제2항 제2호는 ‘수신된 전자문서가 작성자 또는 그 대리인과의 관계에 의하여 수신자가 그것이 작성자 또는 그 대리인의 의사에 기한 것이라고 믿을 만한 정당한 이유가 있는 자에 의하여 송신된 경우’에는 전자문서의 수신자가 전자문서에 포함된 의사표시를 작성자의 것으로 보아 행위할 수 있다고 규정하고 있다. 전자문서법 제11조는, 전자거래 중에서 전자서명에 관한 사항은 전자서명법에서 정하는 바에 따르도록 하고 있는데, 전자서명법 제3조 제2항은 “공인전자서명이 있는 경우에는 당해 전자서명이 서명자의 서명, 서명날인 또는 기명날인이고, 당해 전자문서가 전자서명된 후 그 내용이 변경되지 아니하였다고 추정한다.”라고, 제18조의2는 “다른 법률에서 공인인증서를 이용하여 본인임을 확인하는 것을 제한 또는 배제하고 있지 아니한 경우에는 이 법의 규정에 따라 공인인증기관이 발급한 공인인증서에 의하여 본인임을 확인할 수 있다.”라고 각 규정하고 있다.  이러한 규정들의 내용과 전자문서 및 전자거래의 안전성과 신뢰성을 확보하고자 하는 그 입법 목적 등을 종합하여 보면, 전자문서에 의한 거래에서 공인인증기관이 발급한 공인인증서에 의하여 본인임이 확인된 자에 의하여 송신된 전자문서는, 설령 본인의 의사에 반하여 작성·송신되었다고 하더라도, 특별한 사정이 없는 한 전자문서법 제7조 제2항 제2호에 규정된 ‘수신된 전자문서가 작성자 또는 그 대리인과의 관계에 의하여 수신자가 그것이 작성자 또는 그 대리인의 의사에 기한 것이라고 믿을 만한 정당한 이유가 있는 자에 의하여 송신된 경우’에 해당한다고 봄이 타당하다. 따라서 이러한 경우 그 전자문서의 수신자는 전화 통화나 면담 등의 추가적인 본인확인절차 없이도 전자문서에 포함된 의사표시를 작성자의 것으로 보아 법률행위를 할 수 있다.  나아가 ‘대부업 등의 등록 및 금융이용자 보호에 관한 법률’(이하 ‘대부업법’이라 한다)의 아래와 같은 규정들까지 더하여 보면, 위와 같은 법리는 대부계약에도 그대로 적용된다고 할 것이다. 즉 대부업법은 공인인증서를 이용한 본인 확인을 제한하고 있지 아니할 뿐만 아니라, 제6조의2 제3항 제1호에서 ‘대부계약 또는 이와 관련된 보증계약을 체결할 때 전자서명법 제2조 제8호에 따른 공인인증서를 이용하여 거래상대방 또는 보증인이 본인인지 여부를 확인하고, 인터넷을 이용하여 대부계약 또는 보증계약상 자필로 기재해야 할 중요사항을 거래상대방 또는 보증인이 직접 입력하게 하는 경우에는, 대부업자는 위 중요사항을 거래상대방 또는 보증인이 자필로 기재하게 한 것으로 본다’고 규정하고 있다.  2. 원심판결 이유에 의하면, 대부업자인 피고들과 원고들 사이의 이 사건 각 대출계약은 공인인증서를 통한 본인확인절차를 거쳐 체결된 것임을 알 수 있다. 따라서 위와 같은 법리에 의하여, 설령 원고들의 의사에 반하여 대출신청이 이루어졌다고 하더라도, 특별한 사정이 없는 한 전자문서법 제7조 제2항 제2호에 규정된 ‘수신된 전자문서가 작성자 또는 그 대리인과의 관계에 의하여 수신자가 그것이 작성자 또는 그 대리인의 의사에 기한 것이라고 믿을 만한 정당한 이유가 있는 자에 의하여 송신된 경우’에 해당한다고 봄이 타당하다.  원심이 들고 있는 ‘이 사건 각 대출계약 체결에 사용된 공인인증서는 보이스피싱 사기단이 원고들을 속여 원고들의 개인정보를 취득한 후 이를 이용하여 재발급받은 것이라는 점’ 등의 사정들만으로는 위와 같은 ‘정당한 이유’가 부정된다고 보기 어렵다. 또한 대출신청의 경우, 휴대전화 등을 이용한 본인확인절차를 거치도록 한 ‘전기통신금융사기 피해 방지 및 피해금 환급에 관한 특별법’ 제2조의4 제1항의 규정은 대부업자에게 적용되는 규정이 아니므로, 이 규정을 근거로 피고들이 휴대전화 등을 이용한 본인확인절차를 거쳤어야 한다고 보기도 어렵다.  그런데도 원심은 그 판시와 같은 이유만으로, 전자문서법 제7조 제2항 제2호가 적용되지 않아 이 사건 각 대출계약이 원고들에 대하여 유효하다고 할 수 없다고 판단하였다. 이러한 원심의 판단에는 전자문서법 제7조 제2항 제2호에서 정한 ‘정당한 이유’에 관한 법리를 오해하여 판결에 영향을 미친 잘못이 있다. 이 점을 지적하는 상고이유 주장은 이유 있다.  3. 그러므로 원심판결을 파기하고, 사건을 다시 심리·판단하도록 원심법원에 환송하기로 하여, 관여 대법관의 일치된 의견으로 주문과 같이 판결한다.[[별   지] 원고 명단: 생략]
+대법관   박정화(재판장) 김신 박상옥(주심) 이기택</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2067484&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=13&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2006. 4. 13. 선고 2005도9268 판결[부정수표단속법위반·사기·자격모용사문서작성·자격모용작성사문서행사·사기미수·사문서위조·위조사문서행사·공문서위조·위조공문서행사·조세범처벌법위반][공2006.5.15.(250),821]</t>
+  </si>
+  <si>
+    <t>【판시사항】
+        ［1］ 항소심이 제1심판결 선고 전 구금일수 중 일부를 본형에 산입하지 아니한 조치의 위법 여부(소극)
+        ［2］ 법원이 공소장 변경 없이 직권으로 공소장에 기재된 공소사실과 다른 범죄사실을 인정하여야 하는 경우
+        ［3］ 피고인이 공범과 공모하여 사문서위조죄를 저지른 것으로 공소제기되었으나, 피고인이 제3자가 실제 사문서를 위조하였다고 주장함에 따라 그에 관하여 증거조사 등 심리를 진행한 결과 피고인이 공범 및 위 제3자와 함께 공모하여 사문서위조 범행을 저지른 것으로 밝혀졌다면, 원심으로서는 따로 공소장변경절차 없이도 직권으로 피고인, 공범 및 위 제3자의 공모에 의한 사문서위조죄를 인정하였어야 한다는 이유로, 이 부분 공소사실에 대하여 무죄를 선고한 원심판결을 파기한 사례
+    【판결요지】
+        ［1］ 판결 선고 전 구금일수를 전부 산입할 것인가 또는 그 일부만을 산입할 것인가의 여부는 판결 법원의 자유재량에 속하는 것이므로, 항소심이 제1심판결을 파기하고 새로이 형을 선고함에 있어서 제1심판결 선고 전의 구금일수 중 일부를 본형에 산입하지 않았다고 하더라도 이를 위법하다 할 수 없다.
+        ［2］ 법원은 심리의 경과에 비추어 피고인의 방어권행사에 실질적인 불이익을 초래할 염려가 없다고 인정되는 때에는 공소장이 변경되지 않았더라도 공소사실의 동일성이 인정되는 범위 내에서 직권으로 공소사실과 다른 범죄사실을 인정할 수 있고, 이와 같은 경우 공소가 제기된 범죄사실과 대비하여 볼 때 실제로 인정되는 범죄사실의 사안이 중대하여 공소장이 변경되지 않았다는 이유로 이를 처벌하지 않는다면 적정절차에 의한 신속한 실체적 진실의 발견이라는 형사소송의 목적에 비추어 현저히 정의와 형평에 반하는 것으로 인정되는 경우라면 법원으로서는 직권으로 그 범죄사실을 인정하여야 한다.
+        ［3］ 피고인이 공범과 공모하여 사문서위조죄를 저지른 것으로 공소제기되었으나, 피고인이 제3자가 실제 사문서를 위조하였다고 주장함에 따라 그에 관하여 증거조사 등 심리를 진행한 결과 피고인이 공범 및 위 제3자와 함께 공모하여 사문서위조 범행을 저지른 것으로 밝혀졌다면, 원심으로서는 따로 공소장변경절차 없이도 직권으로 피고인, 공범 및 위 제3자의 공모에 의한 사문서위조죄를 인정하였어야 한다는 이유로, 이 부분 공소사실에 대하여 무죄를 선고한 원심판결을 파기한 사례.
+    【참조조문】［1］         형법 제57조 ［2］         형사소송법 제254조,         제298조 ［3］         형사소송법 제254조,         제298조      
+    【참조판례】［1］         대법원 1997. 10. 10. 선고 97도2109 판결(공1997하, 3550)［2］         대법원 2003. 5. 13. 선고 2003도1366 판결(공2003상, 1411)        대법원 2003. 10. 24. 선고 2003도4027 판결      
+  【전    문】
+      【피 고 인】
+          피고인
+      【상 고 인】
+        피고인 및 검사
+      【변 호 인】
+        변호사 최철
+      【원심판결】
+        서울남부지법 2005. 11. 4. 선고 2004노1716-1, 2005노747, 1459 판결
+    【주    문】원심판결 중 2000. 9. 8.자 자격모용사문서작성 및 같은 날 자격모용작성사문서행사의 점에 대한 무죄 부분을 제외한 나머지 부분을 모두 파기하고, 그 부분 사건을 서울남부지방법원 합의부에 환송한다.  검사의 나머지 상고를 기각한다. 
+    【이    유】1. 피고인의 상고이유에 대하여 판단한다.   가. 채증법칙 위반 등 주장에 대하여   주식회사의 적법한 대표이사가 그 명의로 수표를 발행한 이상 아직 당좌계정상 대표이사 명의변경절차를 밟지 않은 상태라고 하더라도 수표 발행의 효력에는 아무런 영향이 없다. 원심의 채용 증거들을 기록에 비추어 살펴보면, 피고인은 
+        공소외 1 주식회사의 적법한 대표이사로 선임된 
+        공소외 2와 공모하여 그 명의로 수표를 발행하였고 그 후 당좌계정상 대표이사 명의변경절차까지 이루어졌음에도 불구하고 거래정지를 이유로 위 수표들이 지급되지 아니하게 한 사실이 인정되므로, 원심이 이에 대하여 
+        부정수표단속법 제2조 제2항의 죄책을 인정한 것은 정당하고, 거기에 상고이유의 주장과 같이 채증법칙을 위반하여 사실을 잘못 인정한 위법이나 부정수표단속법 위반죄에 관한 법리를 오해한 위법 등이 있다고 볼 수 없다. 
+        그 밖에 원심의 채용 증거들을 기록에 비추어 살펴보면, 원심이 피고인에 대한 판시 
+        공소외 3 주식회사 명의 수표 발행으로 인한 부정수표단속법 위반죄, 2000. 9. 9.자 자격모용사문서작성죄와 같은 날 자격모용작성사문서행사죄 및 휴대전화 관련 사기죄, 위조사문서행사죄 및 그로 인한 사기미수죄, 
+        공소외 1 주식회사 명의 세금계산서 발행으로 인한 조세범처벌법 위반죄, 위조공문서행사죄 및 그로 인한 사기미수죄 등의 각 공소사실을 모두 유죄로 인정한 것은 정당하고, 거기에 상고이유의 주장과 같이 채증법칙을 위반하여 사실을 잘못 인정한 위법이나 법리를 오해한 위법 등이 있다고 볼 수 없다.
+        나. 판결 선고 전 구금일수 산입에 관한 법리오해 주장에 대하여
+        판결 선고 전 구금일수를 전부 산입할 것인가 또는 그 일부만을 산입할 것인가의 여부는 판결 법원의 자유재량에 속하는 것이므로, 항소심이 제1심판결을 파기하고 새로이 형을 선고함에 있어서 제1심판결 선고 전의 구금일수 중 일부를 본형에 산입하지 않았다고 하더라도 이를 위법하다 할 수 없다(대법원 1997. 10. 10. 선고 97도2109 판결 참조).
+        따라서 원심이 3건의 제1심판결을 병합하여 심리한 다음 3건의 제1심판결 중 각 유죄 부분을 파기하고 새로이 형을 선고함에 있어 제1심판결 선고 전의 구금일수 중 일부를 본형에 산입하지 않았다고 하여 이를 위법하다 할 수 없다. 원심판결에는 상고이유의 주장과 같이 판결 선고 전 구금일수 산입에 관한 법리를 오해한 위법 등이 없다.   2. 검사의 상고이유에 대하여 판단한다.   가. 2000. 9. 8.자 자격모용사문서작성 및 자격모용작성사문서행사의 점에 대하여   원심의 채용 증거들을 기록에 비추어 살펴보면, 2000. 9. 8.자 LG019PCS 가입계약서 및 단말기할부매매계약서가 
+        공소외 4를 본인으로 하고 피고인을 대리인으로 하여 작성되었음에 대한 입증이 부족하므로, 원심이 같은 이유로 피고인에 대한 이 부분 공소사실에 대하여 그 증명이 없음을 이유로 무죄를 선고한 것은 정당한 사실인정과 판단으로 수긍이 간다. 원심판결에는 이에 관하여 상고이유의 주장과 같이 채증법칙을 위반하여 사실을 잘못 인정한 위법이나 법리를 오해한 위법 등이 없다. 
+        나. 사문서위조의 점에 대하여   (1) 이 부분 공소사실의 요지는, “피고인이 
+        공소외 5와 공모하여 2001. 9.경 군포시 
+        (주소 1 생략) 소유자 
+        공소외 6을 매도인으로 하고 
+        공소외 5를 매수인으로 하여 위 토지에 관한 매매계약을 내용으로 하는 부동산매매계약서 1장을 위조하였다.”는 것이다. 
+        원심은, 공범 
+        공소외 5의 일관된 진술 등에 의하면 피고인이 위조된 위 부동산매매계약서 행사 및 이를 통하여 국민은행으로부터 대출금을 편취하려 한 사기미수 범행에 가담한 사실은 인정된다고 하여 그 부분은 유죄로 인정하면서도, “피고인이 위 부동산매매계약서를 위조하였다고 볼 증거는 부족하다.”는 이유로 사문서위조의 점에 대하여는 무죄를 선고하였다. 
+        (2) 그러나 원심의 판단은 아래와 같은 이유에서 수긍할 수 없다.   (가) 먼저, 원심이 적법하게 채용한 증거들을 기록에 비추어 살펴보면 아래 사실을 인정할 수 있다.   피고인은 이 사건 이전에도 토지 소유자의 주민등록증, 인감증명서, 근저당권설정계약서 등을 위조하여 무효의 근저당권을 설정해 주고 그 대가로 거액을 편취하는 등 이 사건과 같은 유형의 범행을 저질러 수회 처벌받은 전력이 있다. 
+        공소외 5는 
+        공소외 7의 소개로 은행 대출을 받아 줄 사람을 찾고 있다는 피고인을 만나게 되었는데, 당시 
+        공소외 8이 대표이사로, 피고인이 기획실장으로 있던 
+        공소외 9 주식회사는 경리 여직원까지 포함하여 불과 6명 정도로 구성된 작은 회사로 실질적인 가치 있는 자산이나 경영실적 혹은 자금여력이 전혀 없었고 피고인을 비롯한 그 임·직원들도 신용불량 상태 등으로 자금여력이 전혀 없어, 위 회사나 그 임·직원들이 
+        공소외 6으로부터 그 소유 토지를 매수한다는 것은 불가능한 상황이었다. 
+        피고인은 
+        공소외 5에게 
+        공소외 5 명의로 토지를 구입하여 은행에서 대출을 받을 것인데 도와주면 거액의 사례금을 줄테니 해외로 피신하라고 제의하여 
+        공소외 5의 승낙을 받았고, 피고인이 
+        공소외 5의 인적사항을 
+        공소외 8에게 전달하자 
+        공소외 8은 이를 이용하여 
+        공소외 5를 매수인, 
+        공소외 6을 매도인으로 한 이 사건 부동산매매계약서를 위조하였다. 피고인은 위조된 부동산매매계약서를 이용하여 국민은행으로부터 2억 원을 대출받으려다 미수에 그쳤고, 
+        공소외 5는 위 범행으로 사문서위조죄 등에 관해 피고인과의 공범으로 인정되어 유죄판결이 확정되었다.  
+        (나) 위 인정 사실에 의하면, 피고인이 
+        공소외 8, 
+        공소외 5와 공모하여 
+        공소외 6 명의의 부동산매매계약서를 위조한 사실은 충분히 인정된다. 
+        아울러 기록에 의하면, 
+        공소외 8은 제1심법원 제17회 공판기일에 증인으로 출석하여, ‘
+        공소외 9 주식회사에 들어가서 피고인과 함께 근무하면서 은행을 상대로 담보작업을 하여 대출받아 보려고 하였는데 피고인이 그렇게 쓸 수 있는 담보가 있다고 하여 공소외 10이라는 사람에게 부탁하여 이 사건 부동산매매계약서를 만들어달라고 하였다.’는 내용의 진술을 하여, 피고인과 더불어 이 사건 부동산매매계약서를 위조하였다는 사실을 대체로 시인한 바 있다. 그런데도 원심이 이 부분 공소사실에 대한 입증이 부족하다고 판단하면서 
+        공소외 8의 이러한 법정진술을 배척하는 취지나 그 이유를 전혀 밝히지 않은 것은 적절한 조치라 보기 어렵다. 물론 
+        공소외 8은 위에서 본 진술과 더불어, ‘이 사건 부동산매매계약서를 들고 대출을 받기 위해 은행에 가기 전까지는 위조사실을 몰랐고 그것은 피고인도 마찬가지였을 것이다.’라거나 ‘이 사건 부동산매매계약서는 피고인이 들고 가져와서 보게 되었다.’거나 ‘피고인과 저는 중간역할을 했을 뿐이고 뒤에 확인해보니 공소외 10이라는 사람이 따로 위조한 것을 알게 되었다.’는 등의 진술도 하였으나, 이는 자신이 한 앞서의 진술과 모순되거나 서로 어긋나는 내용일 뿐만 아니라, 위에서 본 바와 같이 원심이 적법하게 채용한 다른 증거들에 의해 인정되는 사실과도 배치되는 것이어서 쉽사리 믿기 어렵다.
+        또한, 피고인은 ‘
+        공소외 9 주식회사의 직원으로 일하던 중 대표이사 
+        공소외 8이 군포시에 있는 땅을 매입하였으니 이를 담보로 대출받을 사람을 찾아보라고 하여 
+        공소외 5를 물색하여 그 승낙을 받았고, 
+        공소외 8이 작성하여 건네 준 매매계약서가 진정하게 작성된 것인 줄 알고 대출에 관여하였다가 뒤늦게 매매계약서가 위조된 것인지 알았다.’고 주장한다. 그러나 그 주장 자체에 의하더라도 피고인이 
+        공소외 5를 물색하여 그 인적사항을 
+        공소외 8에게 전달함으로써 이 사건 매매계약서가 비로소 작성된 사실이 분명히 나타나는 바이고, 한편 
+        공소외 8이 이 사건 토지를 
+        공소외 6으로부터 실제 매입한 줄 알았다는 피고인의 변명은 앞서 본 위 회사와 그 임·직원들의 재력 상황에 비추어 도저히 믿을 수 없다. 
+        (다) 
+        법원은 심리의 경과에 비추어 피고인의 방어권행사에 실질적인 불이익을 초래할 염려가 없다고 인정되는 때에는 공소장이 변경되지 않았더라도 공소사실의 동일성이 인정되는 범위 내에서 직권으로 공소사실과 다른 범죄사실을 인정할 수 있고, 이와 같은 경우 공소가 제기된 범죄사실과 대비하여 볼 때 실제로 인정되는 범죄사실의 사안이 중대하여 공소장이 변경되지 않았다는 이유로 이를 처벌하지 않는다면 적정절차에 의한 신속한 실체적 진실의 발견이라는 형사소송의 목적에 비추어 현저히 정의와 형평에 반하는 것으로 인정되는 경우라면 법원으로서는 직권으로 그 범죄사실을 인정하여야 한다(대법원 2003. 5. 13. 선고 2003도1366 판결 등 참조).
+        비록 이 부분 공소사실에 이 사건 부동산매매계약서를 위조한 
+        공소외 8이 공범으로 함께 기재되어 있지 않다고 하더라도, 기록에 의하면 이 사건 수사 및 공판 과정에서 피고인은 
+        공소외 8의 지시로 
+        공소외 5를 물색하여 그 인적사항을 
+        공소외 8에게 전달해 준 사실관계는 대체로 인정하면서 실제 매매계약서를 위조한 것은 
+        공소외 8이라고 계속 주장해 왔고, 이와 관련하여 
+        공소외 8에 대한 이 부분 공소사실 관련 수사기록이 현출되고 제1심법정에서의 
+        공소외 8의 진술이 이루어짐에 따라 앞서 본 바와 같이 피고인이 
+        공소외 8과 공모하여 이 사건 매매계약서를 위조한 사실이 밝혀지게 되었음을 알 수 있다. 그렇다면 이 사건 공판 과정에서의 피고인의 주장 내용은 요컨대 위 매매계약서를 위조한 것은 
+        공소외 8의 단독 범행이고 피고인이 이에 가담한 것이 아니라는 취지로서 
+        공소외 8과의 공모 여부를 다투어왔던 셈이고, 그에 따라 이루어진 위와 같은 입증 경과 및 심리 결과 등을 종합적으로 고려해 볼 때, 공소장변경 없이 직권으로 피고인이 
+        공소외 8과 공모하여 이 사건 부동산매매계약서를 위조한 공동정범이라고 인정한다고 하더라도 피고인의 방어권 행사에 실질적인 불이익을 초래할 염려는 없다고 할 것이다. 또한, 위와 같은 상황에서 이 부분 공소사실에 
+        공소외 8이 공범으로 기재되어 있지 않다는 이유만으로 피고인을 처벌하지 않는다면 이는 형사소송의 목적에 비추어 현저히 정의와 형평에 반한다 할 것이다.
+        (3) 따라서 원심으로서는 따로 공소장변경절차 없이도 직권으로 피고인이 
+        공소외 8, 
+        공소외 5와 공모하여 이 사건 부동산매매계약서를 위조하였다고 인정하였어야 할 것임에도 불구하고 이에 이르지 아니한 채 만연히 이 부분 공소사실에 대하여 무죄를 선고하고 말았으니, 원심판결에는 채증법칙을 위배하여 사실을 잘못 인정하였거나 공소장변경절차 없이 심판할 수 있는 범위에 관한 법리를 오해함으로써 판결에 영향을 미친 위법이 있다.
+        다. 공문서위조의 점에 대하여   (1) 이 부분 공소사실의 요지는, “피고인이 
+        공소외 11, 
+        공소외 12, 
+        공소외 8과 공모하여 2001. 9.경 
+        공소외 12가 인천 서구 
+        (주소 2 생략) 등 토지의 소유자인 
+        공소외 13 등을 상대로 제기한 소유권이전등기절차이행 청구소송의 승소판결문정본, 송달증명원, 확정증명원 등을 위조하였다.”는 것이다. 
+        원심은, 공범 
+        공소외 11, 
+        공소외 8의 진술 등에 의하면 피고인이 위조된 위 판결문정본 등 행사 및 이를 통하여 사회복지법인 
+        (명칭 생략)으로부터 사례금을 편취하려 한 사기미수 범행에 가담한 사실은 인정된다고 하여 그 부분은 유죄로 인정하면서도, “피고인이 위 판결문정본 등 위조 범행에까지 가담하였다고 볼 증거는 부족하다.”는 이유로 공문서위조의 점에 대하여는 무죄를 선고하였다. 
+        (2) 그러나 원심의 판단은 아래와 같은 이유에서 수긍할 수 없다.   (가) 먼저, 원심이 적법하게 채용한 증거들을 기록에 비추어 살펴보면 아래 사실을 인정할 수 있다.   앞서 본 바와 같이 피고인은 이 사건과 같은 유형의 범행을 저질러 수회 처벌받은 전력이 있는데, 이 사건 판결문정본 등은 앞서 본 
+        공소외 6 명의의 부동산매매계약서와 마찬가지로 2001. 9.경 피고인이 기획실장으로 있던 
+        공소외 9 주식회사의 대표이사 
+        공소외 8에 의하여 위조되었다. 
+        공소외 12는 대출 명의를 빌려주면 사례를 하겠다는 
+        공소외 8, 
+        공소외 11, 피고인의 제의로 이 사건 판결문정본 위조 등 범행에 가담하게 되었고, 피고인은 직접 이 사건 토지를 답사하여 현황과 시세 등을 확인하기까지 하였다. 이 사건 판결문정본 위조 등 범행에 관한 위 4명의 모의는 주로 
+        공소외 9 주식회사 사무실에서 이루어졌는데 처음에는 이 사건 판결문정본 등을 위조하여 대출금을 편취하기 위해 국민은행 본점을 방문하였다가 실패하자 
+        공소외 11이 아는 사람을 통하여 사회복지법인 
+        (명칭 생략)과 접촉하면서 이 사건 사기미수 범행에 이르게 되었으며, 
+        공소외 11, 
+        공소외 12, 
+        공소외 8은 위 범행으로 공문서위조죄 등에 관해 피고인과의 공범으로 인정되어 유죄판결이 확정되었다.  
+        (나) 위 인정 사실에 의하면, 피고인이 
+        공소외 11, 
+        공소외 12, 
+        공소외 8과 공모하여 이 사건 판결문정본 등을 위조한 사실은 충분히 인정된다. 
+        원심의 지적처럼 이 사건 판결문정본 위조 등 범행을 누가 주도하였는지, 판결문정본 등을 실제로 누가 위조하였는지에 대한 공범들의 진술이 다소 불분명한 것은 사실이다.    그러나 이 사건 판결문정본 등을 위조하여 금원을 편취하자는 범행을 피고인을 포함한 4명이 사전에 모의하고 진행하였다는 점에 대하여는 
+        공소외 11, 
+        공소외 12, 
+        공소외 8의 검찰 및 제1심법정에서의 진술이 대체로 일관되어 있으며 특별히 그 신빙성을 의심할 만한 정황은 보이지 않는다. 이 부분 공소사실과 관련하여, 
+        공소외 12, 
+        공소외 8은 제1심법정에서 피고인이 이 사건에 적극적으로 가담하지는 않았다면서 전체적으로 피고인에게 유리한 내용으로 진술하면서도 피고인이 판결문정본 등을 위조하여 금원을 편취하려는 이 사건 범행에 처음부터 가담하여 함께 모의한 사실 자체를 부인하지 않았고, 
+        공소외 11도 제1심법정에서 피고인이 이 사건 범행에 관여하였는지에 대하여는 잘 모르겠지만 피고인을 
+        공소외 9 주식회사에서 3-4번 본 것은 분명하다고 진술한 바 있다. 원심이 위 각 진술들을 포함한 공범들의 검찰 및 제1심법정에서의 각 진술에 기초하여 피고인이 공범들과 공모하여 위조된 판결문정본 등을 행사하여 금원을 편취하려 하였다는 공소사실 부분을 모두 유죄로 인정하면서도, 판결문정본 등 위조 행위를 공모하였다는 부분의 증명력만을 배척한 것은 납득하기 어렵다. 원심이 지적하는 사정은 공범들끼리 서로 자신이 범행을 주도한 것이 아니라면서 책임을 미루는 과정에서 생긴 지엽적인 진술의 차이에 불과할 뿐, 피고인이 판결문정본 등을 위조하는 범행을 함께 모의한 사실 자체를 배척할만한 사정이라고 보기 어렵기 때문이다.  
+        또, 피고인은 ‘당시 
+        공소외 9 주식회사 기획실장으로 일하면서 
+        공소외 8의 지시로 내막은 모르는 상태에서 이 사건 토지를 답사한 것은 사실이나, 이 사건 판결문정본 위조 등 범행은 
+        공소외 8, 
+        공소외 11, 
+        공소외 12가 저지른 것이고 피고인은 가담한 사실이 없다’고 주장하나, 피고인도 처음부터 판결문정본 등 위조를 포함한 범행 전부를 모의하였다는 공범들의 진술이나, 앞서 본 
+        공소외 9 주식회사의 규모, 위 회사와 그 임·직원들의 재정 상황, 이 사건 판결문정본 위조 범행과 같은 시기, 장소에서 같은 방법으로 이루어진 
+        공소외 6 명의 부동산매매계약서 위조 범행에서 나타난 피고인의 역할과 구체적인 행동 등을 고려하면 위와 같은 주장은 도저히 믿을 수 없다. 
+        (3) 따라서 원심이 이 부분 공소사실에 대하여 그 입증이 충분하지 않다는 이유로 무죄를 선고한 것은 채증법칙을 위배하여 사실을 잘못 인정함으로써 판결에 영향을 미친 위법을 범한 것이다.   3. 파기의 범위  앞서 본 바와 같이, 원심판결 중 사문서위조죄 및 공문서위조죄 무죄 부분에 대한 검사의 상고는 정당하고, 피고인의 유죄 부분에 대한 상고 및 검사의 2000. 9. 8.자 자격모용사문서작성죄 및 같은 날 자격모용작성사문서행사죄 무죄 부분에 대한 상고는 모두 받아들일 수 없는 것이나, 함께 공소제기된 이 사건 각 공소사실 중 결국 유죄로 인정되는 부분에 대하여는 하나의 형이 선고되어야 할 것이므로, 원심판결 중 유죄 부분은 위 사문서위조죄 및 공문서위조죄 무죄 부분과 함께 파기하여 다시 심리하도록 한다(한편, 원심은 판시 각 조세범처벌법위반 행위에 대하여 
+        2004. 12. 31. 법률 제7321호로 개정된 현행 조세범처벌법 제11조의2 제1항 제1호 내지 
+        제4항을 각 적용하여 처벌하였다. 그러나 현행 조세범처벌법 부칙 제1항은 “이 법은 2005년 1월 1일부터 시행한다.”고 하고, 
+       제2항은 “
+        제11조의2 제1항 내지 
+        제4항의 개정규정은 이 법 시행 후 최초로 제출 또는 교부하거나 교부받는 분부터 적용한다.”고 하며, 현행 조세범처벌법 제11조의2와 
+        개정 전의 조세범처벌법 제11조의2를 비교하면 
+        제1항의 법정형은 동일하고 
+        제4항의 법정형은 더 중하게 변경되었으므로, 현행 법 시행 이전에 이루어진 이 사건 각 세금계산서 교부행위에 대하여는 현행 법으로 
+        개정되기 전의 조세범처벌법 제11조의2 제1항 혹은 
+        제4항을 적용하여야 할 것이다. 원심은 이를 간과하고 현행 법을 그대로 적용하였으나, 환송 후 유죄 부분을 다시 심판함에 있어서는 이 부분을 바로 잡을 필요가 있다). 
+        4. 결 론  그러므로 원심판결 중 2000. 9. 8.자 자격모용사문서작성 및 같은 날 자격모용작성사문서행사의 점에 대한 무죄 부분을 제외한 나머지 부분을 모두 파기하여 그 부분 사건을 다시 심리·판단하게 하기 위하여 원심법원에 환송하고, 검사의 나머지 상고를 기각하기로 하여 관여 대법관의 일치된 의견으로 주문과 같이 판결한다. 
+    대법관   고현철(재판장) 강신욱 양승태 김지형(주심)</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=3247578&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=14&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2020. 12. 10. 선고 2020도11471 판결[정보통신망이용촉진및정보보호등에관한법률위반(명예훼손)][공2021상,253]</t>
+  </si>
+  <si>
+    <t>【판시사항】  정보통신망 이용촉진 및 정보보호 등에 관한 법률 제70조 제2항 명예훼손죄의 구성요건 중 비방할 목적이 있는지와 피고인이 드러낸 사실이 거짓인지가 별개의 구성요건인지 여부(적극) 및 드러낸 사실이 거짓인 경우 비방할 목적이 당연히 인정되는지 여부(소극) / 위 규정에서 정한 모든 구성요건에 대한 증명책임의 소재(=검사) / ‘사람을 비방할 목적’의 의미와 판단 기준 및 ‘공공의 이익’을 위한 것과의 관계 / 드러낸 사실이 ‘공공의 이익’에 관한 것인지 판단하는 기준
+【판결요지】  정보통신망 이용촉진 및 정보보호 등에 관한 법률 제70조 제2항은 “사람을 비방할 목적으로 정보통신망을 통하여 공공연하게 거짓의 사실을 드러내어 다른 사람의 명예를 훼손한 자는 7년 이하의 징역, 10년 이하의 자격정지 또는 5천만 원 이하의 벌금에 처한다.”라고 정하고 있다. 이 규정에 따른 범죄가 성립하려면 피고인이 공공연하게 드러낸 사실이 거짓이고 그 사실이 거짓임을 인식하여야 할 뿐만 아니라 사람을 비방할 목적이 있어야 한다. 비방할 목적이 있는지 여부는 피고인이 드러낸 사실이 거짓인지 여부와 별개의 구성요건으로서, 드러낸 사실이 거짓이라고 해서 비방할 목적이 당연히 인정되는 것은 아니다. 그리고 이 규정에서 정한 모든 구성요건에 대한 증명책임은 검사에게 있다.
+  ‘사람을 비방할 목적’이란 가해의 의사와 목적을 필요로 하는 것으로서, 사람을 비방할 목적이 있는지는 드러낸 사실의 내용과 성질, 사실의 공표가 이루어진 상대방의 범위, 표현의 방법 등 표현 자체에 관한 여러 사정을 감안함과 동시에 그 표현으로 훼손되는 명예의 침해 정도 등을 비교·형량하여 판단하여야 한다. ‘비방할 목적’은 공공의 이익을 위한 것과는 행위자의 주관적 의도라는 방향에서 상반되므로, 드러낸 사실이 공공의 이익에 관한 것인 경우에는 특별한 사정이 없는 한 비방할 목적은 부정된다. 여기에서 ‘드러낸 사실이 공공의 이익에 관한 것인 경우’란 드러낸 사실이 객관적으로 볼 때 공공의 이익에 관한 것으로서 행위자도 주관적으로 공공의 이익을 위하여 그 사실을 드러낸 것이어야 한다. 그 사실이 공공의 이익에 관한 것인지는 명예훼손의 피해자가 공무원 등 공인(공인)인지 아니면 사인(사인)에 불과한지, 그 표현이 객관적으로 공공성·사회성을 갖춘 공적 관심 사안에 관한 것으로 사회의 여론형성이나 공개토론에 기여하는 것인지 아니면 순수한 사적인 영역에 속하는 것인지, 피해자가 명예훼손적 표현의 위험을 자초한 것인지 여부, 그리고 표현으로 훼손되는 명예의 성격과 침해의 정도, 표현의 방법과 동기 등 여러 사정을 고려하여 판단하여야 한다. 행위자의 주요한 동기와 목적이 공공의 이익을 위한 것이라면 부수적으로 다른 사익적 목적이나 동기가 포함되어 있더라도 비방할 목적이 있다고 보기는 어렵다.
+【참조조문】 정보통신망 이용촉진 및 정보보호 등에 관한 법률 제70조 제2항, 형사소송법 제308조
+【참조판례】 대법원 2011. 11. 24. 선고 2010도10864 판결 대법원 2020. 3. 2. 선고 2018도15868 판결(공2020상, 785)
+【전    문】【피 고 인】
+피고인
+【상 고 인】
+검사
+【원심판결】
+ 서울중앙지법 2020. 7. 30. 선고 2019노3820 판결
+【주    문】  상고를 기각한다.
+【이    유】  상고이유를 판단한다.  1.「정보통신망 이용촉진 및 정보보호 등에 관한 법률」(이하 ‘정보통신망법’이라 한다) 제70조 제2항은 “사람을 비방할 목적으로 정보통신망을 통하여 공공연하게 거짓의 사실을 드러내어 다른 사람의 명예를 훼손한 자는 7년 이하의 징역, 10년 이하의 자격정지 또는 5천만 원 이하의 벌금에 처한다.”라고 정하고 있다. 이 규정에 따른 범죄가 성립하려면 피고인이 공공연하게 드러낸 사실이 거짓이고 그 사실이 거짓임을 인식하여야 할 뿐만 아니라 사람을 비방할 목적이 있어야 한다. 비방할 목적이 있는지 여부는 피고인이 드러낸 사실이 거짓인지 여부와 별개의 구성요건으로서, 드러낸 사실이 거짓이라고 해서 비방할 목적이 당연히 인정되는 것은 아니다. 그리고 이 규정에서 정한 모든 구성요건에 대한 증명책임은 검사에게 있다.  ‘사람을 비방할 목적’이란 가해의 의사와 목적을 필요로 하는 것으로서, 사람을 비방할 목적이 있는지는 드러낸 사실의 내용과 성질, 사실의 공표가 이루어진 상대방의 범위, 표현의 방법 등 표현 자체에 관한 여러 사정을 감안함과 동시에 그 표현으로 훼손되는 명예의 침해 정도 등을 비교·형량하여 판단하여야 한다. ‘비방할 목적’은 공공의 이익을 위한 것과는 행위자의 주관적 의도라는 방향에서 상반되므로, 드러낸 사실이 공공의 이익에 관한 것인 경우에는 특별한 사정이 없는 한 비방할 목적은 부정된다. 여기에서 ‘드러낸 사실이 공공의 이익에 관한 것인 경우’란 드러낸 사실이 객관적으로 볼 때 공공의 이익에 관한 것으로서 행위자도 주관적으로 공공의 이익을 위하여 그 사실을 드러낸 것이어야 한다. 그 사실이 공공의 이익에 관한 것인지는 명예훼손의 피해자가 공무원 등 공인(공인)인지 아니면 사인(사인)에 불과한지, 그 표현이 객관적으로 공공성·사회성을 갖춘 공적 관심 사안에 관한 것으로 사회의 여론형성이나 공개토론에 기여하는 것인지 아니면 순수한 사적인 영역에 속하는 것인지, 피해자가 명예훼손적 표현의 위험을 자초한 것인지 여부, 그리고 표현으로 훼손되는 명예의 성격과 침해의 정도, 표현의 방법과 동기 등 여러 사정을 고려하여 판단하여야 한다. 행위자의 주요한 동기와 목적이 공공의 이익을 위한 것이라면 부수적으로 다른 사익적 목적이나 동기가 포함되어 있더라도 비방할 목적이 있다고 보기는 어렵다(대법원 2011. 11. 24. 선고 2010도10864 판결, 대법원 2020. 3. 2. 선고 2018도15868 판결 참조).  2. 이 사건 공소사실의 요지는 다음과 같다.  피고인은 공소외 1 협회 이사이고, 피해자는 미국 공소외 2 그룹 자산운용사(영문명 생략)의 최고경영자로 재직한 사람이다. 피고인은 2018. 10. 19.경 휴대전화를 이용하여 공소외 3 학회 ○○○○ 그룹채팅방에 ‘3,000억 원대 △△△ □□□□ 사기사건을 목격했다. 피해자가 사기꾼이라는 증거를 찾았다. 피해자는 공소외 2 그룹 Asset Management의 CEO라고 자신을 소개했지만 거짓이었다.’라는 내용의 글을 게시하였다. 그러나 사실은 피해자는 미국 공소외 2 그룹 자산운용사의 최고경영자였다. 이로써 피고인은 피해자를 비방할 목적으로 정보통신망을 통하여 공공연하게 거짓의 사실을 드러내어 피해자의 명예를 훼손하였다.  3. 원심은 피고인이 드러낸 사실이 거짓임을 인식하였거나 피해자를 비방할 목적이 있다는 점에 대하여 범죄의 증명이 없다고 보아, 이 사건 공소사실을 유죄로 판단한 제1심판결을 파기하고 무죄를 선고하였다. 상세한 이유는 다음과 같다.  가. 피고인은 피해자에게 직접 문자메시지를 보내 공소외 2 그룹 자산운용사의 최고경영자 자격을 사칭한 부분에 대하여 미국의 감독기관과 수사기관에 신고하겠다고 고지하는 등의 행위를 하였다. 피고인은 피해자가 공소외 2 그룹 자산운용사의 최고경영자가 아니며 이를 사칭하여 투자금을 편취하려고 한다는 확신이 있었던 것으로 보인다. 공소외 2 그룹 법무팀도 피고인으로부터 피해자가 공소외 2 그룹 자산운용사의 최고경영자가 맞는지 문의를 받는 과정에서 피해자가 회사 이름을 몰래 이용하여 사적 이익을 취득하려 한다고 오해하여 피해자에게 경고 메일을 보내기도 하였다. 그렇다면 위와 같은 피고인의 의심도 어느 정도 합리적인 것이라고 할 수 있다.  나. 피고인은 짧은 시간 제한된 만남의 기회에서 받은 단편적인 인상과 다소 부족한 검증 결과 등을 근거로 피해자가 공소외 2 그룹 자산운용사의 최고경영자 자격을 사칭하였다고 성급히 결론짓고 이를 정보통신망에 게시하였다. 이러한 피고인의 행위는 다소 부적절하거나 지나친 면이 있다. 하지만 당시는 정보의 불균형이 심한 블록체인 시장에 대한 투자가 과열 양상을 보여 선의의 피해자가 양산될 조짐마저 보였다. 피해자는 공소외 2 그룹 자산운용사의 최고경영자로서 금융 관련 국제 세미나 등에 초청되어 강연을 다니면서 ◇◇ 블록체인 스토리지의 코인 발행 프로젝트를 소개하고 투자금을 유치하고 있었으므로, 이와 관련하여 피해자의 금융업계 이력과 신빙성에 대한 비판과 검증을 할 필요가 있었다. 피고인이 게시글을 게시한 곳은 공소외 3 학회 회원들로 구성된 단체 대화방이었다. 이러한 사정을 종합하면, 피고인이 의혹을 제기한 주된 동기는 피해자를 비방하는 데 있기보다 금융업계에서 피해자와 피해자가 진행하는 프로젝트에 대한 검증이 필요하다는 것을 강조하는 데 있다.  4. 원심판결 이유를 위에서 본 법리와 기록에 비추어 살펴보면, 원심판결에 논리와 경험의 법칙에 반하여 자유심증주의의 한계를 벗어나거나 정보통신망법 위반(명예훼손)죄의 성립에 관한 법리를 오해한 잘못이 없다.  5. 검사의 상고는 이유 없으므로 이를 기각하기로 하여, 대법관의 일치된 의견으로 주문과 같이 판결한다.
+대법관   이동원(재판장) 김재형(주심) 민유숙 노태악</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2115102&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=15&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2013. 4. 26. 선고 2011도10797 판결[사기·마약류관리에관한법률위반(향정)·정신보건법위반·건강기능식품에관한법률위반][공2013상,996]</t>
+  </si>
+  <si>
+    <t>【판시사항】[1] 의사인 피고인이 전화를 이용하여 진찰한 것임에도 내원 진찰인 것처럼 가장하여 국민건강보험관리공단에 요양급여비용을 청구함으로써 진찰료 등을 편취하였다는 내용으로 기소된 사안에서, 피고인에게 사기죄를 인정한 원심판단이 정당하다고 한 사례
+[2] 마약류취급의료업자가 자신의 질병에 대한 치료 기타 의료 목적으로 그에 필요한 범위 내에서 마약 등을 투약하는 등의 행위가 구 ‘마약류 관리에 관한 법률’상 금지되는 마약류취급자의 ‘업무 외의 목적’을 위한 투약 등 행위에 해당하는지 여부(소극) 및 이때 자신에 대한 투약이 제3자에 대한 처방전 발부를 통해 이루어진 사정만으로 달리 보아야 하는지 여부(소극)
+【판결요지】[1] 의사인 피고인이 전화를 이용하여 진찰(이하 ‘전화 진찰’이라고 한다)한 것임에도 내원 진찰인 것처럼 가장하여 국민건강보험관리공단에 요양급여비용을 청구함으로써 진찰료 등을 편취하였다는 내용으로 기소된 사안에서, 당시에 시행되던 구 ‘국민건강보험 요양급여의 기준에 관한 규칙’(2010. 3. 19. 보건복지부령 제1호로 개정되기 전의 것)에 기한 보건복지부장관의 고시는 내원을 전제로 한 진찰만을 요양급여의 대상으로 정하고 있고 전화 진찰이나 이에 기한 약제 등의 지급은 요양급여의 대상으로 정하고 있지 아니하므로, 전화 진찰이 구 의료법(2009. 1. 30. 법률 제9386호로 개정되기 전의 것) 제17조 제1항에서 정한 ‘직접 진찰’에 해당한다고 하더라도 그러한 사정만으로 요양급여의 대상이 된다고 할 수 없는 이상, 전화 진찰을 요양급여대상으로 되어 있던 내원 진찰인 것으로 하여 요양급여비용을 청구한 것은 기망행위로서 사기죄를 구성하고, 피고인의 불법이득의 의사 또한 인정된다는 이유로, 피고인에게 유죄를 인정한 원심판단이 정당하다고 한 사례.
+[2] 의사가 자신의 질병을 직접 진찰하고 투약·치료하는 것이라고 하여 이를 의료행위에 해당하지 아니한다고 할 수 없고, 구 의료법(2009. 1. 30. 법률 제9386호로 개정되기 전의 것)이 이를 금지하는 규정을 두고 있지도 아니하다. 나아가 구 마약류 관리에 관한 법률(2010. 1. 18. 법률 제9932호로 개정되기 전의 것)은 마약류 등의 취급·관리를 적정히 함으로써 그 오용 또는 남용으로 인한 보건상의 위해를 방지하는 것을 목적으로 하는 것인데(제1조), 이 또한 마약류취급자인 의사가 자신에 대한 의료의 목적으로 마약 또는 향정신성의약품(이하 ‘마약 등’이라고 한다)을 투약하는 등의 행위를 금지하는 규정을 두고 있지 아니한 이상, 의사가 마약 등을 오용이나 남용하는 것이 아니라 자신의 질병에 대한 치료 기타 의료 목적으로 그에 필요한 범위 내에서 투약 등을 하는 것은 허용된다고 할 것이다. 또한 의사 자신에 대한 마약 등의 투약이 의료 목적으로 그에 필요한 범위 내에서 이루어지는 것이라면 그 처방전이 의사 자신이 아니라 제3자에 대한 것으로 발부되었다고 하더라도 그러한 처방전 발부에 대한 법적 책임은 별론으로 하고 그러한 사정만으로 이를 ‘업무 외의 목적’을 위한 투약이라고 할 수는 없다.
+【참조조문】[1] 형법 제347조 제1항, 구 의료법(2009. 1. 30. 법률 제9386호로 개정되기 전의 것) 제17조 제1항, 구 국민건강보험법(2010. 1. 18. 법률 제9932호로 개정되기 전의 것) 제39조 제1항(현행 제41조 제1항 참조) [2] 구 마약류 관리에 관한 법률(2010. 1. 18. 법률 제9932호로 개정되기 전의 것) 제1조, 제2조 제6호 (자)목[현행 제2조 제5호 (자)목 참조], 제4조 제1항, 제5조 제1항, 제61조 제1항 제5호(현행 제61조 제1항 제7호 참조)
+【전    문】【피 고 인】
+피고인
+【상 고 인】
+피고인
+【변 호 인】
+법무법인 통문 담당변호사 오인섭 외 2인
+【원심판결】
+ 서울중앙지법 2011. 7. 28. 선고 2011노596 판결
+【주    문】  원심판결 중 유죄 부분을 파기하고, 이 부분 사건을 서울중앙지방법원 합의부에 환송한다.
+【이    유】  상고이유를 판단한다.  1. 개인정신치료요법(집중요법) 시술 가장 요양급여비용 청구로 인한 사기의 점에 관하여  관련 법리에 비추어 기록을 살펴보면, 원심이 그 판시와 같은 이유로 이 부분 공소사실을 유죄로 인정한 것은 수긍할 수 있고, 거기에 상고이유의 주장과 같이 논리와 경험의 법칙을 위반하여 사실을 잘못 인정하거나 자백 및 이에 대한 보강증거에 관한 법리를 오해하는 등의 위법이 있다고 할 수 없다.  2. 유선 진술 청취 후 내원 진찰 가장 요양급여비용 청구로 인한 사기의 점에 관하여  가. 구 의료법(2009. 1. 30. 법률 제9386호로 개정되기 전의 것. 이하 같다) 제17조 제1항은 ‘의료업에 종사하고 직접 진찰한 의사’가 아니면 진단서·검안서·증명서 또는 처방전을 작성하여 환자에게 교부하지 못한다고 정하고 있다. 이 조항은 스스로 진찰을 하지 아니하고 처방전을 발급하는 행위를 금지하는 규정일 뿐이고, 대면 진찰을 하지 아니하였거나 충분한 진찰을 하지 아니한 상태에서 처방전을 발급하는 행위 일반을 금지하는 조항이 아니다. 따라서 죄형법정주의 원칙, 특히 유추해석 금지의 원칙상 전화나 화상 등을 이용하여 진찰(이하 ‘전화 진찰’이라고 한다)을 하였다는 사정만으로 ‘직접 진찰’을 한 것이 아니라고 볼 수 없다(대법원 2013. 4. 11. 선고 2010도1388 판결 참조).  한편 구 국민건강보험법(2010. 1. 18. 법률 제9932호로 개정되기 전)에 의하면 요양급여는 가입자 및 피부양자의 질병·부상·출산 등에 대하여 실시하는 진찰·검사, 약제·치료재료의 지급, 처치·수술 기타의 치료, 예방·재활, 입원 등을 말하는데(제39조 제1항), 국민건강보험을 규율하는 법령은 ① 원칙적으로 모든 진료행위를 요양급여대상으로 삼고, 요양급여의 구체적인 적용기준과 방법은 ‘국민건강보험 요양급여의 기준에 관한 규칙’과 보건복지부장관의 고시에 의하도록 하며, ② 거기에 규정되지 아니한 새로운 형태의 진료행위가 이루어지거나 기존 요양급여기준에 불합리한 점이 있으면 ‘국민건강보험 요양급여의 기준에 관한 규칙’이 정하는 여러 신청절차를 통하여 이를 요양급여대상으로 포섭하게 하고 있는 것으로 해석된다(대법원 2012. 6. 18. 선고 2010두27639, 27646 전원합의체 판결 등 참조).  나. 이 사건에 관하여 보건대, 제1심의 건강보험심사평가원에 대한 사실조회결과 등에 의하면, 이 부분 공소사실의 일시에 시행되던 구 ‘국민건강보험 요양급여의 기준에 관한 규칙’(2010. 3. 19. 보건복지부령 제1호로 개정되기 전의 것. 이하 같다)에 기한 보건복지부장관의 고시는 내원을 전제로 한 진찰만을 요양급여의 대상으로 정하고 있고 전화 진찰이나 이에 기한 약제 등의 지급은 요양급여의 대상으로 정하고 있지 아니한 사실을 알 수 있다.  그렇다면 전화 진찰이 구 의료법 제17조 제1항에서 정한 ‘직접 진찰’에 해당한다고 하더라도 그러한 사정만으로 요양급여의 대상이 된다고 할 수 없는 이상, 피고인이 전화 진찰하였음을 명시적으로 밝히면서 그에 따른 요양급여비용청구를 시도하거나 구 ‘국민건강보험 요양급여의 기준에 관한 규칙’에서 정한 신청절차를 통하여 전화 진찰이 요양급여대상으로 포섭될 수 있도록 하는 것은 별론으로 하고, 이 사건에서와 같이 전화 진찰을 요양급여대상으로 되어 있던 내원 진찰인 것으로 하여 요양급여비용을 청구한 것은 기망행위로서 사기죄를 구성한다고 할 것이고, 피고인의 불법이득의 의사 또한 인정된다고 보아야 한다.  다. 따라서 원심이 전화 진찰은 구 의료법상 진찰행위에 해당하지 아니한다고 판단한 것은 옳다고 할 수 없으나, 피고인이 전화 진찰을 한 것임에도 내원 진찰인 것처럼 요양급여비용을 청구하여 진찰료 등을 편취하였다는 이 부분 사기 공소사실을 유죄로 인정한 것은 결론에 있어서 정당하고, 거기에 상고이유의 주장과 같이 논리와 경험의 법칙을 위반하여 사실을 잘못 인정하거나 사기죄에 있어서의 기망행위나 불법이득의사에 관한 법리를 오해하는 등의 위법이 있다고 할 수 없다.  3. 타인 진료 가장 요양급여비용 청구로 인한 사기의 점에 관하여  관련 법리에 비추어 기록을 살펴보면, 원심이 그 판시와 같은 이유로 이 부분 사기 공소사실을 유죄로 인정한 것은 정당하고, 거기에 상고이유의 주장과 같이 논리와 경험의 법칙을 위반하여 사실을 잘못 인정하거나 사기죄에 있어서의 기망행위·고의·불법이득의사 및 손해 등에 관한 법리를 오해하거나 필요한 판단을 누락한 위법이 있다고 할 수 없다.  4. ‘마약류 관리에 관한 법률’ 위반(향정)의 점에 관하여  가. 이 부분 공소사실의 요지는 다음과 같다.  피고인은 정신과의원을 운영하는 정신과 전문의로서 마약류취급의료업자인데, 마약류취급의료업자는 그 업무 외의 목적을 위하여 향정신성의약품을 투약하거나 향정신성의약품을 기재한 처방전을 발부하여서는 아니됨에도,  ① 2008. 10. 23.경 피고인 본인의 불면증 등의 증상을 완화하기 위한 향정신성의약품인 졸피람정 등을 복용하기 위하여 피고인 본인 명의가 아닌 병원 직원 공소외인 명의의 30일분 처방전을 발부한 다음 향정신성의약품인 졸피뎀 성분이 함유된 졸피람정, 향정신성의약품인 플루파제팜이 함유된 라제팜정을 투약하였고,  ② 2009. 2. 24. 위와 같이 피고인 본인을 위하여 위 공소외인 명의의 30일분 처방전을 발부한 다음 향정신성의약품인 알프라졸람 성분이 함유된 알프람정을 투약하였다는 것이다.  나. 원심은 “피고인이 마약류 취급자격이 있는 의사로서 자신의 불면증 등을 해소 내지 완화하기 위하여 처방전을 발부하여 향정신성의약품을 투약하였다고 하더라도 임의로 다른 사람들의 명의를 이용하여 처방전을 발부하여 투약한 것을 업무상의 목적을 위한 것이라고 할 수 없다”는 제1심의 판단을 수긍하고서 이를 전제로 이 부분 공소사실을 유죄로 인정하였다.  다. 그러나 원심의 위와 같은 판단은 아래와 같은 이유에서 수긍할 수 없다.  ⑴ 구 ‘마약류 관리에 관한 법률’(2010. 1. 18. 법률 제9932호로 개정되기 전의 것. 이하 ‘구 마약류관리법’이라고 한다)은 마약류취급자 중 하나인 마약류취급의료업자를 의료기관에서 의료에 종사하는 의사로서 의료 목적으로 마약 또는 향정신성의약품(이하 ‘마약 등’이라고 한다)을 투약 또는 투약하기 위하여 교부하거나 마약 등을 기재한 처방전을 발부하는 자라고 정하고(제2조 제6호 자목), 나아가 마약류취급자는 업무 외의 목적을 위하여 마약 등을 투약하는 등의 행위를 하여서는 아니된다고 정하고 있다(제5조 제1항, 제4조 제1항 본문).  그런데 의사가 자신의 질병을 직접 진찰하고 투약·치료하는 것이라고 하여 이를 의료행위에 해당하지 아니한다고 할 수 없고, 구 의료법이 이를 금지하는 규정을 두고 있지도 아니하다. 나아가 구 마약류관리법은 마약류 등의 취급·관리를 적정히 함으로써 그 오용 또는 남용으로 인한 보건상의 위해를 방지하는 것을 목적으로 하는 것인데(제1조), 이 또한 마약류취급자인 의사가 자신에 대한 의료의 목적으로 마약 등을 투약하는 등의 행위를 금지하는 규정을 두고 있지 아니하고 있는 이상, 의사가 마약 등을 오용이나 남용하는 것이 아니라 자신의 질병에 대한 치료 기타 의료 목적으로 그에 필요한 범위 내에서 투약 등을 하는 것은 허용된다고 할 것이다.  또한 의사 자신에 대한 마약 등의 투약이 의료 목적으로 그에 필요한 범위 내에서 이루어지는 것이라면 그 처방전이 의사 자신이 아니라 제3자에 대한 것으로 발부되었다고 하더라도 그러한 처방전 발부에 대한 법적 책임은 별론으로 하고 그러한 사정만으로 이를 ‘업무 외의 목적’을 위한 투약이라고 할 수는 없다.  ⑵ 기록에 의하면 다음과 같은 사실을 알 수 있다.  ㈎ 피고인은 ‘비기질적 불면증’을 이유로 자신에 대하여 처방전을 발부하고서, ① 2007. 12. 21. 향정신성의약품인 라제팜정과 트리람정 30일분을 처방하여 투약하였고, ② 2008. 1. 21. 향정신성의약품인 라제팜정, 졸피람정, 트리람정 및 디아제팜정 15일분을 처방하여 투약하였으며, ③ 2008. 2. 2. 향정신성의약품인 라제팜정, 졸피람정 및 트리람정 30일분, 향정신성의약품인 디아제팜정 15일분을 처방하여 투약하였고, ④ 2008. 4. 1. 향정신성의약품인 라제팜정, 졸피람정, 트리람정, 알프람정 및 로라반정 28일분을 처방하여 투약하였으며, ⑤ 한편 2008. 5. 10.에는 향정신성의약품이 아닌 약품만을 처방하여 투약하였고, ⑥ 2008. 8. 21. 다시 향정신성의약품인 졸피람정 28일분을 처방하여 투약하였다.  ㈏ 이후 피고인은 이 부분 공소사실과 같이 직원인 공소외인에 대한 처방전 발부를 통하여, ① 2008. 10. 23. 향정신성의약품인 졸피람정과 라제팜정 30일분을 처방하여 투약하였고, ② 2009. 2. 24. 향정신성의약품인 알프람정 30일분을 처방하여 투약하였다.  ㈐ 그러나 그때부터 피고인에 대하여 경찰 내사가 착수된 2009. 8. 20.경까지 피고인이나 공소외인에 대하여 향정신성의약품에 관한 처방전이 발부된 적이 없었다.  ⑶ 위와 같은 사실관계에서 알 수 있거나 기록상 추가적으로 드러나는 다음과 같은 사정 등에 비추어 보면, 검사 제출의 증거만으로는 정신과 전문의로서 마약류취급자인 피고인이 공소외인에 대한 처방전 발부를 통하여 향정신성의약품을 자신에게 투약한 것이 피고인이 앓고 있다고 주장하는 기질적 불면증의 치료를 위한 것이 아니라거나 그 치료에 필요한 범위 내에서 이루어진 것이 아니어서 ‘업무 외의 목적’을 위한 것이었음이 합리적 의심의 여지 없이 증명되었다고 쉽사리 단정할 수 없다.  ① 피고인이 2007년 12월경부터 2008년 8월경까지 기질성 불면증을 이유로 정식으로 자신에 대하여 처방전을 발부하여 향정신성의약품을 투약하여 오고 있었다.  ② 피고인이 자신이나 공소외인에 대한 처방전 발부를 통하여 향정신성의약품을 투약함에 있어 자신 명의로의 처방기간과 공소외인 명의로의 처방기간이 서로 겹치지 아니하여 피고인이 각 처방에서 정하여진 1일 처방량 이상의 향정신성의약품을 처방받으려고 하지는 아니하였다고 봄이 상당하다.  ③ 피고인의 전체 투약기간이 2007년 12월경부터 2009년 2월경까지로 짧지 아니한 기간이기는 하나, 각 처방일시와 처방량을 고려할 때 그 기간 중간에 수개월 동안 투약이 이루어지지 아니한 적이 여러 차례 있었고(㉠ 2008. 4. 1.자 28일분 처방 이후부터 2008. 8. 21.자 28일분 처방 전까지 기간 중 약 3개월, ㉡ 2008. 8. 21.자 28일분 처방 이후부터 공소가 제기된 2008. 10. 23.자 30일분 처방 전까지 기간 중 약 1개월, ㉢ 2008. 10. 23.자 30일분 처방 이후부터 공소가 제기된 2009. 2. 24.자 30일분 처방 전까지 기간 중 약 3개월), 2008. 8. 21.자 처방 이후부터는 처방 대상 향정신성의약품의 종류 수가 전보다 상당히 줄어들었다.  ④ 공소가 제기된 2009. 2. 24.자 30일분 처방이 이루어진 후부터 피고인에 대하여 내사가 착수된 2009. 8. 20.까지 약 5개월 동안 피고인이 자신이나 공소외인에 대한 처방전 발부를 통하여 향정신성의약품을 처방받은 적이 없었다.  ⑤ 기록상 피고인이 공소외인 이외의 제3자에 대한 처방전 발부로 향정신성의약품을 투약하였다거나, 피고인이 자신이나 공소외인에 대한 처방전 발부로 투약하여 온 향정신성의약품이나 그 투약량이 의학적으로 피고인이 종전부터 자신에 대한 처방전에서 증상으로 명시하였던 기질적 불면증의 치료와 무관하다거나 그 치료에 필요한 범위를 벗어난 것이라고 인정할 수 있는 증거가 제출되어 있지 아니하다.  ⑷ 따라서 이 부분 공소사실을 유죄로 인정한 원심판결에는 논리와 경험의 법칙을 위반하여 사실을 잘못 인정하거나 구 마약류관리법 제5조 제1항이 정한 마약류취급자의 ‘업무 외의 목적’을 위한 투약 등 행위에 관한 법리를 오해하여 판결에 영향을 미친 위법이 있다고 할 것이다. 이 점을 지적하는 상고이유의 주장은 이유 있다.  5. 파기의 범위  그렇다면 원심판결 중 ‘마약류 관리에 관한 법률’ 위반(향정) 부분은 파기되어야 한다. 그런데 원심이 이 부분과 나머지 유죄 부분을 형법 제37조 전단의 경합범으로 인정하여 하나의 형을 선고하였으므로, 결국 원심판결 중 유죄 부분은 전부 파기를 면할 수 없다.  6. 결론  그러므로 원심판결 중 유죄 부분을 파기하고, 이 부분 사건을 다시 심리·판단하도록 원심법원에 환송하기로 하여, 관여 대법관의 일치된 의견으로 주문과 같이 판결한다.
+대법관   고영한(재판장) 양창수(주심) 박병대 김창석</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2059371&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=16&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2011. 7. 28. 선고 2011도5299 판결[사기·정보통신망이용촉진및정보보호등에관한법률위반(정보통신망침해등)·정보통신망이용촉진및정보보호등에관한법률위반][공2011하,1893]</t>
+  </si>
+  <si>
+    <t>【판시사항】
+        [1] 
+          정보통신망 이용촉진 및 정보보호 등에 관한 법률 제72조 제1항 제1호, 
+          제48조 제1항 위반죄의 성립 요건
+        [2] 피고인이, 사용이 정지되거나 사용할 수 없게 된 휴대전화를 ‘유심칩(USIM Chip) 읽기’ 등을 통하여 다량의 문자메시지를 발송할 수 있는 상태로 조작하기 위한 목적으로 이동통신회사의 정보통신망에 접속한 사안에서, 위 행위가 
+          정보통신망 이용촉진 및 정보보호 등에 관한 법률 제72조 제1항 제1호, 
+          제48조 제1항 위반죄에 해당한다고 본 원심판단을 수긍한 사례
+        [3] 피고인이, 휴대전화 문자메시지를 발송하더라도 이용대금을 납부할 의사와 능력이 없는데도, 단독으로 또는 공범들과 함께 사용이 정지되거나 사용할 수 없게 된 휴대전화를 구입한 후 이른바 ‘대포폰’으로 유통시켜 사용하도록 하거나 ‘유심칩(USIM Chip) 읽기’를 통하여 해당 휴대전화의 문자발송제한을 해제하고 광고성 문자를 대량 발송하는 방법으로 이동통신회사들로부터 이용대금 상당의 재산상 이득을 취득하였다는 내용으로 기소된 사안에서, 피고인의 행위가 ‘사람을 기망하여 재산상 이득을 취득한 경우’에 해당한다고 볼 수 없는데도 이와 달리 보아 피고인에게 사기죄를 인정한 원심판단에 법리오해의 위법이 있다고 한 사례
+    【판결요지】
+        [1] 
+          정보통신망 이용촉진 및 정보보호 등에 관한 법률 제72조 제1항 제1호, 
+          제48조 제1항 위반죄는, 정당한 접근권한 없이 또는 허용된 접근권한을 넘어 정보통신망에 침입하면 성립한다.
+        [2] 피고인이, 사용이 정지되거나 사용할 수 없게 된 휴대전화를 ‘유심칩(USIM Chip) 읽기’ 등을 통하여 다량의 문자메시지를 발송할 수 있는 상태로 조작하기 위한 목적으로 피해자 이동통신회사의 정보통신망에 접속한 사안에서, 피해자 회사의 위탁대리점 계약자가 피해자 회사의 전산망에 접속하여 ‘유심칩 읽기’를 할 수 있는 경우는 개통, 불통, 휴대폰개설자의 유심칩 변경 등 세 가지 경우로 한정되어 있으므로, 피고인의 행위는 허용된 접근권한을 초과하여 피해자 회사의 정보통신망에 침입한 것으로서 
+          정보통신망 이용촉진 및 정보보호 등에 관한 법률 제72조 제1항 제1호, 
+          제48조 제1항 위반죄에 해당한다고 본 원심판단을 수긍한 사례.
+        [3] 피고인이, 휴대전화 문자메시지를 발송하더라도 이용대금을 납부할 의사와 능력이 없는데도, 단독으로 또는 공범들과 함께 이용대금 미납 등의 사유로 사용이 정지되거나 유심칩(USIM Chip) 분실로 사용할 수 없게 된 휴대전화를 구입한 후 이른바 ‘대포폰’으로 유통시켜 사용하도록 하거나 유심칩 읽기를 통하여 해당 휴대전화의 문자발송제한(1일 500개)을 해제하고 광고성 문자를 대량 발송하는 방법으로 이동통신회사들로부터 이용대금 상당의 재산상 이득을 취득하였다는 내용으로 기소된 사안에서, 피고인이 이동통신 판매대리점의 컴퓨터를 이용하여 이동통신회사들의 전산망에 접속한 다음 전산상으로 사용정지된 휴대전화를 사용할 수 있도록 하거나 유심칩 읽기를 통해 문자메시지 발송한도를 해제한 것은 전산상 자동으로 처리된 것일 뿐 사기죄 구성요건인 ‘사람을 기망하여 재산상 이득을 취득한 경우’에 해당한다고 볼 수 없는데도, 이와 달리 보아 피고인에게 사기죄를 인정한 원심판단에 법리오해의 위법이 있다고 한 사례.
+    【참조조문】[1]         정보통신망 이용촉진 및 정보보호 등에 관한 법률 제48조 제1항,         제72조 제1항 제1호 [2]         정보통신망 이용촉진 및 정보보호 등에 관한 법률 제48조 제1항,         제72조 제1항 제1호 [3]         형법 제30조,         제347조      
+    【참조판례】[1]         대법원 2005. 11. 25. 선고 2005도870 판결(공2006상, 71)        대법원 2010. 7. 22. 선고 2010도63 판결(공2010하, 1691)      
+  【전    문】
+      【피 고 인】
+          피고인
+      【상 고 인】
+        피고인
+      【변 호 인】
+        변호사 강정호
+      【원심판결】
+        울산지법 2011. 4. 22. 선고 2010노1648 판결
+    【주    문】  원심판결 중 피고인에 대한 부분을 파기하고, 이 부분 사건을 울산지방법원 합의부에 환송한다. 
+    【이    유】  상고이유(상고이유서 제출기간 경과 후에 제출된 상고이유보충서의 기재는 상고이유를 보충하는 범위 내에서)를 본다.   1. 정보통신망 이용촉진 및 정보보호 등에 관한 법률 위반(정보통신망침해등)죄에 관한 상고이유에 대하여
+          정보통신망 이용촉진 및 정보보호 등에 관한 법률(이하 ‘정보통신망법’이라 한다) 제72조 제1항 제1호, 
+          제48조 제1항 위반죄는 정당한 접근권한 없이 또는 허용된 접근권한을 넘어 정보통신망에 침입하면 성립한다
+        (대법원 2010. 7. 22. 선고 2010도63 판결 등 참조). 
+        원심은, 피해자 회사의 위탁대리점 계약자가 휴대전화 가입자들에 대한 서비스를 위하여 피해자 회사의 전산망에 접속하여 유심칩(USIM Chip) 읽기를 할 수 있는 경우는 개통, 불통, 휴대폰개설자의 유심칩 변경 등 세 가지 경우로 한정되는데, 피고인은 오직 요금수납 및 유심칩 읽기를 통하여 휴대전화를 다량의 문자메시지 발송을 할 수 있는 상태로 조작하기 위한 목적에서 피해자 회사의 정보통신망에 접속한 것이므로 이는 허용된 접근권한을 초과하여 피해자 회사의 정보통신망에 침입한 것으로서 
+        정보통신망법 제72조 제1항 제1호, 
+        제48조 제1항 위반죄에 해당한다고 판단하였다. 
+        위 법리와 기록에 비추어 살펴보면, 원심의 판단은 정당하고, 거기에 상고이유로 주장하는 바와 같은 
+        정보통신망법 제72조 제1항 제1호, 
+        제48조 제1항에 관한 법리오해 등의 위법이 없다. 
+        2. 사기죄에 관한 상고이유에 대하여   사기죄는 사람을 기망하여 재물의 교부를 받거나 재산상의 이익을 취득하거나 제3자로 하여금 취득하게 하는 경우에 성립한다(대법원 2003. 10. 10. 선고 2003도3516 판결, 
+        대법원 2011. 4. 14. 선고 2011도769 판결 등 참조).
+        이 사건 사기의 점에 관한 공소사실의 요지는, 피고인이 휴대전화를 이용하여 문자메시지를 발송하더라도 그 이용대금을 납부할 의사와 능력이 없음에도 불구하고, 단독으로 또는 공범들과 함께 이용대금 미납, 불법스팸문자발송번호, 명의자의 사용정지신청 등의 사유로 사용이 정지되거나 유심칩이 분실되어 사용할 수 없게 된 휴대전화를 구입한 후 이동통신 판매대리점에 있는 컴퓨터를 이용하여 그 사용대금을 ARS로 카드결제하였다가 곧바로 취소하는 절차(이 경우 요금결제 시부터 이동통신회사들이 대금결제 취소 사실을 알고 재차 휴대폰 사용정지 조치를 취할 때까지 사이에 휴대전화 사용제한 조치가 일시 해제된다), 가입자해지 및 복구절차, 사용정지신청 해제절차, 유심칩 재등록절차 등을 통하여 해당 휴대전화를 사용할 수 있도록 한 다음, 그 휴대전화를 중고 휴대전화로 교체하여 이른바 대포폰으로 유통시켜 사용하도록 하거나 이동통신 판매대리점에 있는 유심칩 카드리더기가 연결된 컴퓨터를 이용하여 유심칩 읽기를 함으로써 해당 휴대전화의 문자발송제한(1일 500개)을 해제하고 광고성 문자를 대량 발송하는 방법으로 이동통신회사들로부터 그 이용대금 상당의 재산상 이득을 취득하였다는 것이다.  이에 대하여 원심은 휴대전화 사용제한 해제 프로그램이나 문자발송제한 해제 프로그램에는 이동통신회사 직원들의 의사가 화체되어 있으니 피고인의 위와 같은 단시간 내에 고의적 수납취소가 예정되어 있는 미납요금의 결제나 대량의 스팸문자메시지 발송을 위한 유심칩 읽기는 사기죄의 구성요건인 사람에 대한 기망행위에 해당한다고 보아 피고인에 대한 이 부분 공소사실을 유죄로 판단하였다.   그러나 원심이 인정한 사실과 기록에 의하면, 원심이 이 사건 공소사실 중 사기죄에서의 기망으로 본 행위 중 휴대전화 사용제한의 해제 과정에서의 이용대금 결제와 취소는 피고인 등이 이동통신 판매대리점의 컴퓨터를 이용하여 이동통신회사들의 전산망에 접속하여 휴대전화 번호와 신용카드 번호 등을 입력하면 전산상 자동적으로 처리되었고, 가입자해지 및 복구, 사용정지신청 해제, 유심칩 재등록도 피고인 등이 이동통신 판매대리점의 컴퓨터를 이용하여 이동통신회사인 공소외 주식회사의 전산망에 접속하여 휴대전화 명의자의 주민등록번호 등을 입력하면 전산상 자동적으로 처리되었으며, 문자발송제한 해제를 위한 유심칩 읽기 역시 유심칩 카드리더기가 연결된 이동통신 판매대리점의 컴퓨터를 통해 위 이동통신회사의 전산망에 접속한 다음 유심칩 소지 고객의 주민등록번호를 입력하여 그 전산망에 있는 해당 고객의 정보를 불러와 읽기 명령을 하면 전산상 자동적으로 처리되었다는 것일 뿐, 위와 같은 휴대전화의 사용정지를 해제하여 사용하게 된 일련의 과정에서 피고인이 이동통신회사들의 직원을 상대로 기망하는 언행을 한 것은 아님을 알 수 있다.  이를 앞서 본 법리에 비추어 살펴보면, 피고인이 컴퓨터를 이용하여 이동통신회사들의 전산망에 접속한 다음 전산상으로 사용정지된 휴대전화를 사용할 수 있도록 하거나 유심칩 읽기를 통해 문자메시지 발송한도를 해제한 것을 두고 사기죄의 구성요건으로서의 사람을 기망하여 재산상 이득을 취득한 경우에 해당한다고 볼 수는 없다.   그럼에도 불구하고 원심은 이와 달리 피고인의 미납요금의 결제나 유심칩 읽기가 사람을 기망하여 재산상 이득을 취득한 경우에 해당한다고 보아 피고인에 대한 이 부분 공소사실을 유죄로 판단하였는바, 이러한 원심의 판단에는 사기죄에 관한 법리를 오해하여 판결에 영향을 미친 위법이 있다.  따라서 원심판결 중 각 사기죄에 관한 부분은 파기를 면할 수 없다. 피고인에 대한 나머지 죄는 위와 같이 파기되는 각 사기죄와 
+        형법 제37조 전단의 경합범 관계에 있다는 이유로 원심에서 하나의 형이 선고되었으므로 역시 파기되어야 한다. 
+        3. 결론   그러므로 원심판결 중 피고인에 대한 부분을 파기하고, 이 부분 사건을 다시 심리·판단하도록 원심법원에 환송하기로 하여 관여 대법관의 일치된 의견으로 주문과 같이 판결한다.
+    대법관   민일영(재판장) 김능환(주심) 안대희 이인복</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2066099&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=17&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2007. 7. 12. 선고 2006도3892 판결[사기·사문서위조·위조사문서행사·업무상횡령][공2007.8.15.(280),1315]</t>
+  </si>
+  <si>
+    <t>【판시사항】
+        [1] 
+          형사소송법 제365조에 따라 피고인의 진술 없이 판결하기 위한 요건과 형사소송법상 공시송달을 하기 위한 요건 및 항소한 피고인이 거주지 변경신고를 하지 아니한 경우에도 같은 요건이 적용되는지 여부(적극)
+        [2] 항소한 피고인이 거주지 변경신고를 하지 아니한 상태에서, 기록에 나타난 피고인의 휴대전화번호와 집전화번호로 연락하여 송달받을 장소를 확인해 보는 등의 조치를 취하지 아니한 채 곧바로 공시송달을 명하고 피고인의 진술 없이 판결을 한 원심의 조치가 
+          형사소송법 제63조 제1항, 
+          제365조에 위배된다고 한 사례
+    【판결요지】
+        [1] 
+          형사소송법 제370조, 
+          제276조에 의하면, 항소심에서도 피고인의 출석 없이는 개정하지 못하고, 다만 
+          같은 법 제365조에 의하면, 피고인이 항소심 공판기일에 출정하지 아니한 때에는 다시 기일을 정하고 피고인이 정당한 이유 없이 다시 정한 기일에도 출정하지 아니한 때에는 피고인의 진술 없이 판결할 수 있도록 되어 있으나, 이와 같이 피고인의 진술 없이 판결할 수 있기 위해서는 피고인이 적법한 공판기일 소환장을 받고서 정당한 이유 없이 출정하지 아니할 것을 필요로 한다. 그리고 
+          형사소송법 제63조 제1항에 의하면, 형사소송절차에서 피고인에 대한 공시송달은 피고인의 주거, 사무소, 현재지를 알 수 없는 때에 한하여 이를 할 수 있는 것인바, 기록상 피고인의 집 전화번호 또는 휴대 전화번호 등이 나타나 있는 경우에는 위 전화번호로 연락하여 송달받을 장소를 확인하여 보는 등의 시도를 해보아야 하고, 그러한 조치를 취하지 아니한 채 곧바로 공시송달의 방법에 의한 송달을 하고 피고인의 진술 없이 판결을 하는 것은 
+          형사소송법 제63조 제1항, 
+          제365조에 위배되어 허용되지 아니한다. 이러한 법리는 피고인이 제1심판결에 대하여 항소를 하여 소송이 계속된 사실을 알면서 법원에 거주지 변경신고를 하지 않은 잘못을 저질러서 그로 인하여 송달이 되지 아니하자 법원이 공시송달의 방법에 의한 송달을 하게 된 경우에도 마찬가지이다. 왜냐하면, 법원의 공시송달 절차에 명백한 위법이 있음에도 불구하고 피고인에게 거주지 변경신고를 하지 아니한 잘못이 있다 하여 위 위법한 공시송달 절차에 기한 재판이 적법하게 되는 것은 아니기 때문이다.
+        [2] 항소한 피고인이 거주지 변경신고를 하지 아니한 상태에서, 기록에 나타난 피고인의 휴대전화번호와 집전화번호로 연락하여 송달받을 장소를 확인해 보는 등의 조치를 취하지 아니한 채 곧바로 공시송달을 명하고 피고인의 진술 없이 판결을 한 원심의 조치가 
+          형사소송법 제63조 제1항, 
+          제365조에 위배된다고 한 사례.
+    【참조조문】[1]                 형사소송법 제63조 제1항,                 제276조,                 제365조,                 제370조 [2]                 형사소송법 제63조 제1항,                 제365조      
+    【참조판례】[1]                 대법원 2005. 2. 25. 선고 2004도7145 판결      
+  【전    문】
+      【피 고 인】
+          피고인
+      【상 고 인】
+        피고인
+      【원심판결】
+        서울중앙지법 2002. 3. 8. 선고 2001노6606 판결
+    【주    문】원심판결을 파기하고, 사건을 서울중앙지방법원 합의부에 환송한다. 
+    【이    유】상고이유를 판단한다.  1. 
+          형사소송법 제370조, 
+          제276조에 의하면, 항소심에서도 피고인의 출석 없이는 개정하지 못하고, 다만 
+          같은 법 제365조에 의하면, 피고인이 항소심 공판기일에 출정하지 아니한 때에는 다시 기일을 정하고 피고인이 정당한 이유 없이 다시 정한 기일에도 출정하지 아니한 때에는 피고인의 진술 없이 판결할 수 있도록 되어 있으나, 이와 같이 피고인의 진술 없이 판결할 수 있기 위해서는 피고인이 적법한 공판기일 소환장을 받고서 정당한 이유 없이 출정하지 아니할 것을 필요로 한다고 할 것이다. 그리고 
+          형사소송법 제63조 제1항에 의하면, 형사소송절차에서 피고인에 대한 공시송달은 피고인의 주거, 사무소, 현재지를 알 수 없는 때에 한하여 이를 할 수 있는 것인바, 기록상 피고인의 집 전화번호 또는 휴대 전화번호 등이 나타나 있는 경우에는 위 전화번호로 연락하여 송달받을 장소를 확인하여 보는 등의 시도를 해보아야 하고, 그러한 조치를 취하지 아니한 채 곧바로 공시송달의 방법에 의한 송달을 하고 피고인의 진술 없이 판결을 하는 것은 
+          형사소송법 제63조 제1항, 
+          제365조에 위배되어 허용되지 아니한다
+        (
+        대법원 2005. 2. 25. 선고 2004도7145 판결 등 참조).
+        이러한 법리는 피고인이 제1심판결에 대하여 항소를 하여 소송이 계속된 사실을 알면서 법원에 거주지 변경신고를 하지 않은 잘못을 저질러서 그로 인하여 송달이 되지 아니하자 법원이 공시송달의 방법에 의한 송달을 하게 된 경우에도 마찬가지라고 할 것이다. 왜냐하면, 법원의 공시송달 절차에 명백한 위법이 있음에도 불구하고 피고인에게 거주지 변경신고를 하지 아니한 잘못이 있다 하여 위 위법한 공시송달 절차에 기한 재판이 적법하게 되는 것은 아니기 때문이다.
+        2. 기록에 비추어 살펴보면, 원심은, 피고인의 항소로 이 사건 소송기록이 접수되자 공소장 및 제1심판결문에 피고인의 주거로 기재된 ‘서울 강동구 천호동 
+        (지번 생략)’로 소송기록접수통지서를 송달하였으나 3회에 걸쳐 폐문부재로 송달불능이 되었고, 다시 소송기록접수통지서와 국선변호인선정에 관한 고지서를 송달하였으나 이사불명으로 송달불능이 되었다. 이에 원심은 위 주거를 관할하는 경찰서에 피고인에 대한 소재탐지를 촉탁하였는데, 관할 경찰서로부터 “피고인의 주소지는 위 주거지로 되어 있으나, 피고인은 
+        공소외 1과 동거하다가 헤어지고 불상지로 이사를 갔다. 
+        공소외 1의 말에 의하면 피고인은 서울 강동구 성내동 시장 부근에서 다른 여자와 동거를 하고 있다.”는 내용과 피고인의 휴대전화번호가 기재된 소재탐지보고를 받게 되었다. 한편, 피해자 
+        공소외 2가 수사기관에 제출한 고소장에는 피고인의 다른 휴대전화번호가 기재되어 있고, 제1심 진행 중 피고인이 제출한 공판기일 연기신청서 및 합의서, 수사기관 작성의 피고인에 대한 각 피의자신문조서 등에는 피고인의 집 전화번호가 기재되어 있었다.
+        그러나 원심은 위 휴대전화번호 및 집 전화번호로 피고인과의 전화 통화를 시도하여 보지 아니한 채 피고인에 대한 소송기록접수통지서 및 공판기일소환장, 기타 서류의 송달을 공시송달로 할 것을 명하여, 그 이후 피고인이 공판기일에 한번도 출석하지 아니한 채 공판절차를 진행한 끝에 제1심판결을 직권으로 파기하고 피고인을 징역 4월 및 징역 2월에 처하는 판결을 선고하였다.  3. 앞서 본 법리에 비추어 보면, 원심으로서는 공시송달 명령을 함에 앞서 위 전화번호들로 연락을 하여 송달받을 장소를 확인하여 보는 등의 시도를 해 보았어야 할 것임에도 불구하고, 이러한 조치를 취하지 아니한 채 피고인의 주거, 사무소와 현재지를 알 수 없다고 단정하여 곧바로 공시송달의 방법에 의한 송달을 하고 피고인의 진술 없이 판결을 한 것은 
+        형사소송법 제63조 제1항, 
+        제365조에 위배된다고 할 것이고, 이는 소송절차가 법령에 위배되어 판결에 영향을 미친 때에 해당한다고 할 것이다. 이점을 지적하는 상고이유의 주장은 이유 있다.
+        4. 그러므로 나머지 상고이유에 대한 판단을 생략한 채 원심판결을 파기하고, 사건을 다시 심리한 후 판단하게 하기 위하여 원심법원에 환송하기로 하여 관여 법관의 일치된 의견으로 주문과 같이 판결한다.
+    대법관   김영란(재판장) 김황식 이홍훈(주심) 안대희</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=3264359&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=18&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2021. 7. 29. 선고 2021도3520 판결[사기ㆍ사문서위조ㆍ전기통신사업법위반][공2021하,1664]</t>
+  </si>
+  <si>
+    <t>【판시사항】
+전기통신사업법 제30조 본문에서 정한 ‘타인의 통신을 매개’한다는 것과 ‘타인의 통신용으로 제공’한다는 것의 의미 / 통신이 매개되거나 전기통신역무를 제공받은 타인이 통신의 매개 또는 제공을 요청하였거나 통신의 매개 또는 제공 행위에 관여하였던 경우에도 그 매개 또는 제공 행위가 위 조항 본문에서 정한 ‘타인의 통신을 매개’하는 행위 또는 ‘타인의 통신용으로 제공’하는 행위에 해당할 수 있는지 여부(적극)
+【판결요지】
+전기통신사업법 제30조 본문은 ‘누구든지 전기통신사업자가 제공하는 전기통신역무를 이용하여 타인의 통신을 매개하거나 이를 타인의 통신용으로 제공하여서는 아니 된다.’고 규정한다. 이는 정당한 권한 없이 다른 전기통신사업자가 제공하는 전기통신역무를 이용하여 자신이 제공받는 역무와 동종 또는 유사한 역무를 제공함으로써 전기통신사업자의 사업에 지장을 초래하거나 통신시장질서를 교란하는 행위를 막기 위한 취지의 조항이다. 여기에서 ‘타인의 통신을 매개’한다는 것은 전기통신사업자가 제공하는 전기통신역무를 이용하여 다른 사람들 사이의 통신을 연결해 주는 행위를 의미하고, ‘타인의 통신용으로 제공’한다는 것은 전기통신사업자가 제공하는 전기통신역무를 다른 사람이 통신을 위하여 이용하도록 제공하는 행위를 의미한다. 위 조항의 문언과 입법 취지에 비추어 볼 때 통신이 매개되거나 전기통신역무를 제공받은 타인이 통신의 매개 또는 제공을 요청하였거나 통신의 매개 또는 제공 행위에 관여하였던 경우에도 그 매개 또는 제공 행위는 위 조항 본문이 정한 ‘타인의 통신을 매개’하는 행위 또는 ‘타인의 통신용으로 제공’하는 행위에 해당할 수 있고, 위 조항 단서 각호의 경우에 해당하지 않는 한 이러한 행위는 금지된다.
+【참조조문】전기통신사업법 제30조
+【참조판례】헌법재판소 2002. 5. 30. 선고 2001헌바5 전원재판부 결정(헌공69, 472)
+【전    문】【피 고 인】
+피고인
+【상 고 인】
+피고인 및 검사
+【변 호 인】
+변호사 홍기정
+【원심판결】
+서울동부지법 2021. 2. 17. 선고 2020노1337 판결
+【주    문】원심판결을 파기하고 사건을 서울동부지방법원에 환송한다. 
+【이    유】검사의 상고이유를 판단한다.  1. 타인통신매개로 인한 전기통신사업법 위반의 점(주위적 공소사실) 관련  가. 이 부분 공소사실의 요지  보이스피싱 조직은 중국 등 해외에서 콜센터를 운영하면서 불특정 다수의 사람들을 상대로 무작위로 전화를 걸어 금융기관 직원 등을 사칭하여 금원을 편취하는 수법으로 범행하는 조직으로, 성명불상의 총책은 조직원 간 유기적인 연락을 관리하는 역할, 성명불상의 유인책은 국내 피해자들에게 전화를 걸어 금원을 요구하는 역할, 성명불상의 수거책은 피해자들로부터 금원을 받는 역할, 성명불상의 중간 조직책[위챗 대화명(대화명 1 생략), (대화명 2 생략)]은 성명불상의 총책으로부터 지시를 받아 콜센터에서 인터넷망으로 접속하면 국내 휴대전화번호로 변경되어 피해자들의 전화기에 표시되도록 하는 통신장비(Voice over IP Gateway, 이하 ‘VoIP 게이트웨이’라 함)를 관리하는 역할, 피고인은 성명불상의 중간 조직책으로부터 지시를 받고 유심을 구매하여 중국으로 전달하거나 국내에 있는 고시원 등에 VoIP 게이트웨이를 설치ㆍ관리하는 역할을 분담하기로 순차 모의하였다.  피고인은 2020. 7. 8.경 타인 명의로 개통된 ‘(휴대전화번호 생략)’ 유심을 구입하여 보이스피싱 조직에 전달하는 한편, VoIP 게이트웨이를 설치하여 관리하면서 보이스피싱 조직원들이 국내 휴대전화번호인 ‘(휴대전화번호 생략)’를 사용하는 전화로 송신할 수 있도록 한 것을 비롯하여, 2020. 6. 29.경부터 2020. 7. 15.경까지 위와 같은 방법으로 총 47개의 휴대전화번호를 이용하여 송신할 수 있도록 함으로써, 성명불상자와 공모하여 전기통신사업자가 제공하는 전기통신역무를 이용하여 타인의 통신을 매개하였다.  나. 원심의 판단  원심은, 타인통신매개로 인한 전기통신사업법 위반죄가 성립하기 위해서는 전화 통화를 한 성명불상의 보이스피싱 조직원과 보이스피싱 피해자들이 피고인과의 관계에서 ‘타인’에 해당하여야 하는데, 이 부분 공소사실은 피고인이 매개한 통신의 일방 당사자인 위 성명불상의 보이스피싱 조직원과 피고인이 타인통신매개로 인한 전기통신사업법 위반죄의 공동정범임을 전제로 한 것이므로, 위 공소사실 자체로 위 성명불상의 보이스피싱 조직원은 피고인과의 관계에서 ‘타인’에 해당한다고 볼 수 없다는 이유로, 이 부분 공소사실을 무죄로 판단하였다.   다. 대법원의 판단  그러나 원심의 판단은 다음과 같은 이유로 받아들일 수 없다.   (1) 전기통신사업법 제30조 본문은 ‘누구든지 전기통신사업자가 제공하는 전기통신역무를 이용하여 타인의 통신을 매개하거나 이를 타인의 통신용으로 제공하여서는 아니 된다.’고 규정한다. 이는 정당한 권한 없이 다른 전기통신사업자가 제공하는 전기통신역무를 이용하여 자신이 제공받는 역무와 동종 또는 유사한 역무를 제공함으로써 전기통신사업자의 사업에 지장을 초래하거나 통신시장질서를 교란하는 행위를 막기 위한 취지의 조항이다(헌법재판소 2002. 5. 30. 선고 2001헌바5 전원재판부 결정 참조). 여기에서 ‘타인의 통신을 매개’한다는 것은 전기통신사업자가 제공하는 전기통신역무를 이용하여 다른 사람들 사이의 통신을 연결해 주는 행위를 의미하고, ‘타인의 통신용으로 제공’한다는 것은 전기통신사업자가 제공하는 전기통신역무를 다른 사람이 통신을 위하여 이용하도록 제공하는 행위를 의미한다. 위 조항의 문언과 입법 취지에 비추어 볼 때 통신이 매개되거나 전기통신역무를 제공받은 타인이 통신의 매개 또는 제공을 요청하였거나 통신의 매개 또는 제공 행위에 관여하였던 경우에도 그 매개 또는 제공 행위는 위 조항 본문이 정한 ‘타인의 통신을 매개’하는 행위 또는 ‘타인의 통신용으로 제공’하는 행위에 해당할 수 있고, 위 조항 단서 각호의 경우에 해당하지 않는 한 이러한 행위는 금지된다.  (2) 원심판결 이유와 적법하게 채택한 증거에 의하면, 피고인은 성명불상의 보이스피싱 중간 조직책[위챗 대화명(대화명 1 생략), (대화명 2 생략)]의 지시를 받아 제3자 명의로 개통된 유심이 연결된 VoIP 게이트웨이를 설치 및 관리하는 방법으로 성명불상의 보이스피싱 유인책이 보이스피싱 피해자들과 전화 통화를 할 수 있도록 매개한 사실을 알 수 있다. 위 사실을 앞서 본 법리에 비추어 보면, 피고인의 행위는 위 성명불상의 보이스피싱 중간 조직책 등과 공모하여 타인인 보이스피싱 유인책과 피해자들 사이의 통신을 매개한 경우에 해당한다.   (3) 그럼에도 원심은 판시와 같은 이유만을 들어 이 부분 공소사실을 무죄로 판단하였다. 이러한 원심의 판단에는 타인통신매개로 인한 전기통신사업법 위반죄의 성립에 관한 법리를 오해하여 필요한 심리를 다하지 아니하여 판결에 영향을 미친 잘못이 있고, 이를 지적하는 취지의 검사의 상고이유 주장은 이유 있다.   2. 파기의 범위  위와 같은 이유로 원심판결 중 타인통신매개로 인한 전기통신사업법 위반에 대한 주위적 공소사실 부분은 파기되어야 한다. 그런데 위 파기 부분은 원심이 유죄로 인정한 나머지 부분과 일죄 또는 형법 제37조 전단의 경합범 관계에 있어 하나의 형이 선고되어야 하므로, 결국 원심판결은 전부 파기되어야 한다.   3. 결론   그러므로 피고인의 상고이유에 대한 판단을 생략한 채 원심판결을 파기하고, 사건을 다시 심리ㆍ판단하도록 원심법원에 환송하기로 하여, 관여 대법관의 일치된 의견으로 주문과 같이 판결한다.
+대법관   이흥구(재판장) 김재형 안철상(주심) 노정희</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=1970378&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=19&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2011. 7. 28. 선고 2011도6762 판결[사기·상해][미간행]</t>
+  </si>
+  <si>
+    <t>【판시사항】
+        [1] 피고인에게 적법한 공시송달을 하기 위한 요건
+        [2] 기록에 나타난 올바른 휴대전화번호로 연락하여 송달받을 장소를 확인해 보는 등의 조치를 취하지 아니한 채 공시송달의 방법에 의한 송달을 유지하고 피고인의 진술 없이 곧바로 판결을 선고한 위법이 제1심에 있는데도, 직권으로 위와 같은 위법을 시정하는 조치를 취하지 아니하고 제1심이 채택·조사한 증거들에 기하여 피고인의 항소이유를 판단한 원심판결에 공시송달 요건에 관한 법리오해의 위법이 있다고 한 사례
+    【참조조문】[1]         소송촉진 등에 관한 특례법 제23조,         소송촉진 등에 관한 특례법 시행규칙 제18조 제2항,         제3항,         제19조 제1항,         형사소송법 제63조 제1항,         제365조 [2]         소송촉진 등에 관한 특례법 제23조,         소송촉진 등에 관한 특례법 시행규칙 제18조,         제19조,         형사소송법 제63조 제1항,         제364조 제2항,         제365조      
+    【참조판례】[1]         대법원 2007. 7. 12. 선고 2006도3892 판결(공2007하, 1315)        대법원 2010. 1. 28. 선고 2009도12430 판결(공2010상, 484)        대법원 2011. 5. 13. 선고 2011도1094 판결(공2011상, 1247)      
+  【전    문】
+      【피 고 인】
+          피고인
+      【상 고 인】
+        피고인
+      【변 호 인】
+        변호사 이동호
+      【원심판결】
+        서울동부지법 2011. 5. 12. 선고 2011노391 판결
+    【주    문】  원심판결을 파기하고, 사건을 서울동부지방법원 합의부에 환송한다.
+    【이    유】  상고이유를 판단한다.  1. 기록에 의하면 다음과 같은 사실을 알 수 있다.   가. 검사는 이사건 공소를 제기하면서 공소장에 피고인의 휴대전화번호를 “
+        (전화번호 1 생략)”, 주소를 “서울 광진구 구의동 
+        (지번 생략)”로 각 기재하였다. 
+        나. 제1심은 공소장에 기재된 피고인의 주소지로 공소장 부본, 피고인 소환장 등을 발송하였으나 폐문부재로 송달불능되자 검사에 대한 주소보정명령을 하고, 공소장에 피고인의 휴대전화번호로 기재된 “
+        (전화번호 1 생략)”으로 통화를 시도하였으나 피고인의 전화가 아니라고 하거나 전화를 받지 않음으로써 통화가 이루어지지 않았다. 이에 제1심은 피고인의 주소지 관할 경찰서장에게 피고인에 대한 소재탐지촉탁과 구금영장의 발부 등의 조치를 하였으나 역시 피고인의 소재를 파악하지 못하였다. 그 후 제1심은 2010. 8. 11. 피고인에 대한 공소장 부본 등의 서류를 공시송달한다는 결정을 하고 이에 따라 공소장 부본과 피고인 소환장 등을 공시송달의 방법으로 송달한 후 피고인이 2010. 8. 26. 제5회 공판기일에 불출석하고, 2010. 9. 9. 제6회 공판기일에 2회째 불출석하자 공판절차를 진행하고 변론을 종결하였다. 
+        다. 그런데 2010. 9. 9. 제1심 제6회 공판기일에서 증거로 제출된 피고인에 대한 각 경찰 및 검찰 피의자신문조서에는 피고인의 휴대전화번호가 “
+        (전화번호 2 생략)”로 기재되어 있어 공소장에 기재된 휴대전화번호는 검사가 잘못 기재한 것임을 알 수 있었는데도, 제1심은 이들 전화번호로 연락을 시도하여 소재를 파악하는 등의 조치를 취하지 아니하고, 공시송달에 의하여 선고기일 소환을 한 다음 2010. 9. 28. 피고인이 불출석한 상태에서 피고인을 징역 4월에 처하는 판결을 선고하였다. 
+        라. 피고인의 상소권회복청구와 항소에 따라 진행된 항소심에서 원심은 2011. 4. 19. 제1심이 채택한 증거에 대한 증거조사를 마친 후 2011. 5. 12. 피고인의 항소를 기각하는 판결을 선고하였다.   2. 
+          소송촉진 등에 관한 특례법(이하 ‘특례법’이라고만 한다) 제23조 및 
+          같은 법 시행규칙 제18조 제2항, 
+          제3항, 
+          제19조 제1항은 피고인의 소재를 확인하기 위하여 필요한 조치를 취하였음에도 불구하고 피고인의 소재가 확인되지 아니한 때에는 그 후 피고인에 대한 송달은 공시송달의 방법에 의하도록 규정하고 있고, 
+          형사소송법 제63조 제1항은 피고인의 주거, 사무소와 현재지를 알 수 없는 때에 한하여 공시송달을 할 수 있다고 규정하고 있으므로, 피고인의 다른 연락처 등이 기록상 나타나 있는 경우에는 그 연락처로 연락하여 송달받을 장소를 확인하여 보는 등의 시도를 해 보아야 하고, 그러한 조치를 취하지 아니한 채 곧바로 공시송달의 방법에 의한 송달을 하고 피고인의 진술 없이 판결을 하는 것은 허용되지 아니한다
+        (
+        대법원 2007. 7. 12. 선고 2006도3892 판결 등 참조).
+        그런데 위에서 본 바와 같이 제1심의 공시송달명령은 공소장에 잘못 기재된 피고인의 휴대전화번호로 연락을 시도한 것에 불과하므로, 제1심으로서는 마땅히 피고인에 대한 각 경찰 및 검찰 피의자신문조서에 기재된 올바른 휴대전화번호로 다시 연락하여 송달받을 장소를 확인하여 보는 등의 시도를 해 보고, 피고인의 소재가 파악되는 경우 공시송달명령을 취소하여 그 소재지로 피고인 소환장을 송달하는 절차 등을 거쳐야 했음에도 이러한 조치를 취하지 아니한 채 공시송달의 방법에 의한 송달을 유지하고 피고인의 진술 없이 곧바로 판결을 하였으니, 이러한 제1심의 소송절차는 피고인에게 출석의 기회를 부여하지 않은 채 이루어진 것으로 위법하다 할 것이다.     3. 나아가 항소법원은 판결에 영향을 미친 사유에 관하여는 항소이유서에 포함되지 아니한 경우에도 직권으로 이를 심판할 수 있으므로, 이 사건 원심으로서는 마땅히 직권으로 제1심 공시송달의 위법을 시정하는 조치를 취한 후 다시 피고인에게 증거의견을 묻는 등으로 적법하게 소송절차를 진행하여 원심에서의 피고인의 진술 및 증거조사 결과에 따라 다시 판결을 하였어야 할 것임에도 원심은 위와 같은 제1심 공시송달의 위법을 시정하지 아니한 채 제1심에서 채택한 증거들이 여전히 증거능력이 있음을 전제로 다시 그 증거들에 대하여 증거조사만 하여 피고인의 항소이유를 판단하였으니, 결국 원심판결에는 공시송달의 요건에 관한 법리를 오해하여 판결에 영향을 미친 위법이 있다.  4. 그러므로 나머지 상고이유에 대한 판단을 생략한 채 원심판결을 파기하고 사건을 다시 심리·판단하게 하기 위하여 원심법원에 환송하기로 하여, 관여 대법관의 일치된 의견으로 주문과 같이 판결한다.
+    대법관   이상훈(재판장) 김지형 전수안(주심) 양창수</t>
+  </si>
+  <si>
+    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2118253&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=1&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=20&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+  </si>
+  <si>
+    <t>대법원 2000. 7. 28. 선고 2000도1568 판결[성폭력범죄의처벌및피해자보호등에관한법률위반(특수강간등)·사기·살인·살인교사·사체은닉·절도·공정증서원본불실기재·불실기재공정증서원본행사][공2000.10.1.(115),1964]</t>
+  </si>
+  <si>
+    <t>【판시사항】
+        평소 주벽과 의처증이 심한 남편과의 불화로 인해 이혼소송을 준비하던 아내가 남편의 운전기사를 시켜 남편을 살해하였다는 내용의 공소사실에 대하여 유죄를 인정한 항소심판결을 파기한 사례
+    【판결요지】
+          평소 주벽과 의처증이 심한 남편과의 불화로 인해 이혼소송을 준비하던 아내가 남편의 운전기사를 시켜 남편을 살해하였다는 내용의 공소사실에 대하여 유죄를 인정한 항소심판결을 파기한 사례.
+    【참조조문】        형사소송법 제308조      
+  【전    문】
+      【피고인】
+          피고인 1외 1인
+      【상고인】
+          피고인들
+      【변호인】
+          법무법인 광장 담당변호사 박우동 외 3인
+      【원심판결】
+부산고법 2000. 3. 30. 선고 99노1146 판결
+    【주문】원심판결 중 피고인 
+        2에 대한 부분을 파기하고, 이 부분 사건을 부산고등법원에 환송한다.  피고인 
+        1의 상고를 기각한다.
+    【이유】상고이유(기간 경과 후에 제출된 보충상고이유서는 상고이유를 보충하는 범위 안에서)를 본다.  1. 
+        피고인 1에 대하여
+        가. 성폭력범죄의처벌및피해자보호등에관한법률위반의 점  원심판결과 원심이 유지한 제1심판결이 채용한 증거들을 기록에 비추어 살펴보면, 원심이 피고인이 
+        공소외 1과 합동하여 
+        피해자 1을 윤간하였다는 범죄사실을 유죄로 인정한 것은 정당하고, 거기에 상고이유에서 주장하는 바와 같이 채증법칙을 위반하여 사실을 잘못 인정함으로써 판결에 영향을 미친 위법이 있다고 볼 수 없다.
+        이 점을 다투는 상고이유는 받아들일 수 없다.  나. 양형부당의 점
+        피고인 1이 범한 이 사건 각 범행을 보면, 그 중 살인의 점은 운전기사로서 자신의 고용주인 
+        피해자 2를 쇠파이프로 때려 무자비하게 죽이고, 그 사체를 절단 손괴하여 은닉하는 등 그 범행 수법과 결과가 극히 중한 데다가, 뒤에서 보는 것처럼 이와 같이 
+        피해자 2를 살해하고도 그 사실을 숨긴 채 그 처인 피고인 
+        2로부터 피해자의 생활비 명목으로 돈을 받아내고 
+        피해자 2명의의 예금통장까지 넘겨 받아 거액의 예금을 편취하였으며, 나아가 특수강간의 성폭력범죄를 범하기까지 하였다.
+        이와 같은 각 범행의 동기와 경위, 범행의 수단과 결과, 그 밖에 
+        피고인 1의 연령, 전력, 성행 등 기록에 나타난 모든 양형조건을 살펴보면, 
+        피고인 1에 대하여 무기징역형을 선고한 제1심판결을 유지한 원심의 양형이 결코 너무 무거워 부당하다고는 보이지 아니한다.
+        이 점에 관한 상고이유도 받아들일 수 없다.  2. 피고인 
+        2에 대하여
+        가. 살인교사의 점  (1) 
+        피고인 2에 대한 살인교사의 점에 대한 공소사실은, 
+        피고인 2는 1994년 10월경 남편인 
+        피해자 2가 주벽이 심하여 술을 마시면 폭력을 행사하고 의처증이 심하여 당시 진행중인 목욕탕 건물 신축공사장의 포크레인 운전기사와의 불륜관계를 의심하는 등으로 가정불화가 심화되자, 
+        피해자 2와 이혼을 결심하고 1994년 12월경 이혼소송을 준비하던 중 그 무렵 
+        피고인 1이 
+        피해자 2의 운전기사로 채용되자, 
+        피해자 2를 수행하여 다니는 
+        피고인 1에게 
+        피해자 2의 방문장소, 만나는 여자 등 제반 상황에 대하여 수시로 상세히 알려 달라고 부탁하여, 
+        피고인 1로부터 '사장님이 사모님 및 처가 식구를 살해하겠다.'고 한다는 말을 수차 전해 듣고 
+        피해자 2에 대하여 증오심을 가지고 있던 중 
+        피해자 2가 1995년 1월 초순 일자 불상경 
+        피고인 2 및 자식들과의 불화를 비관하여 
+        피고인 1 운전의 승용차로 수일간 여행을 다녀오기로 하여 
+        피고인 1이 
+        피해자 2를 승용차에 태워 울산 방면으로 가던 중 그 날 14:00경 부산 금정구 구서 1동 
+        소재 여관에 투숙한 후 1박을 한 다음날 20:00경 
+        위 여관에서 
+        피고인 1이 
+        피고인 2와 통화 중 울면서 
+        피해자 2 부부의 불화문제로 자신의 입장이 난처하여 더 이상 기사일을 못하겠다는 말을 내비치자, 
+        피고인 2는 
+        피고인 1에게 '뭐 그렇게 중간에서 고심하냐, 그 새끼 죽여버리면 되지, 그 새끼를 죽여버리면 내가 생활비도 줄께.'라고 말하고, 그 다음날 오후 다시 통화를 하면서 
+        피고인 1로부터 '사장님이 가족들을 모두 죽여버린다.'고 하더라는 말을 듣고 
+        피해자 2에 대한 증오심이 북받쳐 올라 
+        피고인 1에게 부탁하여 
+        피해자 2를 살해하겠다고 결의한 후 
+        피고인 1에게 '그 인간 네가 죽여버리면 내가 한달에 생활비 500 내지 600만 원씩 주겠다.'고 하자, 
+        피고인 1은 그 동안 
+        피해자 2 부부의 불화과정에서 수차에 걸쳐 
+        피해자 2를 죽여버리라는 
+        피고인 2의 말이 단순히 일상적인 말이 아니라고 생각한 나머지 
+        피해자 2를 살해하겠다고 마음먹음으로써 
+        피고인 1로 하여금 
+        피해자 2를 살해하도록 결의하게 한 후, 같은 날 초저녁 
+        위 여관에서 
+        피고인 1이 여관 주차장 옆에 있던 쇠파이프를 몰래 가지고 와 술에 취하여 자고 있는 
+        피해자 2의 머리 부분 등을 수회 강타하여 좌측두개골 복잡함몰골절 등의 상해를 입히고, 이로 인하여 그 자리에서 사망에 이르게 하여 
+        피해자 2를 살해하게 함으로써 살인을 교사하였다는 것이다.
+        (2) 제1심판결에 의하면, 제1심은 공동
+        피고인 1의 제1심 법정에서의 진술 등 그 채용증거를 들어 
+        피고인 2에 대한 살인교사의 점을 유죄로 인정하였다.
+        그리고 원심판결 이유에 의하면, 원심은, 
+        피고인 1이 단독으로 피해자를 살해한 것이고, 
+        피고인 2는 살해를 교사한 바 없음에도, 유죄로 인정한 제1심판결은 사실을 오인한 것이라는 
+        피고인 2의 항소이유에 대하여, 
+        피고인 2는 
+        피고인 1에 대하여 남편을 살해하라고 교사한 적이 없다고 하고, 
+        피고인 1은 수사 초기 범행을 부인하다가, 금융계좌 추적 결과 
+        피해자 2 명의의 예금통장에서 인출된 돈이 자신에 의하여 사용된 사실이 드러나자, 1999. 6. 8. 처음으로 범행을 자백한 이래 원심 법정에 이르기까지 일관되게 
+        피고인 2로부터 살해를 교사받아 실행하였다고 진술하므로, 결국 
+        피고인 2의 항소이유에 대한 판단은 
+        피고인 1의 이러한 진술이 객관적으로 확인된 사실과 대조하여 모순이 없는지, 나아가 합리적 의심을 배제할 정도로 신빙성이 있는지 여부에 달려 있다고 전제한 다음, 
+        피고인 1의 진술을 뒷받침하는 객관적 사실로 (가) 
+        피해자 2와 
+        피고인 2의 불화, (나) 
+        피해자 2가 사용하던 휴대전화를 
+        피고인 2가 해지한 점, (다) 
+        피해자 2의 주민등록증이 
+        피고인 2와 
+        피고인 1 사이에 오고간 점, (라) 
+        피해자 2가 지불정지하여 둔 1억 8천여 만 원이 예금된 엘지종합금융 통장 및 거래도장을 
+        피고인 2가 
+        피고인 1에게 교부한 점, (마) 
+        피해자 2가 타고 나간 그랜저 승용차의 이전에 필요한 서류를 
+        피고인 2가 
+        피고인 1에게 건네어 
+        피고인 1이 이를 매도한 점, (바) 
+        피고인 2가 조흥은행 예금계좌를 개설하여 송금한 점을 차례로 인정하고, 이러한 점들과 
+        피고인 1이 더 무거운 형이 선고될 수 없는 항소심에 이르러서도 진술을 번복하지 않은 점을 종합하면, 
+        피해자 2가 
+        피고인 1을 안 지 한 달도 지나지 아니하여 살인을 교사한 점, 
+        피고인 1이 
+        피해자 2의 운전기사로 채용되는 과정에서 
+        피고인 2가 전혀 관여한 바 없는 점을 고려하더라도, 
+        피고인 2와 
+        피고인 1의 상반된 진술 중 
+        피고인 1의 진술이 합리적 의심이 배제될 정도로 신빙성이 있다고 봄이 상당하다고 하여 
+        피고인 2에 대한 살인교사의 점을 유죄로 인정한 원심을 그대로 유지하였다.
+        (3) 이 법원의 판단  (가) 기록을 살펴보면, 이 사건 공소사실 중 
+        피고인 1이 
+        피해자 2의 머리 부분을 쇠파이프로 때리는 등의 방법으로 그를 살해한 사실은 명백하다. 반면 
+        피고인 2는 경찰 이래 
+        피고인 1에게 살해를 교사한 사실이 없고, 
+        피고인 1이 
+        피해자 2를 살해한 사실을 알지도 못하였다고 일관되게 부인하고 있다.
+        원심이 
+        피고인 2에 대한 살인교사의 점에 관한 증거로 내세우는 것은 원심이 유지한 제1심판결의 증거의 요지 중 판시 제1 내지 4의 각 사실에 대한 부분에서 들고 있는 ① 
+        피고인 1과 제1심 공동피고인 
+        1, 
+        2의 각 진술, ② 제1심 증인 
+        공소외 1, 공소외 7, 공소외 8, 공소외 9의 각 진술, ③ 검사의 
+        피고인 1, 
+        제1심 공동피고인 1, 
+        2에 대한 각 피의자신문조서의 진술기재, ④ 검사의 공소외 7, 공소외 10, 공소외 11에 대한 각 진술조서의 진술기재, ⑤ 사법경찰리 작성의 공소외 8, 공소외 9에 대한 각 진술조서의 진술기재, ⑥ 사법경찰리 작성의 각 검증조서의 기재 등인바, 그 중 
+        피고인 1의 진술을 제외한 나머지 증거들은 살인교사의 점과 관계 없거나 직접적인 증거로서 가치가 미약한 것들 뿐이다.
+        따라서 원심이 지적하는 바와 같이, 살인교사의 점을 부인하고 있는 
+        피고인 2의 진술과, 매월 생활비로 500 내지 600만 원씩을 주겠으니 
+        피해자 2를 죽여 달라는 피고인의 말을 듣고 
+        피해자 2를 살해하였다는 
+        피고인 1의 진술 가운데 어느 쪽을 믿을 것인지가 이 사건의 핵심임에 틀림없다.
+       그러나 
+        피해자 2를 살해하라는 
+        피고인 2의 교사에 의하여 살해에 이르게 된 것이라는 
+        피고인 1의 진술은 다음에서 보는 바와 같이 여러 모로 의심스러운 점이 있어 
+        피고인 2에 대한 살인교사의 공소사실이 진실이라는 확신을 갖게 하기에 미치지 못하는 것으로 보이므로, 이 점에 관한 원심의 사실인정과 판단은 받아들일 수 없다.
+        (나) 우선 기록에 의하여 
+        피고인 2와 
+        피해자 2 및 
+        피고인 1의 상호관계를 살펴보면, 
+        피고인 2는 여고를 졸업하고 1971년 
+        피해자 2와 결혼하여 슬하에 2남(
+        공소외 2, 
+        3) 1녀(
+        공소외 4)를 두고 있는 가정주부이고, 남편과 공동으로 주택과 상가를 소유하는 등 도합 45억 원 이상의 재산을 가지고 있으며, 
+        피고인 1은 1994년 12월 초경 그의 전처인 
+        공소외 5의 부탁을 받은 공소외 12이 
+        피해자 2에게 소개하여 그의 운전기사로 채용됨으로써 그 무렵 비로소 
+        피해자 2와 
+        피고인 2를 알게 된 사이이다.
+        (다) 
+        피고인 1이 공소사실과 같은 내용으로 자백하기까지의 경위를 보면, 
+        피고인 1은 앞서 본 특수강간의 범죄사실로 1999. 2. 24. 19:00경 긴급체포되어 구속되어 있던 중 1999. 4. 19. 
+        피해자 2의 아들인 
+        공소외 3이 
+        피해자 2가 집을 나간지 몇 년이 지나도록 행방을 알 수 없다고 하면서 집을 나갈 때 데리고 간 운전기사 
+        피고인 1을 피진정인으로 한 진정서(수사기록 26쪽, 아래에서는 '수 몇 쪽'으로 표시한다)를 부산지방경찰청에 제출하여 그 조사과정에서 
+        피고인 1이 부산구치소에 구속 수감되어 있는 사실이 드러나 1999. 5. 17.부터 조사를 받게 되었는바, 처음에는 
+        피해자 2를 살해한 사실 자체를 부인하면서 
+        피해자 2를 모시고 집을 나갔으나 1996년 1월경 헤어졌다고 하다가(1999. 5. 17.자 진술조서, 수 47쪽 이하), 1996년 10월경까지 
+        피해자 2와 같이 있다가 헤어졌다거나, 필리핀을 거쳐 태국에서 만나 헤어진 뒤로 만난 적이 없다는 등으로 변소하였으나(1999. 5. 20.자 진술조서, 수 66쪽 이하), 출입국관리소에 대한 문의 결과 
+        피해자 2는 
+        피고인 1과 달리 그 사이 해외로 출국한 사실이 없다고 밝혀지고, 한편 
+        피해자 2 명의로 개설한 엘지종합금융 통장에서 1억 8천만 원 이상의 거액이 인출되고 
+        피고인 1이 114일 동안이나 해외여행을 하였으며, 전처에게 전세자금을 대어 주는 등 분에 넘치는 생활을 하여 온 사실과 
+        피해자 2 명의로 개설된 조흥은행 계좌에서 돈을 인출하면서 작성한 출금청구서의 필적이 
+        피고인 1의 필적임이 드러나자(수 270쪽), 마침내 1999. 6. 8. 
+        피해자 2를 죽였다고 자백하면서 살해 일시는 설날 직후인 1995. 2. 1. 18:00경, 장소는 부산 범어사 입구 좌측 여관 2층이라고 하고(1999. 6. 8.자 진술조서, 수 449쪽), 살해 동기에 관하여는 
+        피고인 2가 생활비를 줄 터이니 
+        피해자 2를 죽여 달라고 하여 죽이게 된 것이라고 진술하였고(1999. 6. 8.자 진술서, 수 444쪽 이하), 이 자백진술을 근거로 1999. 6. 10. 12:50경 
+        피고인 2는 살인교사 혐의로 긴급체포되었으나, 최초 경찰조사단계에서부터 원심 법정에 이르기까지 줄곧 부인하고 있다.
+        (라) 그런데 살인교사의 경위와 내용에 관한 
+        피고인 1의 진술을 요약하면, 
+        피해자 2를 모시고 집을 나가 여관에 있는 동안 전화로 
+        피고인 2에게 울면서 
+        피고인 2 부부 사이의 불화로 입장이 난처하여 운전기사를 더 못하겠다고 하자, 
+        피고인 2가 '중간에서 고심하지 말고 죽여버리면 생활비를 준다.'고 하여 처음에는 장난인 줄 알았는데, 다음날 다시 전화로 '피해자가 가족들을 모두 죽인다고 하더라.'는 말을 전하자, 
+        피고인 2가 '
+        피해자 2를 죽여 주면 생활비로 매월 500 내지 600만 원씩을 준다.'고 하여 살해하게 되었다는 것이다.
+        그러나 위와 같은 
+        피고인 1의 진술은 다음과 같은 점에서 그 자체로 납득하기 어렵거나, 진술이 일관되지 아니하고, 기록상 드러나는 객관적 사실과도 어긋난다는 점에서 쉽사리 믿기 어렵다.
+        ① 살인교사의 동기가 부족하다.  원심이 인정한 바와 같이, 평소 알콜중독 증세에 의처증까지 있는 
+        피해자 2가 
+        피고인 2를 때리거나 총으로 죽인다고 위협하여 
+        피고인 2와 자녀들이 피신하기까지 하고, 
+        피해자 2가 알콜중독을 치료하기 위하여 정신병원에 입원한 적도 있는 등 
+        피고인 2와 
+        피해자 2 부부 사이가 원만하지 못하였던 사실은 기록상 인정되고, 
+        피고인 2가 1994년 12월 초경 남편에게 심하게 구타당한 뒤 집을 나와 친지의 집에 머물면서 이혼소송까지 제기한 점을 보면, 
+        피고인 2가 남편에 대하여 증오와 보복 등의 악감정을 가졌음도 충분히 짐작된다.
+        그러나 이혼을 결심하고 변호사를 통하여 이혼소송을 제기한 상태(수 231쪽 이하, 992쪽 이하, 1244쪽 이하, 
+        피고인 2는 서울에 있는 올케로부터 500만 원을 빌려 1994. 12. 17. 변호사에게 위임하여 1995. 1. 4. 이혼소송을 제기하였고, 그 소송은 공시송달로 진행되어 1995. 10. 18. 이혼과 위자료 지급 및 재산분할을 명하는 판결이 선고 확정되고 1996. 1. 15. 이혼신고까지 마쳤다.)에서 당장 남편을 죽이지 않으면 안될 급박한 사정이나 그로 인해 얻게 될 재산상 이익이 있는 것도 아니었다(보험금을 노리는 등의 흔적은 전혀 없고, 이혼소송을 제기한 처지에서 상속재산을 노렸다고 볼 수도 없다).
+        원심은, 살해당할지도 모른다는 위기감은 
+        피해자 2의 '존재'에서 비롯되는 것으로 호적에서 신분관계를 정리하는 것에 불과한 이혼소송은 그 해결책이 되지 못한다고 지적하나, 
+        피해자 2로부터 직접 죽여버리겠다는 협박을 받은 것도 아니고, 
+        피해자 2가 집을 나가 있는 상태에서 
+        피고인 2를 죽인다고 하더라는 말을 전화로 전해 들은 것에 불과한 데, 당시 집을 나가 이혼소송을 준비하다가 아버지가 집을 나갔으니 들어오라는 딸 
+        공소외 4의 권유에 따라 귀가한 처지(
+        피고인 2는 이와 같이 1995년 1월 초 귀가한 이래 이혼소송 및 이혼신고를 거친 후에도 계속하여 시어머니, 자녀들과 함께 생활해 왔다.)에서 아예 남편을 죽여버리기로 결의한다는 것은 쉽게 이해되지 아니한다.
+        ② 남편을 죽이라고 교사하는 범행이 전화통화만으로 이루어졌다는 점도 의심스럽다. 아내가 하수인을 시켜 남편을 살해하고자 한다면, 그 하수인에 대한 교사나 모의는 사전에 서로 만나 은밀하게 이루어지는 것이 일반적이고, 그 과정에서 범행 비용을 미리 준다거나 범행의 대가에 대한 논의가 있고, 나아가 살해의 방법이나 사후 처리문제 등도 거론됨이 통상일 것이다.  그런데 그 하수인이라는 
+        피고인 1은 
+        피해자 2가 집을 나가기 한달 전쯤 새로 채용한 운전기사로서 
+        피고인 2와는 거의 면식이 없는 처지이다.
+        피고인 2와 
+        피고인 1이 처음 대면한 일시와 장소 등에 대한 두 사람의 주장을 보면, 피고인은 남편이 집을 나가기 전까지 
+        피고인 1을 만나 본 적이 없다고 일관되게 진술하고, 이에 반하여 
+        피고인 1은 경찰 및 검찰에서는 1994년 12월 초순경 취업 다음날 
+        피고인 2의 집 거실에서 처음 대면하여 스스로 새로 일하게 된 운전기사라고 인사하였더니 
+        피고인 2가 
+        피해자 2의 동태를 살펴 빠짐없이 알려 달라고 하였고(1999. 6. 21.자 피의자신문조서, 수 934쪽 이하, 1994년 12월에 
+        피고인 2를 자주 보았다고도 한다.), 원심 법정에서는 1994년 12월 초순과 중순 사이 
+        피해자 2의 운전기사로 취업하였는데, 취업한 지 2, 3일 정도 되었을 때 
+        피고인 2의 집 거실에서 할머니도 있는 자리에서 처음 대면하였으며, 그 때 
+        피고인 2가 
+        피해자 2의 사소한 행적까지 모두 알려 달라고 부탁하였다는 취지로 진술하고 있다(원심 제2회 공판조서, 공판기록 848쪽 이하, 아래에서는 '공 몇 쪽'으로 표시한다).
+        그러나 기록에 의하면, 
+        피고인 2는 
+        피고인 1이 채용되기 전인 1994년 12월 초경 
+        피해자 2로부터 구타를 당한 끝에 집을 나가 있다가 
+        피해자 2가 1995. 1. 1.경 집을 나간 뒤 딸 
+        공소외 4의 권유에 따라 1995년 1월 초 집에 돌아왔다고 진술하고, 
+        공소외 4의 증언도 이에 부합하는바(1999. 10. 4. 증인신문조서, 공 504쪽), 
+        피고인 1의 진술은 그 신빙성이 의심스럽다.
+        또 
+        피고인 1은 
+        피고인 2가 거처를 옮길 때마다 자신에게 그 연락처를 알려 주고 자신은 전화로 
+        피해자 2의 동태를 보고하는 긴밀한 관계가 형성된 것처럼 주장하지만, 한편 
+        피고인 1 스스로 취업 직후 
+        피해자 2의 지시를 받고 피고인의 친정집 앞에서 하루나 이틀 동안 
+        피고인 2의 동태를 감시한 적이 있다는 사실을 인정하고 있는바(원심 제2회 공판조서, 공 848쪽), 그런 처지에서 
+        피고인 1이 
+        피고인 2와 첫 대면시 부탁받았다 하여 자신을 고용한 
+        피해자 2를 속이고 
+        피고인 2 편에 서서 
+        피해자 2의 행적을 빠짐없이 보고하였다는 것은 설득력이 떨어진다.
+        피고인 1의 주장대로 
+        피해자 2와 집을 나가기 전 
+        피고인 2와 한번 대면하고 그 뒤 
+        피해자 2의 행적을 보고하는 관계에 있었다고 하더라도, 
+        피고인 2가 직접 만나서 부탁하거나 지시한 것도 아니고 서너 차례 전화통화만으로 남편을 죽이라고 지시하였다는 것도 쉽게 믿기 어렵다. 오히려 
+        피고인 1이 
+        피해자 2에게 
+        피고인 2가 생활비를 준다고 죽여달라더라고 고자질할 가능성을 고려하면, 
+        피고인 2와 
+        피고인 1 사이에 상당한 정도의 신뢰관계가 전제되지 않는 한, 홧김에 지나가는 말이라면 몰라도, 진정으로 남편을 죽이라고 하기는 더욱 어려울 것임에 비추어, 몇 차례의 전화통화 끝에 남편을 죽여달라는 
+        피고인 2의 말이 장난이 아니라고 생각하고 실행에 옮겼다는 
+        피고인 1의 진술은 납득하기 어렵다.
+        ③ 범행의 대가로 매월 500 내지 600만 원씩을 생활비로 받기로 하였다는 점도 의심스럽다.
+        피고인 1은 범행 이전에 
+        피고인 2로부터 범행 비용이나 대가 명목의 돈을 받은 바 없고, 범행에 성공하면 매월 생활비로 500 내지 600만 원씩을 준다고 하여 돈 욕심에 살해하게 되었다는 것이므로, 
+        피고인 1로서는 범행 대가의 액수와 그 확보책이 가장 큰 관심사일 터인데, 단순히 죽여 주면 매월 500 내지 600만 원씩을 준다는 것뿐 언제까지 주겠다는 것인지, 주겠다는 돈의 액수가 얼마인지에 대하여 언급이 없고, 
+        피고인 1은 원심 법정에서도 언제까지 얼마를 주겠다는 말이 없었다는 점을 시인하고 있다(원심 제2회 공판조서, 공 853쪽).
+       그러나 이 점은 
+        피고인 2가 
+        피해자 2 명의로 개설된 예금통장 계좌로 매달 돈을 보낸 것이 수사결과 드러나자, 이에 짜맞추어 진술한 것이 아닌가 하는 의심을 지우기 어렵다.
+        ④ 범행의 대가인 생활비를 주기 위하여 
+        피해자 2 명의의 통장을 새로 개설하였다는 점도 의심스럽다.
+        피고인 1의 진술대로, 피고인이 살해를 교사하면서 매달 생활비를 주기로 하였다면, 그 때마다 서로 만나 돈을 주고 받는 것보다 통장을 개설하게 하여 매달 송금하는 방식을 택할 법도 하고, 
+        피고인 1은, 
+        피고인 2가 
+        피고인 1 자기 이름으로 하면 의심받게 되니 죽은 남편 명의로 개설하라고 지시하였다고 변소하나, 
+        피고인 2의 입장에서 그 통장 명의를 남편으로 할 이유를 발견하기 어렵다.
+        오히려 조흥은행 통장개설을 위한 은행거래신청서(수 666쪽)를 보면, 
+        피고인 1이 
+        피해자 2를 대리하여 1995. 1. 12. 조흥은행 영주동지점에서 거래신청을 하면서 대리인으로서 본인 확인을 거치고, 
+        피고인 2의 주민등록증 사본과 
+        피고인 1 자신의 운전면허증 사본을 첨부하였으며(수 667쪽), 신청서에 기재된 
+        피해자 2와 
+        피고인 1의 인적사항이나 휴대폰 전화번호(
+        피고인 2 명의로 가입)는 모두 사실대로임을 알 수 있는바, 
+        피고인 2와 
+        피고인 1이 
+        피해자 2를 살해한 대가를 송금하기 위하여 예금통장을 개설하면서 그 명의를 그들이 살해한 피해자 2로 하고, 또 그 과정에서 
+        피고인 1 자신의 인적사항을 그대로 밝히고 있다고 보기보다는 
+        피고인 1의 최초 경찰진술처럼 범행일자가 설날 뒤인 1995년 2월 초순이라고 볼 경우 통장개설일인 1995. 1. 12.에는 아직 
+        피해자 2가 살해되기 전이고, 
+        피해자 2가 집을 나오면서 딸인 
+        공소외 4에게 매달 생활비를 보내라고 하였다는 상황(
+        피고인 2의 진술과 특히 
+        공소외 4의 제1심 증언)과 잘 부합된다.
+        ⑤ 통장의 입금내역도 범행의 대가로 보기에 어려운 점이 있다.
+        피고인 2가 위와 같이 개설한 
+        피해자 2 명의의 조흥은행 통장으로 송금한 내역(수 272쪽 이하)을 보면, 
+        피고인 2의 주거지에 있는 장림동지점에서 1995년 1월부터 8월까지는 적게는 250만 원, 많게는 600만 원이 매월 입금되다가 1995년 9월은 거르고 1995년 10월과 12월에는 300만 원씩, 1996년 1월에는 350만 원이 입금되었고, 그 뒤 입금이 되지 않다가 1996년 5월에 100만 원, 1996년 12월에 150만 원이 입금되었으며, 인출은 주로 통장개설지점인 영주동지점에서 카드로 몇 10만 원씩 나누어 인출되었음을 알 수 있다.
+        이러한 입출금 상황을 범행의 대가로 매달 500 내지 600만 원씩을 생활비로 받기로 하였다는 
+        피고인 1의 진술과 비교하여 보면, 처음 8개월은 매달 돈이 정기적으로 입금되었으나, 그것도 처음 3개월만 약속한 액수이고, 그 후로는 금액이 줄었으며, 8개월이 지나서는 정기적으로 입금하지 않거나 금액도 아주 줄어버려 살인의 대가로 보기에 어설픈 데가 있다. 
+        이 점에 대하여 
+        피고인 1은, 돈이 입금되지 않은 달이 있어 전화로 
+        피고인 2에게 따졌더니, 아들이 미국 유학을 가고, 딸이 중국 유학을 갔는데 그 경비가 많이 들어 조금씩 보낸다고 하였다고 진술하고(1999. 7. 1.자 피의자신문조서, 수 1084쪽), 
+        피고인 2는, 
+        피해자 2가 죽은 줄 모르고 생활비로 보낸 것으로서 형편에 따라 보내다 보니 금액이 일정하지 아니한 것이고, 살해의 대가였다면 
+        피고인 1가 그대로 있지 않았을 것이라고 반박하는바, 
+        피고인 2의 변소가 더 설득력이 있어 보인다.
+        그리고 계좌개설 다음날인 1995. 1. 13. 13:28경 최초로 입금된 93만 원은 조흥은행 당리동지점에서 총포사를 경영하는 공소외 13이 입금한 것으로, 1994년 12월 말경 공기총을 구입하려던 
+        피해자 2로부터 미리 받았던 돈을 반환한 것임이 기록상 분명하다. 공소외 13은 그날 11:00경 
+        피고인 2가 총포사로 찾아와 계좌번호를 불러주어 동생 공소외 9을 시켜 송금한 것이라고 진술하는바(수 761쪽), 그 통장계좌번호를 다른 사람에게 알려 주어 통장의 존재를 드러낸다는 것도 이례적이거니와 남편이 이미 죽었다면 총포사에서 돈을 보내더라도 
+        피고인 1이 인출하여 사용할 것이 뻔한 터에 그 계좌로 송금하게 한다는 것도 납득이 되지 않는다.
+        한편 
+        피고인 1은, 통장개설 다음날 이름을 알 수 없는 총포사에서 
+        피해자 2의 핸드폰으로 
+        피해자 2를 찾는 전화가 와서 없다고 하자, 통장계좌번호를 불러 달라고 하여 자신이 알려 준 것이라고 진술하나(원심 제2회 공판조서, 공 856쪽), 이는 공소외 13과 그 아내 공소외 8의 각 진술과도 어긋날 뿐더러, 자신이 통장계좌번호를 알려 주었다는 
+        피고인 1의 진술을 수용하더라도, 그 통장의 존재를 다른 사람에게 스스로 드러내는 꼴이 되어 석연치 아니하다.
+        오히려 이 점도 살해 일시가 설날 이후라는 
+        피고인 1의 최초 경찰진술과 부합되는 대목이다.
+        ⑥ 범행 경위에 대한 
+        피고인 1의 진술 중 특히 살해의 일시와 장소에 대한 진술이 전후 어긋나는 바, 이 점도 
+        피고인 2의 살인교사에 관한 
+        피고인 1의 진술을 의심스럽게 한다.
+        살해 일시에 대한 
+        피고인 1의 진술내용은 다음과 같이 바뀌었다.
+        경찰에서 살해 범행을 처음으로 자백하면서 작성한 진술서(1999. 6. 8.자, 수 444쪽)에서 1995년 2월 말 또는 3월 초라고 하였다가, 같은 날 작성된 진술조서에서는 1995. 2. 1. 18:00경으로 살해 일시를 특정하면서 그 해 설날(1995. 1. 30.) 뒤에 죽인 것이어서 분명하다고 하였는바(수 451쪽 이하), 이는 같은 날 작성한 또 다른 진술서(수 446쪽)에서 신정때 
+        피해자 2와 함께 집을 나왔다고 하는 내용에 비추어 볼 때, 설날 이후라는 진술 부분이 착오라고 보기도 어렵다.
+        그리고 
+        피고인 1을 도와 
+        피해자 2의 사체가 든 가방을 옮겨 준 제1심 공동피고인 
+        1도 1999. 6. 10.자 경찰 피의자신문에서 도와준 날이 1995년 2월 초순경이라고 진술하고(수 508쪽), 또한 
+        피고인 1의 형으로 사체를 
+        피고인 1의 고향인 경북 영덕읍 야산에 파묻는 것을 도와준 제1심 공동피고인 
+        2도, 자신이 도와준 일시가 1995년 2월 중순(1999. 6. 10.자 진술서, 수 534쪽)이고, 설을 지난 며칠 후(같은 날 경찰 피의자신문조서, 수 538쪽)라고 하여 
+        제1심 공동피고인 1의 진술과 일치하고, 이를 근거로 이들에 대한 긴급체포조서상의 범죄일시가 1995. 2. 3.로 특정된 것으로 보인다(수 555, 557쪽, 물론 
+        제1심 공동피고인 1과 
+        2가 살해 일시에 대한 
+        피고인 1의 진술에 맞추어 그와 같이 진술하였을 가능성도 배제할 수는 없다).
+        그런데 
+        피고인 1은 1999. 6. 11.자 경찰 제1회 피의자신문조서에서 살해 일시를 1995년 1월 초순 18:00경(수 565쪽) 또는 1995. 1. 4. 18:00경으로 특정하여(수 570쪽) 전날의 진술을 바꾸었다.
+        이는 
+        피고인 2가 남편 살해의 대가로 매달 생활비로 5-600만 원씩을 보내준다면서 
+        피해자 2 명의의 조흥은행 예금계좌를 개설하라고 하였다는 
+        피고인 1의 진술 부분(수 565쪽)이, 
+        피고인 1이 조흥은행 영주동지점에 
+        피해자 2 명의로 통장을 개설한 일자가 1995. 1. 12.로 밝혀진 수사결과(수 269쪽 이하 및 666쪽)와 어긋나게 되어, 통장개설 이전에 살해한 것이 아니냐는 추궁에 따라 당초 진술한 살해 일자(설날 후)를 1월 초로 앞당긴 것으로 볼 여지가 있다.
+        그 뒤 검찰 수사과정에서 1995. 1. 4. 15:44경 
+        피고인 2의 집 부근인 장림동 숯불불고기집 앞에서 당시 
+        피해자 2가 타고 나갔다는 그랜저 승용차가 주차위반으로 적발된 사실(수 228쪽, 이는 1995. 1. 4.과 같은 해 1월 25일의 2회 주차위반에 대한 과태료독촉장인데, 그 기재만으로는 1995. 1. 4.자 주차위반의 장소를 알 수 없으나, 검사는 2회의 주차위반 모두 
+        피고인 2의 집 앞임을 전제로 하고 있다. 수 1188쪽 이하)을 추궁당한 끝에 
+        피고인 1은 살해 일시를 1995. 1. 4.부터 같은 달 12일 사이로서 1995년 1월 초순이라고 다시 진술을 바꾸었다(수 1187쪽 이하).
+        결국 이 진술을 토대로 공소장의 범행일자는 1995년 1월 초 일자 불상 초저녁이 되고, 제1심 및 원심이 그대로 받아들인 것이다.  그러나 살해 일시에 대한 
+        피고인 1의 진술은 종잡을 수 없다. 사람의 기억에는 한계가 있고, 
+        피고인 1의 진술대로 
+        피해자 2의 살해 일시가 1995년 초(1월 또는 2월)라면, 최초로 범행을 자백한 1999. 6. 8.까지 이미 4년 이상의 시간이 지나긴 하였지만, 그렇더라도 사람을 죽인다는 일의 중대성에 비추어 그 일시를 분명하게 기억하지 못한다는 것은 납득이 되지 않는다.
+        피고인 1의 입장에서 혐의를 받은 지 20여 일 만에 
+        피해자 2의 살해 사실을 자백하는 마당에 굳이 그 일시를 숨기거나 사실과 달리 진술할 이유가 없을 것임에 비추어 보면, 신정때 함께 집을 나와 설날 이후에 죽였다는 최초의 진술이 진실에 가까울 가능성이 크다.
+        살해 일시에 대한 
+        피고인 1의 진술 번복은 피고인의 살인교사에 관한 
+        피고인 1 진술의 신빙성과도 관련된다.
+        왜냐하면, 살해 일시를 통장개설일자가 밝혀진 뒤 
+        피고인 1이 특정한 1995. 1. 4. 18:00경이라고 본다면(최종적으로 확정된 1995년 1월 초순 일자 불상경이라고 보더라도 마찬가지다.), 
+        피해자 2가 
+        피고인 1과 집을 나온 시점이 1995. 1. 1. 무렵임은 기록상 분명하므로[
+        피고인 1은 당초 신정때 집을 나왔다고 하였으나, 그 뒤 검찰 제4회 진술에서 출발일자가 1월 4일인지 1월 5일인지 잘 모르겠다고 하다가(수 1188쪽), 제1심 법정에서 1995. 1. 4. 주차위반에 대한 추궁을 받고는 그 날 집을 나왔고, 나오기 전 옷가지를 실으려고 차를 집 앞에 주차하여 두었다가 적발되었다고 변소한다(공 265, 266쪽).], 집을 나온 지 3일 사이에 
+        피고인 2와 서너 차례 전화통화를 하는 과정에서 
+        피고인 2의 지시를 받아 
+        피해자 2를 살해한 셈이 되는데, 과연 그 동안에 채용된 지 한달 남짓밖에 되지 않고 그나마 남편이 독자적으로 채용한 운전기사에게 남편을 죽이라고 시키고, 그 운전기사는 
+        피고인 2의 지시에 따라 이를 실행에 옮기는 일이 가능한 일인가 하는 점에서 그러하다.
+        또한 살해 장소에 대한 진술도 엇갈린다.  원심은 살해 장소가 부산 금정구 구서동 소재 
+        여관이라고 한 공소사실을 수용한 제1심판결을 그대로 유지하고 있다.
+        피고인 1은 최초 1999. 6. 8.자 진술서와 같은 날짜 경찰 진술조서에서는 범어사 근처 여관(수 444쪽), 범어사 올라가기 전 좌측 여관 2층(수 449쪽)이라고 하면서 범어사 입구에 위치한 여관약도까지 그려 제출하였다가(수 472쪽), 암매장 장소에 대한 1999. 6. 11.자 현장검증(수 586쪽 이하, 592쪽, 615쪽 사진 참조)에서 
+        위 여관이라고 찍힌 수건이 발견되고부터 
+        여관이라고 살해 장소를 구체적으로 명시하게 되었으나, 
+        위 여관은 전철 두실역 대로변에 위치하고 있어 범어사와는 상당한 거리인데도 약도상에 두실역이 표시되지 아니하였고, 집을 나온지 3-4일 만에 죽였다면 그 사이 옮겨 다닌 여관도 많지 않을 것이고, 사람을 죽이고 다음날 그 사체를 절단하기도 한 장소를 최초 진술시 제대로 특정하지 못한다는 것은 
+        피해자 2를 살해하였다는 점을 제외한 그 나머지 범행경위와 동기 등에 대한 자백진술의 신빙성을 떨어뜨리게 한다.
+        ⑦ 범행 후의 행적 중 다음과 같은 점들에 대한 
+        피고인 1의 진술도 의심스럽다.
+        ㉮ 
+        피고인 2에게 범행을 곧바로 알리지 않은 점
+        피고인 1은 경찰에서 원심 법정에 이르기까지 
+        피해자 2를 죽인 후 1-2주일 또는 1주일 정도 지난 뒤에 전화로 살해한 사실을 
+        피고인 2에게 알렸다고 진술하고, 그처럼 늦게 알린 이유에 대하여는, 살인을 하고 나서 제정신이 아니어서 쉽게 전화를 하지 못한 것이고, 매월 생활비를 주겠다고 하였기 때문에 당장 받을 돈도 아니라고 생각하여 1주일 정도 뒤에 전화를 하여 알린 것이라거나(검찰에서의 진술), 살해 후 두렵고 하여 술로 시간을 보내다가 마음이 조금 진정된 후에 전화를 한 것이라고 하고(제1심에서의 진술), 원심 법정에서도 그대로 유지하고 있다(공 854쪽).
+        그러나 돈이 탐나 
+        피해자 2를 살해하였다는 
+        피고인 1의 입장에서 곧바로 보고하지 않고 1-2주일 후에 알렸다는 것은 위와 같은 변소에도 불구하고 쉽게 납득할 수 없다.
+        ㉯ 살해 방법에 관한 보고와 그에 대한 
+        피고인 2의 반응에 관한 진술
+        피고인 1은 범행을 처음으로 자백하면서, 살해 후 2주일 정도 지나 
+        피고인 2에게 낚시하다가 바다에 밀어버렸다고 전화하니, 
+        피고인 2가 알았다 하면서 다른 말 없이 전화를 끊었다고 진술하고(수 464쪽), 그 뒤 원심 법정에 이르기까지 살해 후 1-2주일 후 바닷가에서 물에 빠뜨려 죽였다고 전화로 알리자 
+        피고인 2는 알았다고만 하고 전화를 끊었다고 하고, 시신을 어떻게 하였는지는 물어보지 않았다고 진술한다(공 855쪽).
+        그러나 살해 대가의 지급방법은 차치하고라도, 자신의 교사에 의하여 남편이 바다에 빠져 죽었다는 데에도 그 사실의 진실 여부와 사체 처리문제, 나아가 범행 이후 
+        피고인 1이나 
+        피고인 2 자신이 취할 태도 등에 관하여 아무런 관심 표시나 논의 없이 그냥 알았다고만 할 뿐, 그 뒤에도 이를 물어보거나 하지 않고, 
+        피고인 1도 알려 준 바 없다는 것은 이해하기 어려운 대목이다.
+        ⑧ 
+        피고인 2를 교사범으로 끌어들일 경우 얻을 수 있는 
+        피고인 1의 이익
+        피고인 1의 입장에서 볼 때, 단독범행이 아니라 
+        피고인 2의 교사로 
+        피해자 2를 죽인 것으로 인정되는 쪽이 중형을 피할 수 있으리라는 것은 충분히 예상할 수 있는 일이다.
+        부인이 남편을 죽여 달라 부탁한다고 하여 살해하게 된 것이라 하여 용납되는 것은 아닐지라도, 일시적으로 돈에 눈이 어두워 그 하수인이 된 경우와 독자적으로 
+        피해자 2를 살해한 다음 이를 숨기고 유족들로부터 돈을 받아 내거나, 
+        피해자 2의 통장에서 예금을 빼낸 경우를 비교한다면, 
+        피고인 1이 일부러 
+        피고인 2를 끌어들였을 가능성도 외면할 수 없다.
+        피고인 2와 아들 
+        공소외 3이 
+        피해자 2를 찾아 달라는 진정서를 1999. 4. 19. 경찰서에 제출함으로써 시작된 수사과정에서 앞서 본 바와 같이 
+        피고인 1은 특수강간의 범행으로 구속되어 있던 중 같은 해 5월 17일부터 
+        피해자 2의 행방에 대하여 추궁받게 되었는데, 
+        피고인 1은 처음에는 1996년 1월경 
+        피해자 2와 헤어져 자신도 그 후의 행방을 모르고 있는 것처럼 진술하다가, 
+        피해자 2와 함께 필리핀, 태국에 갔었다는 진술이 거짓임이 드러나고, 새로 개설된 통장으로 돈이 입금된 흔적과 1억 8천여 만 원의 예금이 인출된 뒤 
+        피고인 1이 전처에게 전세금을 주거나 해외여행을 하는 등 분에 넘치는 생활을 하여 온 사실이 드러나자, 1999. 6. 8.에 이르러 
+        피해자 2를 살해하였음을 자백하면서 그 동기를 
+        피고인 2의 교사로 변소하였는바, 수사관들이 부산구치소로 찾아와 
+        피해자 2의 행방을 추궁하기 시작한 때로부터 범행을 자백하기까지 20여 일 동안의 시간적 간격이 있었음에 비추어, 
+        피고인 1이 실제와 달리 
+        피고인 2가 교사하여 살해한 것으로 꾸밀 가능성도 배제할 수 없다.
+        ⑨ 그 밖에도 
+        피고인 1 진술의 신빙성을 의심하게 하는 사정들이 있다.
+        ㉮ 비록 살해 범행을 부인하는 단계에서 이루어진 것이기는 하지만, 피해자와 집을 나가 헤어지기까지의 행적에 대한 구체적인 진술내용이 모두 거짓말로 드러났다는 점은 자백진술의 신빙성까지 의심하게 만든다(1999. 5. 17.자 및 1999. 5. 20.자 각 진술조서).  ㉯ 
+        피고인 1은 1995년 11월경 신축한 목욕탕의 개업식에 앞서 
+        피고인 2가 다른 사람이 의심할지 모르니 
+        피해자 2가 살아 있는 것처럼 축하 화환을 보내라고 하여 전처 
+        공소외 5를 시켜 화환을 보냈다고 진술하나(공 858쪽), 목욕탕의 주인인 
+        피해자 2가 개업식에 자신의 축하 화환을 보낸다는 것은 오히려 어색하게 보인다.
+        ㉰ 
+        피고인 1의 진술대로라면, 살해 후 1년 남짓 동안 통장을 통하여 받은 5,000여 만 원, 엘지종합금융 통장에서 인출한 1억 8천여 만 원, 자동차 매매대금 1,200만 원, 
+        피해자 2가 차고 있던 로렉스시계 매매대금 600만 원 등을 합하여 2억 4천여 만 원 정도를 
+        피해자 2의 살해와 관련하여 취득한 셈이고, 이 돈은 1997년 말 이전에 해외여행, 전처의 가게전세금 및 유흥비 등으로 모두 탕진하여 그 뒤 경제적으로 다시 어려워졌다는 사정이 기록상 드러나는바, 
+        피해자 2와 함께 45억 원이 넘는 재산(수 479쪽)을 가진 
+        피고인 2에게 더 이상의 대가를 요구한 바 없다는 점, 
+        피고인 2의 입장에서도 친지들로부터 남편의 행적을 의심받는 상황에서, 
+        피고인 1이 1억 8천여 만 원이 든 통장을 가져가 최종적으로 돈을 인출한 시점으로부터 2년이 넘도록 
+        피고인 1과 연락을 한 흔적이 없고, 
+        피고인 1도 이를 인정하는바, 이 점도 의문을 남긴다.
+        ㉱ 
+        피고인 2가 아들 
+        공소외 3을 진정인으로 하여 
+        피해자 2의 생사가 의심스러우니 찾아 달라면서 1999. 4. 19. 경찰서에 제출한 진정서(수 26쪽)에서 피진정인으로 
+        피고인 1을 내세우고 그의 소재를 파악하면 
+        피해자 2의 행방을 알 수 있을 것이라고 주장하면서, 그 진정서에 
+        피해자 2에게 생활비로 보냈다는 무통장입금증들을 첨부하고 있는바, 이 점도 
+        피고인 2가 그 살해를 교사하였다는 것과 어울리지 않아 보인다.
+        (마) 한편 이와 같이 
+        피고인 1의 진술을 그 신빙성을 부정하여 배척할 경우, 반대로 ① 
+        피고인 1이 독자적으로 
+        피해자 2를 살해할 만한 동기가 있는지, ② 
+        피고인 2가 4년이 넘도록 
+        피해자 2를 찾기 위한 신고를 하지 않은 이유가 무엇인지 대하여 의문이 제기될 수 있다.
+        피고인 1이 수사 초기에 
+        피고인 2의 교사에 의하여 
+        피해자 2를 살해한 것이라고 진술하게 됨에 따라 단독범행의 가능성이 배제되어 단독범행을 가정한 살해의 동기에 대하여는 전혀 수사가 이루어지지 않아 기록상 그 동기를 추단할 만한 자료를 거의 찾아볼 수 없다. 다만 
+        피해자 2의 사망이라는 결과로 
+        피고인 2는 어떤 재산상 이익을 본 바가 없고, 오히려 남편이 신축 중이던 목욕탕 건물의 공사비를 마련하느라 고생한 흔적이 있는 데 반하여, 
+        피고인 1은 자신의 진술만으로도, 
+        피해자 2가 소지하고 있던 금품(로렉스시계와 현금 300만 원)은 물론 그 뒤 매달 조흥은행 예금계좌로 송금된 돈, 엘지종합금융 통장에 들어 있던 거액(1억 8천여 만 원)을 모두 차지한 셈이 되므로, 이를 노렸을 가능성을 생각할 수 있고, 
+        피해자 2는 평소 성격이 괴팍한 데다 주벽도 심하다는 것이므로, 
+        피해자 2와 
+        피고인 1이 어떤 마찰로 우발적으로 살해하였을 가능성도 배제할 수 없으나(
+        피고인 2의 변호인도 이 점을 지적한다), 이는 개연성에 기초한 추측에 불과하다는 한계를 넘기 어렵다.
+        그러나 단독범행의 동기가 불분명하다고 하여 곧바로 
+        피고인 2가 살해를 교사한 것이라고 단정할 수 없음은 자명한바, 
+        피고인 2에 대한 살해교사의 점을 유죄로 하려면, 합리적인 의심을 할 여지가 없을 정도로 확신을 가지게 하는 증명력을 가진 증거가 필요한데, 가장 중요한 증거인 
+        피고인 1의 진술이 앞서 본 바와 같이 여러 모로 믿기 어려운 의문점을 드러내고 있고, 그 점들에 대한 합리적인 의심이 남아 있는 한, 
+        피고인 1의 진술만으로써 
+        피고인 2를 유죄로 단정할 수는 없는 일이다.
+        그리고 
+        피고인 2는 남편이 집을 나간 1995. 1. 1.경부터 1999. 4. 19. 아들 
+        공소외 3의 이름으로 진정서를 제출할 때까지 4년이 넘도록 남편과는 직접 전화통화조차 한 바 없었음에도 남편을 찾으려는 노력을 거의 하지 않았으며, 뒤늦게 진정서를 제출한 것도 시어머니가 1999년 2월 중순 설날 무렵 사망하였는데도 남편이 귀가하지 않은 데 대한 주위 친지들의 걱정과 의문 제기에 마지못해 한 것이 아니냐는 의문에 대하여, 
+        피고인 2는, 같이 나간 
+        피고인 1이 낚시도 하고 울릉도와 제주도를 다니면서 잘 지낸다고 하여 그리 알고 있었다거나(수 481쪽), 남편이 자신과는 통화를 하지 않지만 시어머니와는 전화로 안부를 전하는 것으로 알고 있었는데, 시어머니가 사망하였는데도 연락이 없어 수사기관에 진정하게 되었다고 변소하는바(수 482쪽), 이러한 
+        피고인 2의 변명이 다소 미흡해 보이기도 하지만, 
+        피고인 2가 그 사이 
+        피고인 1의 고향집을 찾아가는 등 남편의 행방을 수소문한 흔적(공소외 14, 공소외 15,
+        공소외 3의 각 증언 등 참조) 등에 비추어, 4년이 지나서야 진정서를 제출하였다고 하여 반드시 의심할 것만은 아니다.
+        (바) 형사재판에서 공소된 범죄사실에 대한 입증책임은 검사에게 있는 것이고, 유죄의 인정은 법관으로 하여금 합리적인 의심을 할 여지가 없을 정도로 공소사실이 진실한 것이라는 확신을 가지게 하는 증명력을 가진 증거에 의하여야 하므로, 그와 같은 증거가 없다면 설령 
+        피고인 2에게 유죄의 의심이 간다 하더라도 
+        피고인 2의 이익으로 판단할 수밖에 없다(대법원 1996. 3. 8. 선고 95도3081 판결, 1994. 11. 25. 선고 93도2404 판결 등 참조).
+        원심이 지적하는 바와 같이, 
+        피해자 2와 피고인 사이의 불화, 
+        피해자 2가 사용하던 휴대전화를 피고인이 해지한 점, 
+        피해자 2의 주민등록증이 
+        피고인 2와 
+        피고인 1 사이에 오고간 점, 
+        피해자 2가 지불정지하여 둔 1억 8천여 만 원의 예금통장과 거래도장을 
+        피고인 2가 
+        피고인 1에게 건네준 점, 
+        피해자 2가 타고 나간 그랜저 승용차의 이전에 필요한 서류를 
+        피고인 2가 
+        피고인 1에게 건네주어 
+        피고인 1이 매도한 점, 예금계좌를 개설하여 상당한 액수를 송금한 점 등 
+        피고인 2가 
+        피고인 1을 교사하여 
+        피해자 2를 살해한 것이 아닌가 하는 의심이 가는 것도 부인할 수 없다.
+        그러나 
+        피고인 1의 진술이 위에서 살펴본 바와 같이 그 자체로 의심스러워 
+        피고인 2에 대한 살인교사의 공소사실은 합리적인 의심이 없을 정도로 증명되었다고 보기 어렵고, 달리 이를 인정할 만한 증거가 기록상 보이지 아니함에도 불구하고, 원심이 
+        피고인 1의 진술을 그대로 받아들여 살인교사의 공소사실을 유죄로 인정한 조치는 결국 증거의 가치판단을 그르친 나머지 채증법칙을 위반하여 사실을 오인한 위법을 저지른 것으로서, 이는 판결 결과에 영향을 미쳤음이 명백하므로, 이 점을 지적하는 상고이유는 이유 있다.
+        나. 나머지 각 범죄에 대하여
+        피고인 2에 대한 살인교사의 점을 제외한 나머지 공소사실, 즉 (1) 1995. 2. 10.자 
+        피해자 2 명의의 엘지종합금융 통장에서 이자 380여 만 원을 인출하여 편취한 점(사기), (2) 1998. 5. 8. 대출서류에 관련된 서류를 만들어 
+        피해자 2와 
+        피고인 2 공유인 대지와 건물등기부에 근저당권설정변경등기를 경료하게 하고, 이를 비치하게 하여 행사한 점(공정증서원본불실기재 및 그 행사), (3) 1995. 5. 23. 장림새마을금고에서 (2)항 기재 부동산을 담보로 1억 원을 대출받아 편취한 점(사기), (4) 
+        피고인 1, 
+        공소외 6과 순차 공모하여 1995. 12. 30. 
+        피해자 2 명의의 엘지종합금융 통장에서 8,200여 만 원을 인출하여 편취한 점(사기)은 모두 
+        피해자 2가 
+        피고인 1에게 살해되었음을 
+        피고인 2가 알면서도 이를 숨기고 범행에 이른 것을 전제로 하고 있다.
+        그러나 
+        피고인 2는 (1), (2), (3)항에 대하여는 객관적인 사실을 인정하고, (4)항에 대하여는 
+        피해자 2에게 전달하여 예금을 찾아 주라면서 통장과 도장을 
+        피고인 1에게 맡겼을 뿐 공모사실을 부인하고, 모두 
+        피고인 1이 
+        피해자 2를 살해한 사실을 알지 못한 채 
+        피해자 2가 집을 나가기 전부터 신축 중이던 목욕탕 건물의 건축비 등을 마련하기 위한 것이었다고 주장한다.
+        원심은 이들 범죄에 대하여도 살인교사의 점과 함께 
+        피고인 1의 진술이 신빙성 있음을 전제로 모두 유죄로 인정하였으나, 앞서 본 바와 같이 
+        피고인 1 진술의 신빙성이 의심스러운 이상, 원심의 판단을 그대로 수용할 수는 없다.
+        이자 또는 예금을 인출하거나 근저당권설정등기를 경료하고 대출을 받았다 하더라도, 
+        피고인 1을 시켜 
+        피해자 2를 살해한 뒤 이를 숨기고 그와 같은 범행을 한 것이라는 전제가 무너진 이상, 
+        피고인 2의 그러한 행위가 
+        피해자 2의 아내로서 그 권한 범위 안의 행위 또는 남편의 묵시적인 승낙에 의한 것으로 볼 여지도 없지 아니하므로, 결국 이 부분에 대한 원심의 판단 또한 증거의 가치판단을 그르친 나머지 채증법칙을 위반하고 심리를 다하지 아니하여 사실을 오인한 위법을 저지른 것으로서, 이 점을 지적하는 상고이유 역시 이유 있다.
+        3. 결 론  그러므로 원심판결 중 피고인 
+        2에 대한 부분을 파기하여 이 부분 사건을 원심법원에 환송하고, 
+        피고인 1의 상고는 이유 없어 이를 기각하기로 하여 관여 법관의 일치된 의견으로 주문과 같이 판결한다.
+    대법관   이규홍(재판장) 송진훈(주심) 윤재식 손지열</t>
+  </si>
+  <si>
+    <t>【판시사항】  [1] 위계에 의한 업무방해죄에서 ‘위계’의 의미 / 컴퓨터 등 정보처리장치에 정보를 입력하는 등의 행위가 입력된 정보 등을 바탕으로 업무를 담당하는 사람의 오인, 착각 또는 부지를 일으킬 목적으로 행해진 경우, 위계에 해당할 수 있는지 여부(적극) 및 이때 업무와 관련하여 오인, 착각 또는 부지를 일으킨 상대방이 없었던 경우, 위계가 있었다고 볼 수 있는지 여부(소극)
+  [2] 피고인 1명이 자동화기기에서 전화금융사기 편취금을 성명불상의 전화금융사기 조직원이 지정한 계좌로 입금하는 것임에도 전화금융사기 조직원으로부터 제공받은 제3자 명의 주민등록번호를 이용해 마치 여러 명이 각각 피해자 금융기관의 한도를 준수하면서 정상적으로 입금하는 것처럼 가장하여 피고인이 성명불상자의 전화금융사기 조직원과 공모하여 위계로써 피해자 은행들의 자동화기기 무통장·무카드 입금거래 업무를 방해하였다는 공소사실로 기소된 사안에서, 그 입금거래 과정에 은행 직원 등 다른 사람의 업무가 관여되었다고 볼 만한 사정이 없다는 이유로, 피고인의 행위가 업무방해죄의 위계에 해당한다고 할 수 없다고 한 사례
+【참조조문】 [1] 형법 제313조, 제314조 제1항 [2] 형법 제30조, 제313조, 제314조 제1항, 형사소송법 제325조
+【참조판례】 [1] 대법원 2007. 12. 27. 선고 2005도6404 판결(공2008상, 167)대법원 2013. 11. 28. 선고 2013도5117 판결(공2014상, 145)
+【전    문】【피 고 인】
+피고인
+【상 고 인】
+피고인
+【변 호 인】
+변호사 최길림
+【원심판결】
+ 전주지법 2022. 2. 10. 선고 2021노1839 판결
+【주    문】  원심판결을 파기하고, 사건을 전주지방법원에 환송한다.
+【이    유】  상고이유를 판단한다.  1. 공소사실 중 업무방해 부분의 요지와 원심의 판단  검사는, ‘사실은 피고인 1명이 자동화기기에서 전화금융사기 편취금을 성명불상의 전화금융사기 조직원이 지정한 계좌로 입금하는 것임에도 피고인은 전화금융사기 조직원으로부터 제공받은 제3자 명의 주민등록번호를 이용해 마치 여러 명이 각각 피해자 금융기관의 ‘1일 100만 원’ 한도를 준수하면서 정상적으로 입금하는 것처럼 가장하여 전화금융사기 편취금을 100만 원 이하의 금액으로 나누어 위 조직원이 지정한 계좌로 입금하였다. 이로써 피고인은 성명불상자의 전화금융사기 조직원과 공모하여 위계로써 피해자 은행들의 자동화기기 무통장·무카드(이하 ‘무매체’라 한다) 입금거래 업무를 방해하였다.’는 공소사실로 공소를 제기하였다. 원심은 이 부분 공소사실을 유죄로 인정한 제1심판결을 그대로 유지하였다.  2. 대법원의 판단  가. 관련 법리  위계에 의한 업무방해죄에서 ‘위계’란 행위자가 행위목적을 달성하기 위하여 상대방에게 오인, 착각 또는 부지를 일으키게 하여 이를 이용하는 것을 말한다. 컴퓨터 등 정보처리장치에 정보를 입력하는 등의 행위도 그 입력된 정보 등을 바탕으로 업무를 담당하는 사람의 오인, 착각 또는 부지를 일으킬 목적으로 행해진 경우에는 여기서 말하는 위계에 해당할 수 있으나(대법원 2013. 11. 28. 선고 2013도5117 판결 참조), 위와 같은 행위로 말미암아 업무와 관련하여 오인, 착각 또는 부지를 일으킨 상대방이 없었던 경우에는 위계가 있었다고 볼 수 없다(대법원 2007. 12. 27. 선고 2005도6404 판결 참조).  나. 인정 사실  원심판결 이유 및 적법하게 채택한 증거에 의하면 다음 사실을 알 수 있다.  1) 하나은행, 우리은행, 농협은행은 금융감독원의 지도에 따라 무매체 입금거래의 한도를 ‘1일 100만 원’으로 설정하여 운영하고 있고, 입금 거래 때 입금자의 주민등록번호를 입력하도록 하여 한도 초과여부를 확인한 후 한도를 초과하면 입금 거래를 거절하고 있다.  2) 피고인은 전화금융사기의 피해자들로부터 수거한 현금을 전화금융사기 조직에 전달하는 과정에서, 위와 같은 무매체 입금거래의 이용한도 제한을 회피하기 위해 위 은행들의 자동화기기에 전화금융사기 조직원으로부터 받은 제3자의 주민등록번호를 송금자 정보로 입력하고 위 조직원이 지정한 주식회사 ○○○○ 명의의 하나은행 계좌 등을 수취계좌로 지정한 후 1회당 100만 원 이하의 현금을 자동화기기에 투입하였다. 피고인이 자동화기기에 투입한 현금은 위와 같이 입력된 정보에 따라 수취계좌로 입금되었다.  다. 판단  피고인의 무매체 입금거래는 피고인이 자동화기기에 제3자의 주민등록번호와 수령계좌를 입력한 후 현금을 투입하고 피고인이 입력한 정보에 따라 수령계좌로 그 돈이 입금됨으로써 완결되었는데, 이러한 과정에서 은행 직원 등 다른 사람의 업무가 관여되었다고 볼 만한 사정이 없다. 그렇다면 피고인이 자동화기기를 통한 무매체 입금거래 한도 제한을 회피하기 위해 제3자의 주민등록번호를 이용하여 1일 100만 원 이하의 무매체 입금거래를 하였다고 하더라도 이러한 피고인의 행위가 업무방해죄의 위계에 해당한다고 할 수 없다. 그럼에도 이 부분 공소사실을 유죄로 판단한 원심판결에는 업무방해죄에 관한 법리를 오해하여 판결에 영향을 미친 잘못이 있고, 이를 지적하는 상고이유 주장은 이유 있다.  3. 파기의 범위  위에서 본 이유로 원심판결 중 업무방해 부분은 파기되어야 하는데, 이 부분은 유죄로 인정된 나머지 부분과 형법 제37조 전단의 경합범 관계에 있어 하나의 형이 선고되었으므로 원심판결은 전부 파기되어야 한다.  4. 결론  그러므로 나머지 상고이유에 관한 판단을 생략한 채 원심판결을 파기하고, 사건을 다시 심리·판단하도록 원심법원에 환송하기로 하여, 관여 대법관의 일치된 의견으로 주문과 같이 판결한다.
+대법관   천대엽(재판장) 조재연 민유숙(주심) 이동원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://glaw.scourt.go.kr/wsjo/panre/sjo100.do?contId=2139309&amp;q=%EC%A0%84%ED%99%94%20%EC%82%AC%EA%B8%B0&amp;nq=&amp;w=panre&amp;section=panre_tot&amp;subw=&amp;subsection=&amp;subId=2&amp;csq=&amp;groups=6,7,5,9&amp;category=&amp;outmax=1&amp;msort=&amp;onlycount=&amp;sp=&amp;d1=&amp;d2=&amp;d3=&amp;d4=&amp;d5=&amp;pg=2&amp;p1=&amp;p2=&amp;p3=&amp;p4=&amp;p5=&amp;p6=&amp;p7=01,04&amp;p8=&amp;p9=&amp;p10=&amp;p11=&amp;p12=&amp;sysCd=WSJO&amp;tabGbnCd=&amp;saNo=&amp;joNo=&amp;lawNm=&amp;hanjaYn=N&amp;userSrchHistNo=&amp;poption=&amp;srch=&amp;range=&amp;daewbyn=N&amp;smpryn=N&amp;idgJyul=01&amp;newsimyn=Y&amp;trtyNm=&amp;tabId=&amp;save=Y&amp;bubNm=</t>
+    <t>【판시사항】[1] 전자금융거래법상 처벌대상인 ‘접근매체의 양수’의 의미 및 접근매체의 명의자가 양도하거나 명의자로부터 양수한 경우에만 처벌대상이 되는지 여부(소극)
+[2] 피고인이 갑으로부터 건네받은 을 명의의 통장 등 접근매체를 병이 지시하는 성명을 알 수 없는 사람에게 ‘양도’하였다고 하여 전자금융거래법 위반으로 기소된 사안에서, 피고인의 행위는 접근매체의 양도에 해당한다는 이유로, 이와 달리 보아 무죄를 선고한 원심판결에 법리오해의 위법이 있다고 한 사례
+【판결요지】[1] 전자금융거래법 제49조 제4항 제1호에서 말하는 접근매체의 양수는 양도인의 의사에 기하여 접근매체의 소유권 내지 처분권을 확정적으로 이전받는 것을 의미하고, 단지 대여받거나 일시적인 사용을 위한 위임을 받는 행위는 이에 포함되지 않는다고 보는 것이 타당한데, 같은 법 제6조 제3항 제1호는 접근매체의 양도, 양수행위의 주체에 제한을 두지 않고 있으므로 반드시 접근매체의 명의자가 양도하거나 명의자로부터 양수한 경우에만 처벌대상이 된다고 볼 수 없다.
+[2] 피고인이 갑으로부터 건네받은 을 명의 통장 등 접근매체를 병이 지시하는 성명을 알 수 없는 사람에게 양도하였다고 하여 전자금융거래법 위반으로 기소된 사안에서, 피고인은 단순히 접근매체를 사기 범행의 공범들 사이에서 내부적으로 전달하였다기보다 접근매체를 매수한 후 전부를 다시 매도하여 중간 차익을 얻는 행위를 업으로 한 점, 전화금융사기 범행의 특성상 유기적으로 연결된 범죄집단과 달리 행위자들 사이에 충분히 접근매체의 거래가 이루어질 수 있는 점, 접근매체의 유통 과정은 취득자가 접근매체를 이용하여 임의로 전자금융거래를 할 수 있음을 전제로 하고 있고 그에 대하여 일정한 가액도 수수되고 있는 점, 전자금융거래법은 전자금융거래의 법률관계를 명확히 하여 전자금융거래의 안전성과 신뢰성을 확보함에 입법목적이 있어 전자금융거래법 위반죄와 사기죄는 보호법익이나 입법목적을 달리하는 점 등을 감안할 때, 피고인의 행위는 접근매체의 양도에 해당한다는 이유로, 이와 달리 보아 무죄를 선고한 원심판결에 전자금융거래법상 접근매체 양도에 관한 법리오해의 위법이 있다고 한 사례.
+【참조조문】[1] 전자금융거래법 제6조 제3항 제1호, 제49조 제4항 제1호 [2] 전자금융거래법 제6조 제3항 제1호, 제49조 제4항 제1호
+【참조판례】[1] 대법원 2012. 2. 9. 선고 2011도14913 판결 대법원 2012. 7. 5. 선고 2011도16167 판결(공2012하, 1465)
+【전    문】【피 고 인】
+피고인 1 외 1인
+【상 고 인】
+검사
+【변 호 인】
+변호사 이창섭
+【원심판결】
+ 서울중앙지법 2013. 3. 28. 선고 2013노290 판결
+【주    문】   원심판결 중 무죄 부분을 파기하고, 이 부분 사건을 서울중앙지방법원 합의부에 환송한다.
+【이    유】  상고이유를 판단한다.  1. 피고인 1의 접근매체 양수로 인한 각 전자금융거래법 위반의 점에 대하여  가. 이 부분 공소사실의 요지는, 피고인 1이 ① 2012. 7. 25. 공소외 1로부터 공소외 2 명의의 기업은행 통장, 비밀번호, 현금카드 등 3개의 접근매체를 양수하였고, ② 2012. 8. 29. 공소외 1로부터 공소외 3 주식회사 명의의 농협통장, 현금카드 및 이에 대한 비밀번호 등 6개의 접근매체를 양수하였다는 것이다.  나. 원심은, 피고인 1이 접근매체의 명의자들로부터 직접 이를 양수하였다는 증거가 부족하고 공소외 1이 위 접근매체들의 소유권 내지 처분권을 양도할 수 있는 지위에 있었음을 인정할 만한 증거도 없다는 등의 이유로 이 부분 공소사실을 무죄로 판단하였다.  다. 그러나 원심의 판단은 아래와 같은 이유로 그대로 수긍하기 어렵다.  원심이 적법하게 채택한 증거들에 의하면, 피고인 1은 피고인 2 등과 함께 서울 동대문구 신설동에 사무실을 차려 놓고 개인 및 법인 명의의 통장을 모집, 판매하여 왔던 사실, 공소외 1은 피고인 1과 수년 전부터 알던 사이로 사업자 등록서류 등을 이용하여 개설된 각 명의인들의 통장, 비밀번호, 현금카드를 갖고 있다가 상호 연락이 되면 피고인 1을 만나 이를 교부하고 통장 1건당 25만 원 정도를 받은 사실, 피고인 1은 공소외 1로부터 위 통장 등을 넘겨받아 보관하거나 당일로 통장 1건당 35만 원 정도에 다시 팔았던 사실, 2012. 7. 25. 피고인 1은 전화금융사기 조직원인 공소외 4의 요청을 받고, 공소외 1로부터 제공받은 공소외 2 명의의 통장, 비밀번호, 현금카드 등 3개의 접근매체를 퀵서비스를 이용하여 보내준 사실, 공소외 2 등 명의의 통장 계좌는 대출, 조건만남 등을 빙자한 사기 범행의 입, 출금계좌로 사용된 사실, 위 통장이나 카드는 현금인출에 사용되고 2~3일 내에 사용이 정지되거나 버려지는 사실, 2012. 8. 29.에도 피고인 1은 공소외 3 주식회사 명의의 통장 등을 공소외 1로부터 제공받아 일부를 보관하다가 체포영장에 의하여 체포되기에 이른 사실을 알 수 있다.  전자금융거래법 제49조 제4항 제1호에서 말하는 접근매체의 양수는 양도인의 의사에 기하여 접근매체의 소유권 내지 처분권을 확정적으로 이전받는 것을 의미하고, 단지 대여받거나 일시적인 사용을 위한 위임을 받는 행위는 이에 포함되지 않는다고 봄이 상당한데, 같은 법 제6조 제3항 제1호는 접근매체의 양도, 양수행위의 주체에 제한을 두지 않고 있으므로 반드시 접근매체의 명의자가 양도하거나 명의자로부터 양수한 경우에만 처벌대상이 된다고 볼 수 없고, 위 인정 사실에 의하면, 공소외 1은 임의로 전자금융거래를 할 수 있는 명의자들의 통장, 비밀번호와 현금카드를 처분하기 위하여 소지하고 있었고, 피고인 1은 공소외 1로부터 위 접근매체 전부를 제공받고 그에 따른 정해진 대가까지 지급하였으며, 달리 이를 대여받거나 일시 사용을 위한 위임을 받았다고 볼 만한 사정은 없다.  여기에 위 접근매체를 교부하게 된 경위, 공소외 1과 피고인 1의 관계, 접근매체의 개수, 교부 이후의 정황 등도 종합하면, 피고인 1은 공소외 1로부터 위 접근매체를 각 양수하였다고 봄이 타당하다.  라. 그럼에도 불구하고 원심이 그 판시와 같은 이유만을 들어 이와 달리 이 부분 공소사실을 무죄로 판단하였으니, 거기에는 전자금융거래법상의 접근매체 양수에 관한 법리를 오해한 위법이 있다.  2. 피고인들의 접근매체 양도로 인한 전자금융거래법 위반의 점에 대하여  가. 이 부분 공소사실의 요지는, 피고인들은 2012. 7. 16. 공소외 5로부터 공소외 6 명의의 기업은행 통장, 비밀번호, 현금카드 등 6개의 접근매체를 건네받은 후 공소외 7의 지시에 따라 퀵서비스를 통해 성명불상의 인출책에게 이를 양도하였다는 것이다.  나. 원심은, 공소외 5에게 공소외 6 등의 통장에 대한 소유권 내지 처분권이 있음을 인정할 증거가 없고, 피고인들이 공범들에게 접근매체를 다시 교부하는 것은 이미 양수가 완료된 접근매체를 사기 범행의 공범들 사이에 그 역할에 따라 내부적으로 전달하는 것에 불과하다는 이유를 들어 이 부분 공소사실을 무죄로 판단하였다.  다. 그러나 원심의 판단은 아래와 같은 이유로 그대로 수긍하기 어렵다.  피고인들이 서울 동대문구 신설동에 사무실을 차려 놓고 개인 및 법인 명의의 통장을 모집, 판매하여 왔던 사실은 앞서 본 바와 같고, 나아가 원심이 적법하게 채택한 증거들에 의하면, 공소외 5(일명 ○○ ○)는 피고인 2의 부탁을 받고 2012. 7. 16. 공소외 6, 8 명의의 통장, 현금카드, 비밀번호 6개를 위 사무실로 가져온 사실, 피고인들은 이를 통장 1건당 25만 원 정도에 매수하기로 하고 개인수첩에 이름, 계좌번호, 비밀번호를 기록한 다음 공소외 7이 요청한 대로 오토바이 퀵서비스를 이용하여 이를 인출책에게 보낸 사실, 공소외 7은 위 통장 등을 넘겨받은 후 그중 사용이 가능한 통장 개수에 따른 대가로 132만 원을 송금하였고, 피고인들은 위 사무실을 함께 사용하던 공소외 9와 이를 나누는 한편 공소외 5에게 통장 매수대금을 지급한 사실, 위 공소외 6 등 명의의 통장 계좌는 전화금융사기 조직원에게 인계된 후 사기 범행의 입, 출금계좌로 사용된 사실, 피고인들 특히 피고인 1은 공소외 7 이외에도 일명 천안 최부장, 강사장 등 불상의 전화금융사기 조직원들과도 통장거래를 하여 왔던 사실을 알 수 있다.  이를 종합하면, 피고인들은 공소외 7의 지시를 받아 단순히 접근매체를 사기 범행의 공범들 사이에서 내부적으로 전달하였다기보다 공소외 5가 구해 온 통장, 비밀번호, 현금카드를 매수한 후 다시 그 전부를 공소외 7 등에게 매도함으로써 중간 차익을 얻는 행위를 업으로 한 것으로 볼 수 있고, 전화금융사기 범행의 경우 그 특성상 유기적으로 연결된 범죄집단과 달리 각 행위자들 사이에 충분히 접근매체의 거래가 이루어질 수 있는 점, 위 접근매체의 유통 과정은 그 취득자가 접근매체를 이용하여 임의로 전자금융거래를 할 수 있음을 전제로 하고 있고 그에 대하여 일정한 가액도 수수되고 있는 점, 전자금융거래법은 전자금융거래의 법률관계를 명확히 하여 전자금융거래의 안전성과 신뢰성을 확보함에 입법목적이 있어 전자금융거래법 위반죄와 사기죄는 그 보호법익이나 입법목적을 달리하는 점 등을 감안할 때, 피고인들의 위 행위는 접근매체의 양도에 해당한다고 봄이 타당하다.  라. 그럼에도 불구하고 원심이 그 판시와 같은 이유만을 들어 이와 달리 이 부분 공소사실을 무죄로 판단하였으니, 거기에는 전자금융거래법상의 접근매체 양도에 관한 법리를 오해한 위법이 있다.  3. 피고인 2의 접근매체 양도로 인한 전자금융거래법 위반의 점에 대하여  가. 이 부분 공소사실의 요지는, 피고인 2가 2012년 7월 말경 공소외 9(원심판결의 공소외 10은 오기로 보인다)로부터 공소외 11 명의의 국민은행, 기업은행 통장 등을 건네받은 후 2012. 8. 2. 오토바이 퀵서비스를 통해 공소외 7이 지시하는 성명불상의 인출책에게 위 통장 등을 양도하였다는 것이다.  나. 원심은, 피고인 2나 공소외 9에게 공소외 11 명의의 통장에 대한 소유권 내지 처분권이 있었음을 인정할 증거가 없고, 피고인 2가 공소외 9로부터 건네받은 접근매체를 전화금융사기의 공범관계에 있는 사람들에게 다시 교부하는 것은 이미 양수가 완료된 접근매체를 사기 범행의 공범들 사이에 그 역할에 따라 내부적으로 전달하는 것에 불과하다는 이유로 이 부분 공소사실을 무죄로 판단하였다.  다. 그러나 원심의 판단은 아래와 같은 이유로 그대로 수긍하기 어렵다.  원심이 적법하게 채택한 증거들에 의하면, 공소외 9는 피고인들의 위 신설동 사무실에 상주하면서 조카인 공소외 11로부터 돈을 달라는 말을 듣고 공소외 11 명의로 통장을 만들어 공소외 7에게 팔기로 한 사실, 공소외 11은 공소외 9와 함께 기업은행, 국민은행을 돌며 통장, 현금카드를 만들었고 이를 공소외 9에게 주며 빨리 팔아달라고 말한 사실, 공소외 9는 공소외 11 명의의 위 통장, 비밀번호, 현금카드 전부를 통장 1건당 25만 원을 받기로 하고 피고인 2에게 교부한 사실, 그로부터 2~3일 후 피고인 2는 공소외 7과 위 통장 등을 어디로 보내는지에 관한 통화를 한 다음 공소외 7로부터 60만 원을 받기로 하고 이를 퀵서비스로 보내준 사실, 피고인 2는 당일 공소외 7로부터 통장 값 70만 원을 보냈다는 전화를 받고 그 중 60만 원을 공소외 9에게 지급한 사실, 공소외 11 명의의 위 통장 계좌는 그 다음날 전화금융사기 범행의 입, 출금계좌로 사용된 사실을 알 수 있다.  이를 종합하면, 피고인 2는 타에 처분하기 위한 목적으로 공소외 9로부터 공소외 11 명의의 각 통장을 매수하였다가, 중간 차익을 얻고자 그 전부를 다시 공소외 7 등에게 매도한 것으로 볼 수 있고, 전화금융사기 범행의 경우 그 특성상 유기적으로 연결된 범죄집단과 달리 각 행위자들 사이에 충분히 접근매체의 거래가 이루어질 수 있는 점, 위 접근매체의 유통 과정은 그 취득자가 접근매체를 이용하여 임의로 전자금융거래를 할 수 있음을 전제로 하고 있고 그에 대하여 일정한 가액도 수수되고 있는 점, 전자금융거래법은 전자금융거래의 법률관계를 명확히 하여 전자금융거래의 안전성과 신뢰성을 확보함에 입법목적이 있어 전자금융거래법 위반죄와 사기죄는 그 보호법익이나 입법목적을 달리하는 점 등을 감안할 때, 피고인 2의 위 행위는 접근매체의 양도에 해당한다고 봄이 타당하다.  라. 그럼에도 불구하고 원심이 그 판시와 같은 이유만을 들어 이와 달리 이 부분 공소사실을 무죄로 판단하였으니, 거기에는 전자금융거래법상의 접근매체 양도에 관한 법리를 오해한 위법이 있다.  4. 결론  그러므로 원심판결 중 무죄 부분을 파기하고, 이 부분 사건을 다시 심리·판단하도록 원심법원에 환송하기로 하여, 관여 대법관의 일치된 의견으로 주문과 같이 판결한다.
+대법관   민일영(재판장) 이인복 박보영(주심) 김신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,16 +1956,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011F078B-B95B-4706-95F4-CB37B0E65789}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34707DDA-CD5E-4213-94F7-C74E93FC96D5}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.625" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
+    <col min="5" max="5" width="129.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -535,8 +1989,14 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -544,151 +2004,319 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
